--- a/DOC/基本設計/基本設計_emsm_経費管理New.xlsx
+++ b/DOC/基本設計/基本設計_emsm_経費管理New.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF7E8D-3B70-4FAA-8D0C-2DBDF29274BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="915" windowWidth="26805" windowHeight="14535" tabRatio="833" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="915" windowWidth="26805" windowHeight="14535" tabRatio="833" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>No</t>
   </si>
@@ -68,7 +68,6 @@
   </si>
   <si>
     <t>経費情報管理</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>　　社内管理システム_経費情報リスト</t>
@@ -209,7 +208,7 @@
     <t>【概要説明】</t>
   </si>
   <si>
-    <t>一．目的                                   _x000D_
+    <t>一．目的                                   
         ログイン者の経費管理リストを表示する。</t>
   </si>
   <si>
@@ -1930,6 +1929,45 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4895850" cy="4505325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1200150"/>
+          <a:ext cx="4895850" cy="4505325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2237,15 +2275,35 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="21" width="5.75" style="25"/>
+    <col min="1" max="1" width="5.75" style="25"/>
+    <col min="2" max="2" width="5.75" style="25"/>
+    <col min="3" max="3" width="5.75" style="25"/>
+    <col min="4" max="4" width="5.75" style="25"/>
+    <col min="5" max="5" width="5.75" style="25"/>
+    <col min="6" max="6" width="5.75" style="25"/>
+    <col min="7" max="7" width="5.75" style="25"/>
+    <col min="8" max="8" width="5.75" style="25"/>
+    <col min="9" max="9" width="5.75" style="25"/>
+    <col min="10" max="10" width="5.75" style="25"/>
+    <col min="11" max="11" width="5.75" style="25"/>
+    <col min="12" max="12" width="5.75" style="25"/>
+    <col min="13" max="13" width="5.75" style="25"/>
+    <col min="14" max="14" width="5.75" style="25"/>
+    <col min="15" max="15" width="5.75" style="25"/>
+    <col min="16" max="16" width="5.75" style="25"/>
+    <col min="17" max="17" width="5.75" style="25"/>
+    <col min="18" max="18" width="5.75" style="25"/>
+    <col min="19" max="19" width="5.75" style="25"/>
+    <col min="20" max="20" width="5.75" style="25"/>
+    <col min="21" max="21" width="5.75" style="25"/>
     <col min="22" max="22" width="5.75" style="30"/>
     <col min="23" max="23" width="5.75" style="25"/>
     <col min="24" max="16384" width="5.75" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" customFormat="1" s="4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2271,60 +2329,60 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" customFormat="1" s="4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" customFormat="1" s="4">
       <c r="A3" s="5"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" customFormat="1" s="4">
       <c r="A4" s="5"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" customFormat="1" s="4">
       <c r="A5" s="5"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" customFormat="1" s="4">
       <c r="A6" s="5"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" customFormat="1" s="4">
       <c r="A7" s="5"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" customFormat="1" s="4">
       <c r="A8" s="5"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" customFormat="1" s="4">
       <c r="A9" s="5"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" customFormat="1" s="4">
       <c r="A10" s="5"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" customFormat="1" s="4">
       <c r="A11" s="5"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" customFormat="1" s="4">
       <c r="A12" s="5"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" customFormat="1" s="4">
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" customFormat="1" s="4">
       <c r="A14" s="5"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+    <row r="15" ht="24" customFormat="1" s="4">
       <c r="A15" s="5"/>
       <c r="I15" s="8" t="s">
         <v>5</v>
@@ -2338,15 +2396,15 @@
       <c r="P15" s="8"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" customFormat="1" s="4">
       <c r="A16" s="5"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" customFormat="1" s="4">
       <c r="A17" s="5"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" customHeight="1" ht="14" customFormat="1" s="4">
       <c r="A18" s="5"/>
       <c r="G18" s="9" t="s">
         <v>6</v>
@@ -2364,7 +2422,7 @@
       <c r="R18" s="11"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" customHeight="1" ht="14" customFormat="1" s="4">
       <c r="A19" s="5"/>
       <c r="G19" s="12" t="s">
         <v>7</v>
@@ -2382,7 +2440,7 @@
       <c r="R19" s="14"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" customHeight="1" ht="14" customFormat="1" s="4">
       <c r="A20" s="5"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
@@ -2398,11 +2456,11 @@
       <c r="R20" s="17"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" customFormat="1" s="4">
       <c r="A21" s="5"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="22" ht="13" customFormat="1" s="4">
       <c r="A22" s="5"/>
       <c r="G22" s="9" t="s">
         <v>8</v>
@@ -2420,7 +2478,7 @@
       <c r="R22" s="19"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" customFormat="1" s="4">
       <c r="A23" s="5"/>
       <c r="G23" s="12" t="s">
         <v>9</v>
@@ -2438,7 +2496,7 @@
       <c r="R23" s="21"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" customFormat="1" s="4">
       <c r="A24" s="5"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
@@ -2454,7 +2512,7 @@
       <c r="R24" s="24"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" customFormat="1" s="4">
       <c r="A25" s="5"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
@@ -2468,7 +2526,7 @@
       <c r="Q25" s="25"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="26" ht="13" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
@@ -2482,79 +2540,79 @@
       <c r="Q26" s="26"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" customFormat="1" s="4">
       <c r="A27" s="5"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" customFormat="1" s="4">
       <c r="A28" s="5"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" customFormat="1" s="4">
       <c r="A29" s="5"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" customFormat="1" s="4">
       <c r="A30" s="5"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" customFormat="1" s="4">
       <c r="A31" s="5"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" customFormat="1" s="4">
       <c r="A32" s="5"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" customFormat="1" s="4">
       <c r="A33" s="5"/>
       <c r="K33" s="25"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" customFormat="1" s="4">
       <c r="A34" s="5"/>
       <c r="K34" s="25"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" customFormat="1" s="4">
       <c r="A35" s="5"/>
       <c r="K35" s="25"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" customFormat="1" s="4">
       <c r="A36" s="5"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" customFormat="1" s="4">
       <c r="A37" s="5"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" customFormat="1" s="4">
       <c r="A38" s="5"/>
       <c r="K38" s="25"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" customFormat="1" s="4">
       <c r="A39" s="5"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" customFormat="1" s="4">
       <c r="A40" s="5"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" customFormat="1" s="4">
       <c r="A41" s="5"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" customFormat="1" s="4">
       <c r="A42" s="5"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" customFormat="1" s="4">
       <c r="A43" s="5"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" customFormat="1" s="4">
       <c r="A44" s="27"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -2580,7 +2638,7 @@
       <c r="W44" s="28"/>
       <c r="X44" s="29"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="49">
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -2590,7 +2648,7 @@
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="50">
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -2600,7 +2658,7 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="51">
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
@@ -2610,7 +2668,7 @@
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="52">
       <c r="D52" s="30"/>
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
@@ -2620,7 +2678,7 @@
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="53">
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
@@ -2630,7 +2688,7 @@
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="54">
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
@@ -2661,7 +2719,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="31" customWidth="1"/>
@@ -3049,12 +3107,12 @@
     <col min="16134" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="C2" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="B4" s="33">
         <v>1</v>
       </c>
@@ -3082,7 +3140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="B5" s="35">
         <v>2</v>
       </c>
@@ -3090,7 +3148,7 @@
       <c r="D5" s="36"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="B6" s="37">
         <v>3</v>
       </c>
@@ -3098,67 +3156,67 @@
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -3175,11 +3233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="1">
+      <selection activeCell="E8" sqref="E8" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="64" width="2.125" style="42"/>
     <col min="65" max="65" width="3.625" style="42" customWidth="1"/>
@@ -3376,7 +3434,7 @@
     <col min="16195" max="16384" width="2.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="13">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -3444,7 +3502,7 @@
       <c r="BM1" s="39"/>
       <c r="BN1" s="41"/>
     </row>
-    <row r="2" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="13">
       <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3498,7 +3556,7 @@
       <c r="BM2" s="46"/>
       <c r="BN2" s="47"/>
     </row>
-    <row r="3" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="13">
       <c r="A3" s="43"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -3550,7 +3608,7 @@
       <c r="BM3" s="45"/>
       <c r="BN3" s="48"/>
     </row>
-    <row r="4" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="13">
       <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +3692,7 @@
       <c r="BM4" s="65"/>
       <c r="BN4" s="66"/>
     </row>
-    <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" customHeight="1" ht="13">
       <c r="A5" s="67" t="s">
         <v>19</v>
       </c>
@@ -3712,7 +3770,7 @@
       <c r="BM5" s="73"/>
       <c r="BN5" s="74"/>
     </row>
-    <row r="6" spans="1:66" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" customHeight="1" ht="13">
       <c r="A6" s="78"/>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -3785,7 +3843,7 @@
       <c r="BL6" s="81"/>
       <c r="BM6" s="81"/>
     </row>
-    <row r="7" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" customHeight="1" ht="13">
       <c r="A7" s="78"/>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
@@ -3858,7 +3916,7 @@
       <c r="BL7" s="87"/>
       <c r="BM7" s="88"/>
     </row>
-    <row r="8" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" customHeight="1" ht="13">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -3931,7 +3989,7 @@
       <c r="BL8" s="90"/>
       <c r="BM8" s="91"/>
     </row>
-    <row r="9" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" customHeight="1" ht="13">
       <c r="A9" s="78"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -4004,7 +4062,7 @@
       <c r="BL9" s="90"/>
       <c r="BM9" s="91"/>
     </row>
-    <row r="10" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" customHeight="1" ht="13">
       <c r="A10" s="78"/>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -4077,7 +4135,7 @@
       <c r="BL10" s="90"/>
       <c r="BM10" s="91"/>
     </row>
-    <row r="11" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" customHeight="1" ht="13">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -4150,7 +4208,7 @@
       <c r="BL11" s="90"/>
       <c r="BM11" s="91"/>
     </row>
-    <row r="12" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" customHeight="1" ht="13">
       <c r="A12" s="78"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -4223,7 +4281,7 @@
       <c r="BL12" s="90"/>
       <c r="BM12" s="91"/>
     </row>
-    <row r="13" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" customHeight="1" ht="13">
       <c r="A13" s="78"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
@@ -4296,7 +4354,7 @@
       <c r="BL13" s="90"/>
       <c r="BM13" s="91"/>
     </row>
-    <row r="14" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" customHeight="1" ht="13">
       <c r="A14" s="78"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -4369,7 +4427,7 @@
       <c r="BL14" s="90"/>
       <c r="BM14" s="91"/>
     </row>
-    <row r="15" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" customHeight="1" ht="13">
       <c r="A15" s="78"/>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
@@ -4442,7 +4500,7 @@
       <c r="BL15" s="90"/>
       <c r="BM15" s="91"/>
     </row>
-    <row r="16" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" customHeight="1" ht="13">
       <c r="A16" s="78"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
@@ -4515,7 +4573,7 @@
       <c r="BL16" s="90"/>
       <c r="BM16" s="91"/>
     </row>
-    <row r="17" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" customHeight="1" ht="13">
       <c r="A17" s="78"/>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
@@ -4588,7 +4646,7 @@
       <c r="BL17" s="90"/>
       <c r="BM17" s="91"/>
     </row>
-    <row r="18" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" customHeight="1" ht="13">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
@@ -4661,7 +4719,7 @@
       <c r="BL18" s="90"/>
       <c r="BM18" s="91"/>
     </row>
-    <row r="19" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="13">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
@@ -4704,7 +4762,7 @@
       <c r="AN19" s="79"/>
       <c r="AO19" s="79"/>
     </row>
-    <row r="20" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="13">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
       <c r="C20" s="79"/>
@@ -4747,7 +4805,7 @@
       <c r="AN20" s="79"/>
       <c r="AO20" s="79"/>
     </row>
-    <row r="21" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="13">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
@@ -4790,7 +4848,7 @@
       <c r="AN21" s="79"/>
       <c r="AO21" s="79"/>
     </row>
-    <row r="22" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="13">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
       <c r="C22" s="79"/>
@@ -4833,7 +4891,7 @@
       <c r="AN22" s="79"/>
       <c r="AO22" s="79"/>
     </row>
-    <row r="23" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="13">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
       <c r="C23" s="79"/>
@@ -4876,7 +4934,7 @@
       <c r="AN23" s="79"/>
       <c r="AO23" s="79"/>
     </row>
-    <row r="24" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="13">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
@@ -4919,7 +4977,7 @@
       <c r="AN24" s="79"/>
       <c r="AO24" s="79"/>
     </row>
-    <row r="25" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="13">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
       <c r="C25" s="79"/>
@@ -4962,7 +5020,7 @@
       <c r="AN25" s="79"/>
       <c r="AO25" s="79"/>
     </row>
-    <row r="26" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="13">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
       <c r="C26" s="79"/>
@@ -5005,7 +5063,7 @@
       <c r="AN26" s="79"/>
       <c r="AO26" s="79"/>
     </row>
-    <row r="27" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="13">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
       <c r="C27" s="79"/>
@@ -5048,7 +5106,7 @@
       <c r="AN27" s="79"/>
       <c r="AO27" s="79"/>
     </row>
-    <row r="28" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="13">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
@@ -5091,7 +5149,7 @@
       <c r="AN28" s="79"/>
       <c r="AO28" s="79"/>
     </row>
-    <row r="29" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="13">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
@@ -5134,7 +5192,7 @@
       <c r="AN29" s="79"/>
       <c r="AO29" s="79"/>
     </row>
-    <row r="30" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="13">
       <c r="A30" s="78"/>
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
@@ -5177,7 +5235,7 @@
       <c r="AN30" s="79"/>
       <c r="AO30" s="79"/>
     </row>
-    <row r="31" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="13">
       <c r="A31" s="78"/>
       <c r="B31" s="79"/>
       <c r="C31" s="79"/>
@@ -5220,7 +5278,7 @@
       <c r="AN31" s="79"/>
       <c r="AO31" s="79"/>
     </row>
-    <row r="32" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="13">
       <c r="A32" s="78"/>
       <c r="B32" s="79"/>
       <c r="C32" s="79"/>
@@ -5263,7 +5321,7 @@
       <c r="AN32" s="79"/>
       <c r="AO32" s="79"/>
     </row>
-    <row r="33" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" ht="13">
       <c r="A33" s="78"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
@@ -5306,7 +5364,7 @@
       <c r="AN33" s="79"/>
       <c r="AO33" s="79"/>
     </row>
-    <row r="34" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" ht="13">
       <c r="A34" s="78"/>
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
@@ -5349,7 +5407,7 @@
       <c r="AN34" s="79"/>
       <c r="AO34" s="79"/>
     </row>
-    <row r="35" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" customHeight="1" ht="13">
       <c r="A35" s="78"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
@@ -5392,7 +5450,7 @@
       <c r="AN35" s="79"/>
       <c r="AO35" s="79"/>
     </row>
-    <row r="36" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" customHeight="1" ht="13">
       <c r="A36" s="78"/>
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
@@ -5435,7 +5493,7 @@
       <c r="AN36" s="79"/>
       <c r="AO36" s="79"/>
     </row>
-    <row r="37" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" customHeight="1" ht="13">
       <c r="A37" s="78"/>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
@@ -5478,7 +5536,7 @@
       <c r="AN37" s="79"/>
       <c r="AO37" s="79"/>
     </row>
-    <row r="38" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" customHeight="1" ht="13">
       <c r="A38" s="78"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
@@ -5521,7 +5579,7 @@
       <c r="AN38" s="79"/>
       <c r="AO38" s="79"/>
     </row>
-    <row r="39" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" customHeight="1" ht="13">
       <c r="A39" s="78"/>
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
@@ -5564,7 +5622,7 @@
       <c r="AN39" s="79"/>
       <c r="AO39" s="79"/>
     </row>
-    <row r="40" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" customHeight="1" ht="13">
       <c r="A40" s="78"/>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
@@ -5607,7 +5665,7 @@
       <c r="AN40" s="79"/>
       <c r="AO40" s="79"/>
     </row>
-    <row r="41" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" customHeight="1" ht="13">
       <c r="A41" s="78"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
@@ -5650,7 +5708,7 @@
       <c r="AN41" s="79"/>
       <c r="AO41" s="79"/>
     </row>
-    <row r="42" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" customHeight="1" ht="13">
       <c r="A42" s="78"/>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -5693,7 +5751,7 @@
       <c r="AN42" s="79"/>
       <c r="AO42" s="79"/>
     </row>
-    <row r="43" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" customHeight="1" ht="13">
       <c r="A43" s="78"/>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
@@ -5736,7 +5794,7 @@
       <c r="AN43" s="79"/>
       <c r="AO43" s="79"/>
     </row>
-    <row r="44" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" customHeight="1" ht="13">
       <c r="A44" s="78"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
@@ -5779,7 +5837,7 @@
       <c r="AN44" s="79"/>
       <c r="AO44" s="79"/>
     </row>
-    <row r="45" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" customHeight="1" ht="13">
       <c r="A45" s="78"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
@@ -5822,7 +5880,7 @@
       <c r="AN45" s="79"/>
       <c r="AO45" s="79"/>
     </row>
-    <row r="46" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" customHeight="1" ht="13">
       <c r="A46" s="78"/>
       <c r="B46" s="79"/>
       <c r="C46" s="79"/>
@@ -5865,7 +5923,7 @@
       <c r="AN46" s="79"/>
       <c r="AO46" s="79"/>
     </row>
-    <row r="47" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" customHeight="1" ht="13">
       <c r="A47" s="78"/>
       <c r="B47" s="79"/>
       <c r="C47" s="79"/>
@@ -5908,7 +5966,7 @@
       <c r="AN47" s="79"/>
       <c r="AO47" s="79"/>
     </row>
-    <row r="48" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" customHeight="1" ht="13">
       <c r="A48" s="78"/>
       <c r="B48" s="79"/>
       <c r="C48" s="79"/>
@@ -5951,7 +6009,7 @@
       <c r="AN48" s="79"/>
       <c r="AO48" s="79"/>
     </row>
-    <row r="49" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" customHeight="1" ht="13">
       <c r="A49" s="78"/>
       <c r="B49" s="79"/>
       <c r="C49" s="79"/>
@@ -5994,7 +6052,7 @@
       <c r="AN49" s="79"/>
       <c r="AO49" s="79"/>
     </row>
-    <row r="50" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" customHeight="1" ht="13">
       <c r="A50" s="78"/>
       <c r="B50" s="79"/>
       <c r="C50" s="79"/>
@@ -6037,7 +6095,7 @@
       <c r="AN50" s="79"/>
       <c r="AO50" s="79"/>
     </row>
-    <row r="51" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" customHeight="1" ht="13">
       <c r="A51" s="78"/>
       <c r="B51" s="79"/>
       <c r="C51" s="79"/>
@@ -6080,7 +6138,7 @@
       <c r="AN51" s="79"/>
       <c r="AO51" s="79"/>
     </row>
-    <row r="52" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" customHeight="1" ht="13">
       <c r="A52" s="78"/>
       <c r="B52" s="79"/>
       <c r="C52" s="79"/>
@@ -6123,7 +6181,7 @@
       <c r="AN52" s="79"/>
       <c r="AO52" s="79"/>
     </row>
-    <row r="53" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" customHeight="1" ht="13">
       <c r="A53" s="78"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
@@ -6166,7 +6224,7 @@
       <c r="AN53" s="79"/>
       <c r="AO53" s="79"/>
     </row>
-    <row r="54" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" customHeight="1" ht="13">
       <c r="A54" s="78"/>
       <c r="B54" s="79"/>
       <c r="C54" s="79"/>
@@ -6209,7 +6267,7 @@
       <c r="AN54" s="79"/>
       <c r="AO54" s="79"/>
     </row>
-    <row r="55" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" customHeight="1" ht="13">
       <c r="A55" s="78"/>
       <c r="B55" s="79"/>
       <c r="C55" s="79"/>
@@ -6252,7 +6310,7 @@
       <c r="AN55" s="79"/>
       <c r="AO55" s="79"/>
     </row>
-    <row r="56" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" customHeight="1" ht="13">
       <c r="A56" s="78"/>
       <c r="B56" s="79"/>
       <c r="C56" s="79"/>
@@ -6295,7 +6353,7 @@
       <c r="AN56" s="79"/>
       <c r="AO56" s="79"/>
     </row>
-    <row r="57" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" customHeight="1" ht="13">
       <c r="A57" s="78"/>
       <c r="B57" s="79"/>
       <c r="C57" s="79"/>
@@ -6338,7 +6396,7 @@
       <c r="AN57" s="79"/>
       <c r="AO57" s="79"/>
     </row>
-    <row r="58" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" customHeight="1" ht="13">
       <c r="A58" s="78"/>
       <c r="B58" s="79"/>
       <c r="C58" s="79"/>
@@ -6381,7 +6439,7 @@
       <c r="AN58" s="79"/>
       <c r="AO58" s="79"/>
     </row>
-    <row r="59" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" customHeight="1" ht="13">
       <c r="A59" s="78"/>
       <c r="B59" s="79"/>
       <c r="C59" s="79"/>
@@ -6424,7 +6482,7 @@
       <c r="AN59" s="79"/>
       <c r="AO59" s="79"/>
     </row>
-    <row r="60" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" customHeight="1" ht="13">
       <c r="A60" s="78"/>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
@@ -6467,7 +6525,7 @@
       <c r="AN60" s="79"/>
       <c r="AO60" s="79"/>
     </row>
-    <row r="61" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" customHeight="1" ht="13">
       <c r="A61" s="92"/>
       <c r="B61" s="93"/>
       <c r="C61" s="93"/>
@@ -6512,46 +6570,12 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="AP18:AR18"/>
-    <mergeCell ref="AS18:BD18"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AS16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AS17:BD17"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AS14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AS12:BD12"/>
-    <mergeCell ref="BE12:BM12"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AS13:BD13"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:BD11"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BI4:BN4"/>
@@ -6562,15 +6586,50 @@
     <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BD7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AS9:BD9"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AS10:BD10"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:BD11"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AS12:BD12"/>
+    <mergeCell ref="BE12:BM12"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AS13:BD13"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AS14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AS16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AS17:BD17"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="AS18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6582,7 +6641,7 @@
       <selection activeCell="BU16" sqref="BU16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="0.75" style="42" customWidth="1"/>
     <col min="2" max="33" width="2.125" style="42"/>
@@ -6842,7 +6901,7 @@
     <col min="16163" max="16384" width="2.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="13">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6909,7 +6968,7 @@
       <c r="BL1" s="39"/>
       <c r="BM1" s="94"/>
     </row>
-    <row r="2" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="13">
       <c r="A2" s="43" t="s">
         <v>53</v>
       </c>
@@ -6962,7 +7021,7 @@
       <c r="BL2" s="46"/>
       <c r="BM2" s="94"/>
     </row>
-    <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="43"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -7013,7 +7072,7 @@
       <c r="BL3" s="45"/>
       <c r="BM3" s="95"/>
     </row>
-    <row r="4" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="13">
       <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
@@ -7099,7 +7158,7 @@
       <c r="BL4" s="65"/>
       <c r="BM4" s="97"/>
     </row>
-    <row r="5" spans="1:65" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" customHeight="1" ht="13">
       <c r="A5" s="67" t="s">
         <v>19</v>
       </c>
@@ -7176,7 +7235,7 @@
       <c r="BL5" s="73"/>
       <c r="BM5" s="98"/>
     </row>
-    <row r="6" spans="1:65" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="13">
       <c r="A6" s="99"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
@@ -7243,7 +7302,7 @@
       <c r="BL6" s="102"/>
       <c r="BM6" s="94"/>
     </row>
-    <row r="7" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="13">
       <c r="A7" s="103"/>
       <c r="B7" s="104" t="s">
         <v>55</v>
@@ -7314,7 +7373,7 @@
       <c r="BL7" s="100"/>
       <c r="BM7" s="94"/>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="13">
       <c r="A8" s="103"/>
       <c r="B8" s="107"/>
       <c r="C8" s="108" t="s">
@@ -7383,7 +7442,7 @@
       <c r="BL8" s="110"/>
       <c r="BM8" s="94"/>
     </row>
-    <row r="9" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="13">
       <c r="A9" s="103"/>
       <c r="B9" s="111"/>
       <c r="C9" s="109"/>
@@ -7450,7 +7509,7 @@
       <c r="BL9" s="110"/>
       <c r="BM9" s="94"/>
     </row>
-    <row r="10" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="13">
       <c r="A10" s="103"/>
       <c r="B10" s="111"/>
       <c r="C10" s="111" t="s">
@@ -7519,7 +7578,7 @@
       <c r="BL10" s="110"/>
       <c r="BM10" s="94"/>
     </row>
-    <row r="11" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="13">
       <c r="A11" s="103"/>
       <c r="B11" s="111"/>
       <c r="C11" s="107" t="s">
@@ -7588,7 +7647,7 @@
       <c r="BL11" s="107"/>
       <c r="BM11" s="94"/>
     </row>
-    <row r="12" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="13">
       <c r="A12" s="103"/>
       <c r="B12" s="111"/>
       <c r="C12" s="107"/>
@@ -7657,7 +7716,7 @@
       <c r="BL12" s="114"/>
       <c r="BM12" s="94"/>
     </row>
-    <row r="13" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="13">
       <c r="A13" s="103"/>
       <c r="B13" s="111"/>
       <c r="C13" s="107"/>
@@ -7724,7 +7783,7 @@
       <c r="BL13" s="116"/>
       <c r="BM13" s="94"/>
     </row>
-    <row r="14" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="13">
       <c r="A14" s="103"/>
       <c r="B14" s="111"/>
       <c r="C14" s="107"/>
@@ -7793,7 +7852,7 @@
       <c r="BL14" s="116"/>
       <c r="BM14" s="94"/>
     </row>
-    <row r="15" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="13">
       <c r="A15" s="103"/>
       <c r="B15" s="111"/>
       <c r="C15" s="107"/>
@@ -7860,7 +7919,7 @@
       <c r="BL15" s="116"/>
       <c r="BM15" s="94"/>
     </row>
-    <row r="16" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="13">
       <c r="A16" s="103"/>
       <c r="B16" s="111"/>
       <c r="C16" s="107"/>
@@ -7927,7 +7986,7 @@
       <c r="BL16" s="116"/>
       <c r="BM16" s="94"/>
     </row>
-    <row r="17" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="13">
       <c r="A17" s="103"/>
       <c r="B17" s="111"/>
       <c r="C17" s="107"/>
@@ -7994,7 +8053,7 @@
       <c r="BL17" s="116"/>
       <c r="BM17" s="94"/>
     </row>
-    <row r="18" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="13">
       <c r="A18" s="103"/>
       <c r="B18" s="111"/>
       <c r="C18" s="107"/>
@@ -8061,7 +8120,7 @@
       <c r="BL18" s="119"/>
       <c r="BM18" s="94"/>
     </row>
-    <row r="19" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="13">
       <c r="A19" s="103"/>
       <c r="B19" s="111"/>
       <c r="C19" s="107"/>
@@ -8130,7 +8189,7 @@
       <c r="BL19" s="114"/>
       <c r="BM19" s="94"/>
     </row>
-    <row r="20" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="13">
       <c r="A20" s="103"/>
       <c r="B20" s="111"/>
       <c r="C20" s="107"/>
@@ -8197,7 +8256,7 @@
       <c r="BL20" s="122"/>
       <c r="BM20" s="94"/>
     </row>
-    <row r="21" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="13">
       <c r="A21" s="103"/>
       <c r="B21" s="111"/>
       <c r="C21" s="107"/>
@@ -8266,7 +8325,7 @@
       <c r="BL21" s="124"/>
       <c r="BM21" s="94"/>
     </row>
-    <row r="22" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="13">
       <c r="A22" s="103"/>
       <c r="B22" s="111"/>
       <c r="C22" s="107"/>
@@ -8335,7 +8394,7 @@
       <c r="BL22" s="124"/>
       <c r="BM22" s="94"/>
     </row>
-    <row r="23" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="13">
       <c r="A23" s="103"/>
       <c r="B23" s="111"/>
       <c r="C23" s="107"/>
@@ -8404,7 +8463,7 @@
       <c r="BL23" s="124"/>
       <c r="BM23" s="94"/>
     </row>
-    <row r="24" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="13">
       <c r="A24" s="103"/>
       <c r="B24" s="111"/>
       <c r="C24" s="107"/>
@@ -8471,7 +8530,7 @@
       <c r="BL24" s="124"/>
       <c r="BM24" s="94"/>
     </row>
-    <row r="25" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="13">
       <c r="A25" s="103"/>
       <c r="B25" s="111"/>
       <c r="C25" s="107"/>
@@ -8538,7 +8597,7 @@
       <c r="BL25" s="124"/>
       <c r="BM25" s="94"/>
     </row>
-    <row r="26" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="13">
       <c r="A26" s="103"/>
       <c r="B26" s="111"/>
       <c r="C26" s="107"/>
@@ -8607,7 +8666,7 @@
       <c r="BL26" s="124"/>
       <c r="BM26" s="94"/>
     </row>
-    <row r="27" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="13">
       <c r="A27" s="103"/>
       <c r="B27" s="111"/>
       <c r="C27" s="107"/>
@@ -8676,7 +8735,7 @@
       <c r="BL27" s="124"/>
       <c r="BM27" s="94"/>
     </row>
-    <row r="28" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="13">
       <c r="A28" s="103"/>
       <c r="B28" s="111"/>
       <c r="C28" s="107"/>
@@ -8745,7 +8804,7 @@
       <c r="BL28" s="124"/>
       <c r="BM28" s="94"/>
     </row>
-    <row r="29" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="13">
       <c r="A29" s="103"/>
       <c r="B29" s="111"/>
       <c r="C29" s="107"/>
@@ -8814,7 +8873,7 @@
       <c r="BL29" s="124"/>
       <c r="BM29" s="94"/>
     </row>
-    <row r="30" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="13">
       <c r="A30" s="103"/>
       <c r="B30" s="111"/>
       <c r="C30" s="107"/>
@@ -8881,7 +8940,7 @@
       <c r="BL30" s="124"/>
       <c r="BM30" s="94"/>
     </row>
-    <row r="31" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="13">
       <c r="A31" s="103"/>
       <c r="B31" s="111"/>
       <c r="C31" s="107"/>
@@ -8950,7 +9009,7 @@
       <c r="BL31" s="124"/>
       <c r="BM31" s="94"/>
     </row>
-    <row r="32" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="13">
       <c r="A32" s="103"/>
       <c r="B32" s="111"/>
       <c r="C32" s="107"/>
@@ -9019,7 +9078,7 @@
       <c r="BL32" s="124"/>
       <c r="BM32" s="94"/>
     </row>
-    <row r="33" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" ht="13">
       <c r="A33" s="103"/>
       <c r="B33" s="111"/>
       <c r="C33" s="107"/>
@@ -9086,7 +9145,7 @@
       <c r="BL33" s="127"/>
       <c r="BM33" s="94"/>
     </row>
-    <row r="34" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" ht="13">
       <c r="A34" s="103"/>
       <c r="B34" s="111"/>
       <c r="C34" s="107"/>
@@ -9153,7 +9212,7 @@
       <c r="BL34" s="111"/>
       <c r="BM34" s="94"/>
     </row>
-    <row r="35" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" customHeight="1" ht="13">
       <c r="A35" s="103"/>
       <c r="B35" s="111"/>
       <c r="C35" s="107"/>
@@ -9220,7 +9279,7 @@
       <c r="BL35" s="111"/>
       <c r="BM35" s="94"/>
     </row>
-    <row r="36" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" customHeight="1" ht="13">
       <c r="A36" s="103"/>
       <c r="B36" s="111"/>
       <c r="C36" s="107"/>
@@ -9287,7 +9346,7 @@
       <c r="BL36" s="111"/>
       <c r="BM36" s="94"/>
     </row>
-    <row r="37" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" customHeight="1" ht="13">
       <c r="A37" s="103"/>
       <c r="B37" s="111"/>
       <c r="C37" s="107"/>
@@ -9354,7 +9413,7 @@
       <c r="BL37" s="111"/>
       <c r="BM37" s="94"/>
     </row>
-    <row r="38" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" customHeight="1" ht="13">
       <c r="A38" s="103"/>
       <c r="B38" s="111"/>
       <c r="C38" s="107"/>
@@ -9421,7 +9480,7 @@
       <c r="BL38" s="111"/>
       <c r="BM38" s="94"/>
     </row>
-    <row r="39" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" customHeight="1" ht="13">
       <c r="A39" s="103"/>
       <c r="B39" s="111"/>
       <c r="C39" s="107"/>
@@ -9488,7 +9547,7 @@
       <c r="BL39" s="111"/>
       <c r="BM39" s="94"/>
     </row>
-    <row r="40" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" customHeight="1" ht="13">
       <c r="A40" s="103"/>
       <c r="B40" s="111"/>
       <c r="C40" s="107"/>
@@ -9555,7 +9614,7 @@
       <c r="BL40" s="111"/>
       <c r="BM40" s="94"/>
     </row>
-    <row r="41" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" customHeight="1" ht="13">
       <c r="A41" s="103"/>
       <c r="B41" s="111"/>
       <c r="C41" s="107"/>
@@ -9622,7 +9681,7 @@
       <c r="BL41" s="111"/>
       <c r="BM41" s="94"/>
     </row>
-    <row r="42" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" customHeight="1" ht="13">
       <c r="A42" s="103"/>
       <c r="B42" s="111"/>
       <c r="C42" s="107"/>
@@ -9689,7 +9748,7 @@
       <c r="BL42" s="111"/>
       <c r="BM42" s="94"/>
     </row>
-    <row r="43" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" customHeight="1" ht="13">
       <c r="A43" s="103"/>
       <c r="B43" s="111"/>
       <c r="C43" s="107"/>
@@ -9756,7 +9815,7 @@
       <c r="BL43" s="111"/>
       <c r="BM43" s="94"/>
     </row>
-    <row r="44" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" customHeight="1" ht="13">
       <c r="A44" s="103"/>
       <c r="B44" s="111"/>
       <c r="C44" s="107"/>
@@ -9823,7 +9882,7 @@
       <c r="BL44" s="111"/>
       <c r="BM44" s="94"/>
     </row>
-    <row r="45" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" customHeight="1" ht="13">
       <c r="A45" s="103"/>
       <c r="B45" s="111"/>
       <c r="C45" s="107"/>
@@ -9890,7 +9949,7 @@
       <c r="BL45" s="111"/>
       <c r="BM45" s="94"/>
     </row>
-    <row r="46" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" customHeight="1" ht="13">
       <c r="A46" s="103"/>
       <c r="B46" s="111"/>
       <c r="C46" s="107"/>
@@ -9957,7 +10016,7 @@
       <c r="BL46" s="111"/>
       <c r="BM46" s="94"/>
     </row>
-    <row r="47" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" customHeight="1" ht="13">
       <c r="A47" s="103"/>
       <c r="B47" s="111"/>
       <c r="C47" s="107"/>
@@ -10024,7 +10083,7 @@
       <c r="BL47" s="111"/>
       <c r="BM47" s="94"/>
     </row>
-    <row r="48" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" customHeight="1" ht="13">
       <c r="A48" s="103"/>
       <c r="B48" s="111"/>
       <c r="C48" s="107"/>
@@ -10091,7 +10150,7 @@
       <c r="BL48" s="111"/>
       <c r="BM48" s="94"/>
     </row>
-    <row r="49" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" customHeight="1" ht="13">
       <c r="A49" s="103"/>
       <c r="B49" s="111"/>
       <c r="C49" s="107"/>
@@ -10158,7 +10217,7 @@
       <c r="BL49" s="111"/>
       <c r="BM49" s="94"/>
     </row>
-    <row r="50" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" customHeight="1" ht="13">
       <c r="A50" s="103"/>
       <c r="B50" s="111"/>
       <c r="C50" s="107"/>
@@ -10225,7 +10284,7 @@
       <c r="BL50" s="111"/>
       <c r="BM50" s="94"/>
     </row>
-    <row r="51" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" customHeight="1" ht="13">
       <c r="A51" s="103"/>
       <c r="B51" s="111"/>
       <c r="C51" s="107"/>
@@ -10292,7 +10351,7 @@
       <c r="BL51" s="111"/>
       <c r="BM51" s="94"/>
     </row>
-    <row r="52" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" customHeight="1" ht="13">
       <c r="A52" s="103"/>
       <c r="B52" s="111"/>
       <c r="C52" s="107"/>
@@ -10359,7 +10418,7 @@
       <c r="BL52" s="111"/>
       <c r="BM52" s="94"/>
     </row>
-    <row r="53" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" customHeight="1" ht="13">
       <c r="A53" s="103"/>
       <c r="B53" s="111"/>
       <c r="C53" s="107"/>
@@ -10426,7 +10485,7 @@
       <c r="BL53" s="111"/>
       <c r="BM53" s="94"/>
     </row>
-    <row r="54" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" customHeight="1" ht="13">
       <c r="A54" s="103"/>
       <c r="B54" s="111"/>
       <c r="C54" s="107"/>
@@ -10493,7 +10552,7 @@
       <c r="BL54" s="111"/>
       <c r="BM54" s="94"/>
     </row>
-    <row r="55" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" customHeight="1" ht="13">
       <c r="A55" s="103"/>
       <c r="B55" s="111"/>
       <c r="C55" s="107"/>
@@ -10560,7 +10619,7 @@
       <c r="BL55" s="111"/>
       <c r="BM55" s="94"/>
     </row>
-    <row r="56" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" customHeight="1" ht="13">
       <c r="A56" s="103"/>
       <c r="B56" s="111"/>
       <c r="C56" s="107"/>
@@ -10627,7 +10686,7 @@
       <c r="BL56" s="111"/>
       <c r="BM56" s="94"/>
     </row>
-    <row r="57" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" customHeight="1" ht="13">
       <c r="A57" s="103"/>
       <c r="B57" s="111"/>
       <c r="C57" s="107"/>
@@ -10694,7 +10753,7 @@
       <c r="BL57" s="111"/>
       <c r="BM57" s="94"/>
     </row>
-    <row r="58" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" customHeight="1" ht="13">
       <c r="A58" s="103"/>
       <c r="B58" s="111"/>
       <c r="C58" s="107"/>
@@ -10761,7 +10820,7 @@
       <c r="BL58" s="111"/>
       <c r="BM58" s="94"/>
     </row>
-    <row r="59" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" customHeight="1" ht="13">
       <c r="A59" s="103"/>
       <c r="B59" s="111"/>
       <c r="C59" s="107"/>
@@ -10828,7 +10887,7 @@
       <c r="BL59" s="111"/>
       <c r="BM59" s="94"/>
     </row>
-    <row r="60" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" customHeight="1" ht="13">
       <c r="A60" s="128"/>
       <c r="B60" s="129"/>
       <c r="C60" s="129"/>
@@ -10897,18 +10956,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D13:BL13"/>
-    <mergeCell ref="D14:BL14"/>
-    <mergeCell ref="D15:BL15"/>
-    <mergeCell ref="D16:BL16"/>
-    <mergeCell ref="D17:BL17"/>
-    <mergeCell ref="D19:BL19"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:BC6"/>
-    <mergeCell ref="BD6:BL6"/>
-    <mergeCell ref="C8:BK9"/>
-    <mergeCell ref="D12:BL12"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BI4:BL4"/>
@@ -10919,12 +10972,18 @@
     <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:BC6"/>
+    <mergeCell ref="BD6:BL6"/>
+    <mergeCell ref="C8:BK9"/>
+    <mergeCell ref="D12:BL12"/>
+    <mergeCell ref="D13:BL13"/>
+    <mergeCell ref="D14:BL14"/>
+    <mergeCell ref="D15:BL15"/>
+    <mergeCell ref="D16:BL16"/>
+    <mergeCell ref="D17:BL17"/>
+    <mergeCell ref="D19:BL19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10939,7 +10998,7 @@
       <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="27" width="2.125" style="42"/>
     <col min="28" max="28" width="5.375" style="42" customWidth="1"/>
@@ -11072,7 +11131,7 @@
     <col min="16157" max="16384" width="2.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="13">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -11140,7 +11199,7 @@
       <c r="BM1" s="39"/>
       <c r="BN1" s="41"/>
     </row>
-    <row r="2" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="13">
       <c r="A2" s="43" t="s">
         <v>71</v>
       </c>
@@ -11196,7 +11255,7 @@
       <c r="BM2" s="46"/>
       <c r="BN2" s="47"/>
     </row>
-    <row r="3" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="13">
       <c r="A3" s="130"/>
       <c r="B3" s="131"/>
       <c r="C3" s="131"/>
@@ -11264,7 +11323,7 @@
       <c r="BM3" s="132"/>
       <c r="BN3" s="133"/>
     </row>
-    <row r="4" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="13">
       <c r="A4" s="134" t="s">
         <v>13</v>
       </c>
@@ -11350,7 +11409,7 @@
       <c r="BM4" s="65"/>
       <c r="BN4" s="66"/>
     </row>
-    <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" customHeight="1" ht="13">
       <c r="A5" s="67" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11488,7 @@
       <c r="BM5" s="73"/>
       <c r="BN5" s="74"/>
     </row>
-    <row r="6" spans="1:66" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="4">
       <c r="A6" s="150"/>
       <c r="B6" s="150"/>
       <c r="C6" s="150"/>
@@ -11497,7 +11556,7 @@
       <c r="BM6" s="150"/>
       <c r="BN6" s="150"/>
     </row>
-    <row r="7" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="13">
       <c r="A7" s="151" t="s">
         <v>73</v>
       </c>
@@ -11573,7 +11632,7 @@
       </c>
       <c r="BN7" s="156"/>
     </row>
-    <row r="8" spans="1:66" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" ht="24">
       <c r="A8" s="157" t="s">
         <v>77</v>
       </c>
@@ -11661,7 +11720,7 @@
       <c r="BM8" s="169"/>
       <c r="BN8" s="170"/>
     </row>
-    <row r="9" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="171">
         <v>1</v>
       </c>
@@ -11747,7 +11806,7 @@
       <c r="BM9" s="186"/>
       <c r="BN9" s="187"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="171">
         <v>2</v>
       </c>
@@ -11833,7 +11892,7 @@
       <c r="BM10" s="186"/>
       <c r="BN10" s="187"/>
     </row>
-    <row r="11" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="13">
       <c r="A11" s="171">
         <v>3</v>
       </c>
@@ -11919,7 +11978,7 @@
       <c r="BM11" s="186"/>
       <c r="BN11" s="187"/>
     </row>
-    <row r="12" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="13">
       <c r="A12" s="171">
         <v>4</v>
       </c>
@@ -12005,7 +12064,7 @@
       <c r="BM12" s="186"/>
       <c r="BN12" s="187"/>
     </row>
-    <row r="13" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="13">
       <c r="A13" s="171">
         <v>5</v>
       </c>
@@ -12091,7 +12150,7 @@
       <c r="BM13" s="186"/>
       <c r="BN13" s="187"/>
     </row>
-    <row r="14" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="13">
       <c r="A14" s="171">
         <v>6</v>
       </c>
@@ -12177,7 +12236,7 @@
       <c r="BM14" s="186"/>
       <c r="BN14" s="187"/>
     </row>
-    <row r="15" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="13">
       <c r="A15" s="171">
         <v>7</v>
       </c>
@@ -12263,7 +12322,7 @@
       <c r="BM15" s="186"/>
       <c r="BN15" s="187"/>
     </row>
-    <row r="16" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="13">
       <c r="A16" s="171">
         <v>8</v>
       </c>
@@ -12349,7 +12408,7 @@
       <c r="BM16" s="186"/>
       <c r="BN16" s="187"/>
     </row>
-    <row r="17" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="13">
       <c r="A17" s="171">
         <v>9</v>
       </c>
@@ -12435,7 +12494,7 @@
       <c r="BM17" s="186"/>
       <c r="BN17" s="187"/>
     </row>
-    <row r="18" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="13">
       <c r="A18" s="197">
         <v>10</v>
       </c>
@@ -12521,99 +12580,182 @@
       <c r="BM18" s="199"/>
       <c r="BN18" s="200"/>
     </row>
-    <row r="19" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="13">
       <c r="A19" s="201"/>
       <c r="B19" s="201"/>
     </row>
-    <row r="20" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="13">
       <c r="A20" s="201"/>
       <c r="B20" s="201"/>
     </row>
-    <row r="21" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="13">
       <c r="A21" s="201"/>
       <c r="B21" s="201"/>
     </row>
-    <row r="22" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="13">
       <c r="A22" s="201"/>
       <c r="B22" s="201"/>
     </row>
-    <row r="23" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="15">
       <c r="A23" s="201"/>
       <c r="B23" s="201"/>
     </row>
-    <row r="24" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="14">
       <c r="A24" s="201"/>
       <c r="B24" s="201"/>
     </row>
-    <row r="25" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="13">
       <c r="A25" s="201"/>
       <c r="B25" s="201"/>
     </row>
-    <row r="26" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="15">
       <c r="A26" s="201"/>
       <c r="B26" s="201"/>
     </row>
-    <row r="27" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="15">
       <c r="A27" s="201"/>
       <c r="B27" s="201"/>
     </row>
-    <row r="28" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="13">
       <c r="A28" s="201"/>
       <c r="B28" s="201"/>
     </row>
-    <row r="29" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="13">
       <c r="A29" s="201"/>
       <c r="B29" s="201"/>
     </row>
-    <row r="30" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="13">
       <c r="A30" s="201"/>
       <c r="B30" s="201"/>
     </row>
-    <row r="31" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="13">
       <c r="A31" s="202"/>
       <c r="B31" s="202"/>
     </row>
-    <row r="32" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="13">
       <c r="A32" s="202"/>
       <c r="B32" s="202"/>
     </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" ht="13">
       <c r="A33" s="202"/>
       <c r="B33" s="202"/>
     </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" ht="13">
       <c r="A34" s="202"/>
       <c r="B34" s="202"/>
     </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" customHeight="1" ht="13">
       <c r="A35" s="202"/>
       <c r="B35" s="202"/>
     </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" customHeight="1" ht="13">
       <c r="A36" s="202"/>
       <c r="B36" s="202"/>
     </row>
-    <row r="37" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" customHeight="1" ht="30">
       <c r="A37" s="202"/>
       <c r="B37" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="AH18:AN18"/>
-    <mergeCell ref="AO18:BL18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="AC7:AN7"/>
+    <mergeCell ref="AO7:BL8"/>
+    <mergeCell ref="BM7:BN8"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:BL9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="AO10:BL10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AO11:BL11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AO12:BL12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AO13:BL13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AO14:BL14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="AO15:BL15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
     <mergeCell ref="AH16:AN16"/>
     <mergeCell ref="AO16:BL16"/>
     <mergeCell ref="B17:L17"/>
@@ -12624,104 +12766,21 @@
     <mergeCell ref="AC17:AG17"/>
     <mergeCell ref="AH17:AN17"/>
     <mergeCell ref="AO17:BL17"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AO14:BL14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="AO15:BL15"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AO12:BL12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AO13:BL13"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AO11:BL11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AO10:BL10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:BL9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="AC7:AN7"/>
-    <mergeCell ref="AO7:BL8"/>
-    <mergeCell ref="BM7:BN8"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="AH18:AN18"/>
+    <mergeCell ref="AO18:BL18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12732,11 +12791,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="65" width="2.125" style="42"/>
     <col min="66" max="66" width="1.875" style="42" customWidth="1"/>
@@ -12869,7 +12928,7 @@
     <col min="16195" max="16384" width="2.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="11">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -12937,7 +12996,7 @@
       <c r="BM1" s="39"/>
       <c r="BN1" s="41"/>
     </row>
-    <row r="2" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="11">
       <c r="A2" s="43" t="s">
         <v>107</v>
       </c>
@@ -12993,7 +13052,7 @@
       <c r="BM2" s="46"/>
       <c r="BN2" s="47"/>
     </row>
-    <row r="3" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" ht="11">
       <c r="A3" s="130"/>
       <c r="B3" s="131"/>
       <c r="C3" s="131"/>
@@ -13061,7 +13120,7 @@
       <c r="BM3" s="132"/>
       <c r="BN3" s="133"/>
     </row>
-    <row r="4" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="134" t="s">
         <v>13</v>
       </c>
@@ -13149,7 +13208,7 @@
       <c r="BM4" s="65"/>
       <c r="BN4" s="66"/>
     </row>
-    <row r="5" spans="1:66" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" ht="19">
       <c r="A5" s="67" t="s">
         <v>19</v>
       </c>
@@ -13228,7 +13287,7 @@
       <c r="BM5" s="73"/>
       <c r="BN5" s="74"/>
     </row>
-    <row r="6" spans="1:66" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="12">
       <c r="A6" s="203"/>
       <c r="B6" s="150"/>
       <c r="C6" s="150"/>
@@ -13296,7 +13355,7 @@
       <c r="BM6" s="150"/>
       <c r="BN6" s="204"/>
     </row>
-    <row r="7" spans="1:66" s="208" customFormat="1" ht="11.25" x14ac:dyDescent="0.4">
+    <row r="7" ht="11" customFormat="1" s="208">
       <c r="A7" s="205" t="s">
         <v>108</v>
       </c>
@@ -13370,7 +13429,7 @@
       <c r="BM7" s="206"/>
       <c r="BN7" s="207"/>
     </row>
-    <row r="8" spans="1:66" s="104" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="10" customFormat="1" s="104">
       <c r="A8" s="209" t="s">
         <v>106</v>
       </c>
@@ -13444,7 +13503,7 @@
       <c r="BM8" s="212"/>
       <c r="BN8" s="213"/>
     </row>
-    <row r="9" spans="1:66" s="104" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="10" customFormat="1" s="104">
       <c r="A9" s="209" t="s">
         <v>113</v>
       </c>
@@ -13518,7 +13577,7 @@
       <c r="BM9" s="212"/>
       <c r="BN9" s="213"/>
     </row>
-    <row r="10" spans="1:66" s="104" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="10" customFormat="1" s="104">
       <c r="A10" s="214"/>
       <c r="B10" s="214"/>
       <c r="C10" s="214"/>
@@ -13586,7 +13645,7 @@
       <c r="BM10" s="216"/>
       <c r="BN10" s="217"/>
     </row>
-    <row r="11" spans="1:66" s="104" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="10" customFormat="1" s="104">
       <c r="A11" s="214"/>
       <c r="B11" s="214"/>
       <c r="C11" s="214"/>
@@ -13654,7 +13713,7 @@
       <c r="BM11" s="216"/>
       <c r="BN11" s="217"/>
     </row>
-    <row r="12" spans="1:66" s="104" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="10" customFormat="1" s="104">
       <c r="A12" s="214"/>
       <c r="B12" s="214"/>
       <c r="C12" s="214"/>
@@ -13722,7 +13781,7 @@
       <c r="BM12" s="220"/>
       <c r="BN12" s="221"/>
     </row>
-    <row r="13" spans="1:66" s="104" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="10" customFormat="1" s="104">
       <c r="A13" s="214"/>
       <c r="B13" s="214"/>
       <c r="C13" s="214"/>
@@ -13790,7 +13849,7 @@
       <c r="BM13" s="220"/>
       <c r="BN13" s="221"/>
     </row>
-    <row r="14" spans="1:66" s="104" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="14" ht="10" customFormat="1" s="104">
       <c r="A14" s="214"/>
       <c r="B14" s="214"/>
       <c r="C14" s="214"/>
@@ -13858,7 +13917,7 @@
       <c r="BM14" s="220"/>
       <c r="BN14" s="221"/>
     </row>
-    <row r="15" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="15" ht="11">
       <c r="A15" s="214"/>
       <c r="B15" s="214"/>
       <c r="C15" s="214"/>
@@ -13926,40 +13985,18 @@
       <c r="BM15" s="220"/>
       <c r="BN15" s="221"/>
     </row>
-    <row r="16" spans="1:66" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="16:16" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="16" ht="11"/>
+    <row r="17" ht="11">
       <c r="P17" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="P15:AR15"/>
-    <mergeCell ref="AS15:BN15"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AR13"/>
-    <mergeCell ref="AS13:BN13"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="P14:AR14"/>
-    <mergeCell ref="AS14:BN14"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="P11:AR11"/>
-    <mergeCell ref="AS11:BN11"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="P12:AR12"/>
-    <mergeCell ref="AS12:BN12"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS9:BN9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="P10:AR10"/>
-    <mergeCell ref="AS10:BN10"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="AS7:BN7"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="AS8:BN8"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BI4:BN4"/>
@@ -13970,12 +14007,34 @@
     <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="AS7:BN7"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="AS8:BN8"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS9:BN9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="P10:AR10"/>
+    <mergeCell ref="AS10:BN10"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="P11:AR11"/>
+    <mergeCell ref="AS11:BN11"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="P12:AR12"/>
+    <mergeCell ref="AS12:BN12"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AR13"/>
+    <mergeCell ref="AS13:BN13"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="P14:AR14"/>
+    <mergeCell ref="AS14:BN14"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="P15:AR15"/>
+    <mergeCell ref="AS15:BN15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/基本設計/基本設計_emsm_経費管理New.xlsx
+++ b/DOC/基本設計/基本設計_emsm_経費管理New.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF7E8D-3B70-4FAA-8D0C-2DBDF29274BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="915" windowWidth="26805" windowHeight="14535" tabRatio="833" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="915" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -391,12 +391,93 @@
   <si>
     <t>画面に入力したデータを表示する。</t>
   </si>
+  <si>
+    <t>経費管理システム</t>
+  </si>
+  <si>
+    <t>経費管理</t>
+  </si>
+  <si>
+    <t>　１）経費管理を表示する</t>
+  </si>
+  <si>
+    <t>１）担当者名をデータベースから取得して表示します。</t>
+  </si>
+  <si>
+    <t>２）</t>
+  </si>
+  <si>
+    <t>２）画面に入力したものは正しいかどうか確認します。</t>
+  </si>
+  <si>
+    <t>　　　　</t>
+  </si>
+  <si>
+    <t>正しくない場合はエラー</t>
+  </si>
+  <si>
+    <t>正しくない場合はエラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>正しい</t>
+  </si>
+  <si>
+    <t>場合は</t>
+  </si>
+  <si>
+    <t>正しい場合</t>
+  </si>
+  <si>
+    <t>正しい場合は登録ボダンを押したらデータベースに保存します。</t>
+  </si>
+  <si>
+    <t>expenses</t>
+  </si>
+  <si>
+    <t>経費種別</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>経費情報を入力してから登録ボダン</t>
+  </si>
+  <si>
+    <t>経費情報を入力してから登録ボダンを押します。</t>
+  </si>
+  <si>
+    <t>入力間違えた場合はエラーメッセージでます。</t>
+  </si>
+  <si>
+    <t>tantouName</t>
+  </si>
+  <si>
+    <t>stmtlStatus</t>
+  </si>
+  <si>
+    <t>stmtlDay</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>入力データは正しい場合は保存します。</t>
+  </si>
+  <si>
+    <t>入力データは正しい場合は登録できます。</t>
+  </si>
+  <si>
+    <t>　１）経費管理画面を表示する</t>
+  </si>
+  <si>
+    <t>　１）経費管理画面が表示する</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,8 +562,37 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,8 +617,13 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -1259,13 +1374,505 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="dotted"/>
+      <top style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted"/>
+      <top style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <top style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="dotted"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="dotted"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="double"/>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="double"/>
+      <top style="thin"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="dotted"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="dotted"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="double"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="dotted"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="dotted"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="double"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="double"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="double"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1906,6 +2513,524 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="72" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="101" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="102" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="112" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="113" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="114" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="115" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="112" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="116" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="117" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="118" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="117" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="113" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="121" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="122" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="123" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="126" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="127" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="128" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="129" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="130" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="131" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="132" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="127" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="135" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="127" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="53" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="138" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="140" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="141" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="142" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,12 +3058,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4895850" cy="4505325"/>
+    <xdr:ext cx="5114925" cy="5057775"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name=""/>
@@ -1947,7 +3072,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1955,8 +3080,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1200150"/>
-          <a:ext cx="4895850" cy="4505325"/>
+          <a:off x="190500" y="933450"/>
+          <a:ext cx="5114925" cy="5057775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,7 +3397,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G23" sqref="G23:R24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2404,7 +3529,7 @@
       <c r="A17" s="5"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" customHeight="1" ht="14" customFormat="1" s="4">
+    <row r="18" customHeight="1" ht="13" customFormat="1" s="4">
       <c r="A18" s="5"/>
       <c r="G18" s="9" t="s">
         <v>6</v>
@@ -2422,10 +3547,10 @@
       <c r="R18" s="11"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" customHeight="1" ht="14" customFormat="1" s="4">
+    <row r="19" customHeight="1" ht="13" customFormat="1" s="4">
       <c r="A19" s="5"/>
       <c r="G19" s="12" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -2440,7 +3565,7 @@
       <c r="R19" s="14"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" customHeight="1" ht="14" customFormat="1" s="4">
+    <row r="20" customHeight="1" ht="13" customFormat="1" s="4">
       <c r="A20" s="5"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
@@ -2460,7 +3585,7 @@
       <c r="A21" s="5"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" ht="13" customFormat="1" s="4">
+    <row r="22" ht="12" customFormat="1" s="4">
       <c r="A22" s="5"/>
       <c r="G22" s="9" t="s">
         <v>8</v>
@@ -2481,7 +3606,7 @@
     <row r="23" customFormat="1" s="4">
       <c r="A23" s="5"/>
       <c r="G23" s="12" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -2526,7 +3651,7 @@
       <c r="Q25" s="25"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" ht="13" customFormat="1" s="4">
+    <row r="26" ht="12" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
@@ -3233,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" tabSelected="1">
-      <selection activeCell="E8" sqref="E8" activeCellId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A16">
+      <selection activeCell="CA20" sqref="BZ20:CA20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3434,7 +4559,7 @@
     <col min="16195" max="16384" width="2.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="13">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -3502,7 +4627,7 @@
       <c r="BM1" s="39"/>
       <c r="BN1" s="41"/>
     </row>
-    <row r="2" customHeight="1" ht="13">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3556,7 +4681,7 @@
       <c r="BM2" s="46"/>
       <c r="BN2" s="47"/>
     </row>
-    <row r="3" customHeight="1" ht="13">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="43"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -3608,2150 +4733,2763 @@
       <c r="BM3" s="45"/>
       <c r="BN3" s="48"/>
     </row>
-    <row r="4" customHeight="1" ht="13">
-      <c r="A4" s="49" t="s">
+    <row r="4" customHeight="1" ht="12">
+      <c r="A4" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="55" t="s">
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="61" t="s">
+      <c r="P4" s="230"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="230"/>
+      <c r="S4" s="230"/>
+      <c r="T4" s="231"/>
+      <c r="U4" s="232" t="s">
+        <v>117</v>
+      </c>
+      <c r="V4" s="233"/>
+      <c r="W4" s="233"/>
+      <c r="X4" s="233"/>
+      <c r="Y4" s="233"/>
+      <c r="Z4" s="233"/>
+      <c r="AA4" s="233"/>
+      <c r="AB4" s="233"/>
+      <c r="AC4" s="233"/>
+      <c r="AD4" s="233"/>
+      <c r="AE4" s="233"/>
+      <c r="AF4" s="233"/>
+      <c r="AG4" s="233"/>
+      <c r="AH4" s="233"/>
+      <c r="AI4" s="233"/>
+      <c r="AJ4" s="233"/>
+      <c r="AK4" s="233"/>
+      <c r="AL4" s="233"/>
+      <c r="AM4" s="233"/>
+      <c r="AN4" s="233"/>
+      <c r="AO4" s="233"/>
+      <c r="AP4" s="233"/>
+      <c r="AQ4" s="233"/>
+      <c r="AR4" s="233"/>
+      <c r="AS4" s="233"/>
+      <c r="AT4" s="233"/>
+      <c r="AU4" s="233"/>
+      <c r="AV4" s="234"/>
+      <c r="AW4" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="64" t="s">
+      <c r="AX4" s="236"/>
+      <c r="AY4" s="237"/>
+      <c r="AZ4" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="65"/>
-      <c r="BD4" s="65"/>
-      <c r="BE4" s="65"/>
-      <c r="BF4" s="61" t="s">
+      <c r="BA4" s="239"/>
+      <c r="BB4" s="239"/>
+      <c r="BC4" s="239"/>
+      <c r="BD4" s="239"/>
+      <c r="BE4" s="239"/>
+      <c r="BF4" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="64" t="s">
+      <c r="BG4" s="236"/>
+      <c r="BH4" s="237"/>
+      <c r="BI4" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="BJ4" s="65"/>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="66"/>
-    </row>
-    <row r="5" customHeight="1" ht="13">
-      <c r="A5" s="67" t="s">
+      <c r="BJ4" s="239"/>
+      <c r="BK4" s="239"/>
+      <c r="BL4" s="239"/>
+      <c r="BM4" s="239"/>
+      <c r="BN4" s="240"/>
+    </row>
+    <row r="5" customHeight="1" ht="12">
+      <c r="A5" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70" t="s">
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="67" t="s">
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="245"/>
+      <c r="O5" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AP5" s="73"/>
-      <c r="AQ5" s="73"/>
-      <c r="AR5" s="73"/>
-      <c r="AS5" s="73"/>
-      <c r="AT5" s="73"/>
-      <c r="AU5" s="73"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="75" t="s">
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="243"/>
+      <c r="U5" s="246"/>
+      <c r="V5" s="247"/>
+      <c r="W5" s="247"/>
+      <c r="X5" s="247"/>
+      <c r="Y5" s="247"/>
+      <c r="Z5" s="247"/>
+      <c r="AA5" s="247"/>
+      <c r="AB5" s="247"/>
+      <c r="AC5" s="247"/>
+      <c r="AD5" s="247"/>
+      <c r="AE5" s="247"/>
+      <c r="AF5" s="247"/>
+      <c r="AG5" s="247"/>
+      <c r="AH5" s="247"/>
+      <c r="AI5" s="247"/>
+      <c r="AJ5" s="247"/>
+      <c r="AK5" s="247"/>
+      <c r="AL5" s="247"/>
+      <c r="AM5" s="247"/>
+      <c r="AN5" s="247"/>
+      <c r="AO5" s="247"/>
+      <c r="AP5" s="247"/>
+      <c r="AQ5" s="247"/>
+      <c r="AR5" s="247"/>
+      <c r="AS5" s="247"/>
+      <c r="AT5" s="247"/>
+      <c r="AU5" s="247"/>
+      <c r="AV5" s="248"/>
+      <c r="AW5" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="76"/>
-      <c r="BC5" s="76"/>
-      <c r="BD5" s="76"/>
-      <c r="BE5" s="76"/>
-      <c r="BF5" s="75" t="s">
+      <c r="AX5" s="250"/>
+      <c r="AY5" s="251"/>
+      <c r="AZ5" s="250"/>
+      <c r="BA5" s="250"/>
+      <c r="BB5" s="250"/>
+      <c r="BC5" s="250"/>
+      <c r="BD5" s="250"/>
+      <c r="BE5" s="250"/>
+      <c r="BF5" s="249" t="s">
         <v>23</v>
       </c>
-      <c r="BG5" s="76"/>
-      <c r="BH5" s="77"/>
-      <c r="BI5" s="76"/>
-      <c r="BJ5" s="73"/>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="73"/>
-      <c r="BM5" s="73"/>
-      <c r="BN5" s="74"/>
-    </row>
-    <row r="6" customHeight="1" ht="13">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="79"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="79"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
-      <c r="AL6" s="79"/>
-      <c r="AM6" s="79"/>
-      <c r="AN6" s="79"/>
-      <c r="AO6" s="79"/>
-      <c r="AP6" s="80" t="s">
+      <c r="BG5" s="250"/>
+      <c r="BH5" s="251"/>
+      <c r="BI5" s="250"/>
+      <c r="BJ5" s="247"/>
+      <c r="BK5" s="247"/>
+      <c r="BL5" s="247"/>
+      <c r="BM5" s="247"/>
+      <c r="BN5" s="248"/>
+    </row>
+    <row r="6" customHeight="1" ht="12">
+      <c r="A6" s="252"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="253"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="253"/>
+      <c r="O6" s="253"/>
+      <c r="P6" s="253"/>
+      <c r="Q6" s="253"/>
+      <c r="R6" s="253"/>
+      <c r="S6" s="253"/>
+      <c r="T6" s="253"/>
+      <c r="U6" s="253"/>
+      <c r="V6" s="253"/>
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="253"/>
+      <c r="Z6" s="253"/>
+      <c r="AA6" s="253"/>
+      <c r="AB6" s="253"/>
+      <c r="AC6" s="253"/>
+      <c r="AD6" s="253"/>
+      <c r="AE6" s="253"/>
+      <c r="AF6" s="253"/>
+      <c r="AG6" s="253"/>
+      <c r="AH6" s="253"/>
+      <c r="AI6" s="253"/>
+      <c r="AJ6" s="253"/>
+      <c r="AK6" s="253"/>
+      <c r="AL6" s="253"/>
+      <c r="AM6" s="253"/>
+      <c r="AN6" s="253"/>
+      <c r="AO6" s="253"/>
+      <c r="AP6" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="AQ6" s="81"/>
-      <c r="AR6" s="81"/>
-      <c r="AS6" s="82" t="s">
+      <c r="AQ6" s="255"/>
+      <c r="AR6" s="255"/>
+      <c r="AS6" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="82"/>
-      <c r="AW6" s="82"/>
-      <c r="AX6" s="82"/>
-      <c r="AY6" s="82"/>
-      <c r="AZ6" s="82"/>
-      <c r="BA6" s="82"/>
-      <c r="BB6" s="82"/>
-      <c r="BC6" s="82"/>
-      <c r="BD6" s="82"/>
-      <c r="BE6" s="82" t="s">
+      <c r="AT6" s="256"/>
+      <c r="AU6" s="256"/>
+      <c r="AV6" s="256"/>
+      <c r="AW6" s="256"/>
+      <c r="AX6" s="256"/>
+      <c r="AY6" s="256"/>
+      <c r="AZ6" s="256"/>
+      <c r="BA6" s="256"/>
+      <c r="BB6" s="256"/>
+      <c r="BC6" s="256"/>
+      <c r="BD6" s="256"/>
+      <c r="BE6" s="256" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="81"/>
-      <c r="BG6" s="81"/>
-      <c r="BH6" s="81"/>
-      <c r="BI6" s="81"/>
-      <c r="BJ6" s="81"/>
-      <c r="BK6" s="81"/>
-      <c r="BL6" s="81"/>
-      <c r="BM6" s="81"/>
-    </row>
-    <row r="7" customHeight="1" ht="13">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="83" t="s">
+      <c r="BF6" s="255"/>
+      <c r="BG6" s="255"/>
+      <c r="BH6" s="255"/>
+      <c r="BI6" s="255"/>
+      <c r="BJ6" s="255"/>
+      <c r="BK6" s="255"/>
+      <c r="BL6" s="255"/>
+      <c r="BM6" s="255"/>
+      <c r="BN6" s="257"/>
+    </row>
+    <row r="7" customHeight="1" ht="12">
+      <c r="A7" s="252"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="253"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="253"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="253"/>
+      <c r="AP7" s="258" t="s">
         <v>27</v>
       </c>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="87"/>
-      <c r="AX7" s="87"/>
-      <c r="AY7" s="87"/>
-      <c r="AZ7" s="87"/>
-      <c r="BA7" s="87"/>
-      <c r="BB7" s="87"/>
-      <c r="BC7" s="87"/>
-      <c r="BD7" s="88"/>
-      <c r="BE7" s="86" t="s">
+      <c r="AQ7" s="259"/>
+      <c r="AR7" s="260"/>
+      <c r="AS7" s="261" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT7" s="262"/>
+      <c r="AU7" s="262"/>
+      <c r="AV7" s="262"/>
+      <c r="AW7" s="262"/>
+      <c r="AX7" s="262"/>
+      <c r="AY7" s="262"/>
+      <c r="AZ7" s="262"/>
+      <c r="BA7" s="262"/>
+      <c r="BB7" s="262"/>
+      <c r="BC7" s="262"/>
+      <c r="BD7" s="263"/>
+      <c r="BE7" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="BF7" s="87"/>
-      <c r="BG7" s="87"/>
-      <c r="BH7" s="87"/>
-      <c r="BI7" s="87"/>
-      <c r="BJ7" s="87"/>
-      <c r="BK7" s="87"/>
-      <c r="BL7" s="87"/>
-      <c r="BM7" s="88"/>
-    </row>
-    <row r="8" customHeight="1" ht="13">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="83" t="s">
+      <c r="BF7" s="262"/>
+      <c r="BG7" s="262"/>
+      <c r="BH7" s="262"/>
+      <c r="BI7" s="262"/>
+      <c r="BJ7" s="262"/>
+      <c r="BK7" s="262"/>
+      <c r="BL7" s="262"/>
+      <c r="BM7" s="263"/>
+      <c r="BN7" s="257"/>
+    </row>
+    <row r="8" customHeight="1" ht="12">
+      <c r="A8" s="252"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="253"/>
+      <c r="J8" s="253"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="253"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="253"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="253"/>
+      <c r="Q8" s="253"/>
+      <c r="R8" s="253"/>
+      <c r="S8" s="253"/>
+      <c r="T8" s="253"/>
+      <c r="U8" s="253"/>
+      <c r="V8" s="253"/>
+      <c r="W8" s="253"/>
+      <c r="X8" s="253"/>
+      <c r="Y8" s="253"/>
+      <c r="Z8" s="253"/>
+      <c r="AA8" s="253"/>
+      <c r="AB8" s="253"/>
+      <c r="AC8" s="253"/>
+      <c r="AD8" s="253"/>
+      <c r="AE8" s="253"/>
+      <c r="AF8" s="253"/>
+      <c r="AG8" s="253"/>
+      <c r="AH8" s="253"/>
+      <c r="AI8" s="253"/>
+      <c r="AJ8" s="253"/>
+      <c r="AK8" s="253"/>
+      <c r="AL8" s="253"/>
+      <c r="AM8" s="253"/>
+      <c r="AN8" s="253"/>
+      <c r="AO8" s="253"/>
+      <c r="AP8" s="258" t="s">
         <v>29</v>
       </c>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="89" t="s">
+      <c r="AQ8" s="259"/>
+      <c r="AR8" s="260"/>
+      <c r="AS8" s="264" t="s">
         <v>30</v>
       </c>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="90"/>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF8" s="90"/>
-      <c r="BG8" s="90"/>
-      <c r="BH8" s="90"/>
-      <c r="BI8" s="90"/>
-      <c r="BJ8" s="90"/>
-      <c r="BK8" s="90"/>
-      <c r="BL8" s="90"/>
-      <c r="BM8" s="91"/>
-    </row>
-    <row r="9" customHeight="1" ht="13">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="79"/>
-      <c r="AP9" s="83" t="s">
+      <c r="AT8" s="265"/>
+      <c r="AU8" s="265"/>
+      <c r="AV8" s="265"/>
+      <c r="AW8" s="265"/>
+      <c r="AX8" s="265"/>
+      <c r="AY8" s="265"/>
+      <c r="AZ8" s="265"/>
+      <c r="BA8" s="265"/>
+      <c r="BB8" s="265"/>
+      <c r="BC8" s="265"/>
+      <c r="BD8" s="266"/>
+      <c r="BE8" s="264" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF8" s="265"/>
+      <c r="BG8" s="265"/>
+      <c r="BH8" s="265"/>
+      <c r="BI8" s="265"/>
+      <c r="BJ8" s="265"/>
+      <c r="BK8" s="265"/>
+      <c r="BL8" s="265"/>
+      <c r="BM8" s="266"/>
+      <c r="BN8" s="257"/>
+    </row>
+    <row r="9" customHeight="1" ht="12">
+      <c r="A9" s="252"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
+      <c r="O9" s="253"/>
+      <c r="P9" s="253"/>
+      <c r="Q9" s="253"/>
+      <c r="R9" s="253"/>
+      <c r="S9" s="253"/>
+      <c r="T9" s="253"/>
+      <c r="U9" s="253"/>
+      <c r="V9" s="253"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="253"/>
+      <c r="Y9" s="253"/>
+      <c r="Z9" s="253"/>
+      <c r="AA9" s="253"/>
+      <c r="AB9" s="253"/>
+      <c r="AC9" s="253"/>
+      <c r="AD9" s="253"/>
+      <c r="AE9" s="253"/>
+      <c r="AF9" s="253"/>
+      <c r="AG9" s="253"/>
+      <c r="AH9" s="253"/>
+      <c r="AI9" s="253"/>
+      <c r="AJ9" s="253"/>
+      <c r="AK9" s="253"/>
+      <c r="AL9" s="253"/>
+      <c r="AM9" s="253"/>
+      <c r="AN9" s="253"/>
+      <c r="AO9" s="253"/>
+      <c r="AP9" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="89" t="s">
+      <c r="AQ9" s="259"/>
+      <c r="AR9" s="260"/>
+      <c r="AS9" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="90"/>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="90"/>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="90"/>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="90"/>
-      <c r="BL9" s="90"/>
-      <c r="BM9" s="91"/>
-    </row>
-    <row r="10" customHeight="1" ht="13">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="83" t="s">
+      <c r="AT9" s="265"/>
+      <c r="AU9" s="265"/>
+      <c r="AV9" s="265"/>
+      <c r="AW9" s="265"/>
+      <c r="AX9" s="265"/>
+      <c r="AY9" s="265"/>
+      <c r="AZ9" s="265"/>
+      <c r="BA9" s="265"/>
+      <c r="BB9" s="265"/>
+      <c r="BC9" s="265"/>
+      <c r="BD9" s="266"/>
+      <c r="BE9" s="264" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF9" s="265"/>
+      <c r="BG9" s="265"/>
+      <c r="BH9" s="265"/>
+      <c r="BI9" s="265"/>
+      <c r="BJ9" s="265"/>
+      <c r="BK9" s="265"/>
+      <c r="BL9" s="265"/>
+      <c r="BM9" s="266"/>
+      <c r="BN9" s="257"/>
+    </row>
+    <row r="10" customHeight="1" ht="12">
+      <c r="A10" s="252"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="253"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="253"/>
+      <c r="O10" s="253"/>
+      <c r="P10" s="253"/>
+      <c r="Q10" s="253"/>
+      <c r="R10" s="253"/>
+      <c r="S10" s="253"/>
+      <c r="T10" s="253"/>
+      <c r="U10" s="253"/>
+      <c r="V10" s="253"/>
+      <c r="W10" s="253"/>
+      <c r="X10" s="253"/>
+      <c r="Y10" s="253"/>
+      <c r="Z10" s="253"/>
+      <c r="AA10" s="253"/>
+      <c r="AB10" s="253"/>
+      <c r="AC10" s="253"/>
+      <c r="AD10" s="253"/>
+      <c r="AE10" s="253"/>
+      <c r="AF10" s="253"/>
+      <c r="AG10" s="253"/>
+      <c r="AH10" s="253"/>
+      <c r="AI10" s="253"/>
+      <c r="AJ10" s="253"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="253"/>
+      <c r="AN10" s="253"/>
+      <c r="AO10" s="253"/>
+      <c r="AP10" s="258" t="s">
         <v>33</v>
       </c>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="89" t="s">
+      <c r="AQ10" s="259"/>
+      <c r="AR10" s="260"/>
+      <c r="AS10" s="264" t="s">
         <v>34</v>
       </c>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="90"/>
-      <c r="BB10" s="90"/>
-      <c r="BC10" s="90"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="89" t="s">
+      <c r="AT10" s="265"/>
+      <c r="AU10" s="265"/>
+      <c r="AV10" s="265"/>
+      <c r="AW10" s="265"/>
+      <c r="AX10" s="265"/>
+      <c r="AY10" s="265"/>
+      <c r="AZ10" s="265"/>
+      <c r="BA10" s="265"/>
+      <c r="BB10" s="265"/>
+      <c r="BC10" s="265"/>
+      <c r="BD10" s="266"/>
+      <c r="BE10" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="BF10" s="90"/>
-      <c r="BG10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BI10" s="90"/>
-      <c r="BJ10" s="90"/>
-      <c r="BK10" s="90"/>
-      <c r="BL10" s="90"/>
-      <c r="BM10" s="91"/>
-    </row>
-    <row r="11" customHeight="1" ht="13">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="79"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="79"/>
-      <c r="AP11" s="83" t="s">
+      <c r="BF10" s="265"/>
+      <c r="BG10" s="265"/>
+      <c r="BH10" s="265"/>
+      <c r="BI10" s="265"/>
+      <c r="BJ10" s="265"/>
+      <c r="BK10" s="265"/>
+      <c r="BL10" s="265"/>
+      <c r="BM10" s="266"/>
+      <c r="BN10" s="257"/>
+    </row>
+    <row r="11" customHeight="1" ht="12">
+      <c r="A11" s="252"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="253"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="253"/>
+      <c r="M11" s="253"/>
+      <c r="N11" s="253"/>
+      <c r="O11" s="253"/>
+      <c r="P11" s="253"/>
+      <c r="Q11" s="253"/>
+      <c r="R11" s="253"/>
+      <c r="S11" s="253"/>
+      <c r="T11" s="253"/>
+      <c r="U11" s="253"/>
+      <c r="V11" s="253"/>
+      <c r="W11" s="253"/>
+      <c r="X11" s="253"/>
+      <c r="Y11" s="253"/>
+      <c r="Z11" s="253"/>
+      <c r="AA11" s="253"/>
+      <c r="AB11" s="253"/>
+      <c r="AC11" s="253"/>
+      <c r="AD11" s="253"/>
+      <c r="AE11" s="253"/>
+      <c r="AF11" s="253"/>
+      <c r="AG11" s="253"/>
+      <c r="AH11" s="253"/>
+      <c r="AI11" s="253"/>
+      <c r="AJ11" s="253"/>
+      <c r="AK11" s="253"/>
+      <c r="AL11" s="253"/>
+      <c r="AM11" s="253"/>
+      <c r="AN11" s="253"/>
+      <c r="AO11" s="253"/>
+      <c r="AP11" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="91"/>
-    </row>
-    <row r="12" customHeight="1" ht="13">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="79"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="83" t="s">
+      <c r="AQ11" s="259"/>
+      <c r="AR11" s="260"/>
+      <c r="AS11" s="264" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT11" s="265"/>
+      <c r="AU11" s="265"/>
+      <c r="AV11" s="265"/>
+      <c r="AW11" s="265"/>
+      <c r="AX11" s="265"/>
+      <c r="AY11" s="265"/>
+      <c r="AZ11" s="265"/>
+      <c r="BA11" s="265"/>
+      <c r="BB11" s="265"/>
+      <c r="BC11" s="265"/>
+      <c r="BD11" s="266"/>
+      <c r="BE11" s="264" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF11" s="265"/>
+      <c r="BG11" s="265"/>
+      <c r="BH11" s="265"/>
+      <c r="BI11" s="265"/>
+      <c r="BJ11" s="265"/>
+      <c r="BK11" s="265"/>
+      <c r="BL11" s="265"/>
+      <c r="BM11" s="266"/>
+      <c r="BN11" s="257"/>
+    </row>
+    <row r="12" customHeight="1" ht="12">
+      <c r="A12" s="252"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="253"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="253"/>
+      <c r="R12" s="253"/>
+      <c r="S12" s="253"/>
+      <c r="T12" s="253"/>
+      <c r="U12" s="253"/>
+      <c r="V12" s="253"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="253"/>
+      <c r="AI12" s="253"/>
+      <c r="AJ12" s="253"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="253"/>
+      <c r="AN12" s="253"/>
+      <c r="AO12" s="253"/>
+      <c r="AP12" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="89" t="s">
+      <c r="AQ12" s="259"/>
+      <c r="AR12" s="260"/>
+      <c r="AS12" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="90"/>
-      <c r="BB12" s="90"/>
-      <c r="BC12" s="90"/>
-      <c r="BD12" s="91"/>
-      <c r="BE12" s="89" t="s">
+      <c r="AT12" s="265"/>
+      <c r="AU12" s="265"/>
+      <c r="AV12" s="265"/>
+      <c r="AW12" s="265"/>
+      <c r="AX12" s="265"/>
+      <c r="AY12" s="265"/>
+      <c r="AZ12" s="265"/>
+      <c r="BA12" s="265"/>
+      <c r="BB12" s="265"/>
+      <c r="BC12" s="265"/>
+      <c r="BD12" s="266"/>
+      <c r="BE12" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="BF12" s="90"/>
-      <c r="BG12" s="90"/>
-      <c r="BH12" s="90"/>
-      <c r="BI12" s="90"/>
-      <c r="BJ12" s="90"/>
-      <c r="BK12" s="90"/>
-      <c r="BL12" s="90"/>
-      <c r="BM12" s="91"/>
-    </row>
-    <row r="13" customHeight="1" ht="13">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="79"/>
-      <c r="AM13" s="79"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="79"/>
-      <c r="AP13" s="83" t="s">
+      <c r="BF12" s="265"/>
+      <c r="BG12" s="265"/>
+      <c r="BH12" s="265"/>
+      <c r="BI12" s="265"/>
+      <c r="BJ12" s="265"/>
+      <c r="BK12" s="265"/>
+      <c r="BL12" s="265"/>
+      <c r="BM12" s="266"/>
+      <c r="BN12" s="257"/>
+    </row>
+    <row r="13" customHeight="1" ht="12">
+      <c r="A13" s="252"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
+      <c r="M13" s="253"/>
+      <c r="N13" s="253"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="253"/>
+      <c r="Q13" s="253"/>
+      <c r="R13" s="253"/>
+      <c r="S13" s="253"/>
+      <c r="T13" s="253"/>
+      <c r="U13" s="253"/>
+      <c r="V13" s="253"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="253"/>
+      <c r="AI13" s="253"/>
+      <c r="AJ13" s="253"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="253"/>
+      <c r="AN13" s="253"/>
+      <c r="AO13" s="253"/>
+      <c r="AP13" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="89" t="s">
+      <c r="AQ13" s="259"/>
+      <c r="AR13" s="260"/>
+      <c r="AS13" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="AT13" s="90"/>
-      <c r="AU13" s="90"/>
-      <c r="AV13" s="90"/>
-      <c r="AW13" s="90"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="90"/>
-      <c r="BA13" s="90"/>
-      <c r="BB13" s="90"/>
-      <c r="BC13" s="90"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="89" t="s">
+      <c r="AT13" s="265"/>
+      <c r="AU13" s="265"/>
+      <c r="AV13" s="265"/>
+      <c r="AW13" s="265"/>
+      <c r="AX13" s="265"/>
+      <c r="AY13" s="265"/>
+      <c r="AZ13" s="265"/>
+      <c r="BA13" s="265"/>
+      <c r="BB13" s="265"/>
+      <c r="BC13" s="265"/>
+      <c r="BD13" s="266"/>
+      <c r="BE13" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="BF13" s="90"/>
-      <c r="BG13" s="90"/>
-      <c r="BH13" s="90"/>
-      <c r="BI13" s="90"/>
-      <c r="BJ13" s="90"/>
-      <c r="BK13" s="90"/>
-      <c r="BL13" s="90"/>
-      <c r="BM13" s="91"/>
-    </row>
-    <row r="14" customHeight="1" ht="13">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="79"/>
-      <c r="AM14" s="79"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="79"/>
-      <c r="AP14" s="83" t="s">
+      <c r="BF13" s="265"/>
+      <c r="BG13" s="265"/>
+      <c r="BH13" s="265"/>
+      <c r="BI13" s="265"/>
+      <c r="BJ13" s="265"/>
+      <c r="BK13" s="265"/>
+      <c r="BL13" s="265"/>
+      <c r="BM13" s="266"/>
+      <c r="BN13" s="257"/>
+    </row>
+    <row r="14" customHeight="1" ht="12">
+      <c r="A14" s="252"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="253"/>
+      <c r="O14" s="253"/>
+      <c r="P14" s="253"/>
+      <c r="Q14" s="253"/>
+      <c r="R14" s="253"/>
+      <c r="S14" s="253"/>
+      <c r="T14" s="253"/>
+      <c r="U14" s="253"/>
+      <c r="V14" s="253"/>
+      <c r="W14" s="253"/>
+      <c r="X14" s="253"/>
+      <c r="Y14" s="253"/>
+      <c r="Z14" s="253"/>
+      <c r="AA14" s="253"/>
+      <c r="AB14" s="253"/>
+      <c r="AC14" s="253"/>
+      <c r="AD14" s="253"/>
+      <c r="AE14" s="253"/>
+      <c r="AF14" s="253"/>
+      <c r="AG14" s="253"/>
+      <c r="AH14" s="253"/>
+      <c r="AI14" s="253"/>
+      <c r="AJ14" s="253"/>
+      <c r="AK14" s="253"/>
+      <c r="AL14" s="253"/>
+      <c r="AM14" s="253"/>
+      <c r="AN14" s="253"/>
+      <c r="AO14" s="253"/>
+      <c r="AP14" s="258" t="s">
         <v>43</v>
       </c>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="89" t="s">
+      <c r="AQ14" s="259"/>
+      <c r="AR14" s="260"/>
+      <c r="AS14" s="264" t="s">
         <v>44</v>
       </c>
-      <c r="AT14" s="90"/>
-      <c r="AU14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AW14" s="90"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="90"/>
-      <c r="AZ14" s="90"/>
-      <c r="BA14" s="90"/>
-      <c r="BB14" s="90"/>
-      <c r="BC14" s="90"/>
-      <c r="BD14" s="91"/>
-      <c r="BE14" s="89" t="s">
+      <c r="AT14" s="265"/>
+      <c r="AU14" s="265"/>
+      <c r="AV14" s="265"/>
+      <c r="AW14" s="265"/>
+      <c r="AX14" s="265"/>
+      <c r="AY14" s="265"/>
+      <c r="AZ14" s="265"/>
+      <c r="BA14" s="265"/>
+      <c r="BB14" s="265"/>
+      <c r="BC14" s="265"/>
+      <c r="BD14" s="266"/>
+      <c r="BE14" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="BF14" s="90"/>
-      <c r="BG14" s="90"/>
-      <c r="BH14" s="90"/>
-      <c r="BI14" s="90"/>
-      <c r="BJ14" s="90"/>
-      <c r="BK14" s="90"/>
-      <c r="BL14" s="90"/>
-      <c r="BM14" s="91"/>
-    </row>
-    <row r="15" customHeight="1" ht="13">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="79"/>
-      <c r="AM15" s="79"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="79"/>
-      <c r="AP15" s="83" t="s">
+      <c r="BF14" s="265"/>
+      <c r="BG14" s="265"/>
+      <c r="BH14" s="265"/>
+      <c r="BI14" s="265"/>
+      <c r="BJ14" s="265"/>
+      <c r="BK14" s="265"/>
+      <c r="BL14" s="265"/>
+      <c r="BM14" s="266"/>
+      <c r="BN14" s="257"/>
+    </row>
+    <row r="15" customHeight="1" ht="12">
+      <c r="A15" s="252"/>
+      <c r="B15" s="253"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="253"/>
+      <c r="M15" s="253"/>
+      <c r="N15" s="253"/>
+      <c r="O15" s="253"/>
+      <c r="P15" s="253"/>
+      <c r="Q15" s="253"/>
+      <c r="R15" s="253"/>
+      <c r="S15" s="253"/>
+      <c r="T15" s="253"/>
+      <c r="U15" s="253"/>
+      <c r="V15" s="253"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="253"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="253"/>
+      <c r="AI15" s="253"/>
+      <c r="AJ15" s="253"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="253"/>
+      <c r="AM15" s="253"/>
+      <c r="AN15" s="253"/>
+      <c r="AO15" s="253"/>
+      <c r="AP15" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="89" t="s">
+      <c r="AQ15" s="259"/>
+      <c r="AR15" s="260"/>
+      <c r="AS15" s="264" t="s">
         <v>46</v>
       </c>
-      <c r="AT15" s="90"/>
-      <c r="AU15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="90"/>
-      <c r="BA15" s="90"/>
-      <c r="BB15" s="90"/>
-      <c r="BC15" s="90"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="89" t="s">
+      <c r="AT15" s="265"/>
+      <c r="AU15" s="265"/>
+      <c r="AV15" s="265"/>
+      <c r="AW15" s="265"/>
+      <c r="AX15" s="265"/>
+      <c r="AY15" s="265"/>
+      <c r="AZ15" s="265"/>
+      <c r="BA15" s="265"/>
+      <c r="BB15" s="265"/>
+      <c r="BC15" s="265"/>
+      <c r="BD15" s="266"/>
+      <c r="BE15" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="BF15" s="90"/>
-      <c r="BG15" s="90"/>
-      <c r="BH15" s="90"/>
-      <c r="BI15" s="90"/>
-      <c r="BJ15" s="90"/>
-      <c r="BK15" s="90"/>
-      <c r="BL15" s="90"/>
-      <c r="BM15" s="91"/>
-    </row>
-    <row r="16" customHeight="1" ht="13">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="83" t="s">
+      <c r="BF15" s="265"/>
+      <c r="BG15" s="265"/>
+      <c r="BH15" s="265"/>
+      <c r="BI15" s="265"/>
+      <c r="BJ15" s="265"/>
+      <c r="BK15" s="265"/>
+      <c r="BL15" s="265"/>
+      <c r="BM15" s="266"/>
+      <c r="BN15" s="257"/>
+    </row>
+    <row r="16" customHeight="1" ht="12">
+      <c r="A16" s="252"/>
+      <c r="B16" s="253"/>
+      <c r="C16" s="253"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="253"/>
+      <c r="F16" s="253"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="253"/>
+      <c r="J16" s="253"/>
+      <c r="K16" s="253"/>
+      <c r="L16" s="253"/>
+      <c r="M16" s="253"/>
+      <c r="N16" s="253"/>
+      <c r="O16" s="253"/>
+      <c r="P16" s="253"/>
+      <c r="Q16" s="253"/>
+      <c r="R16" s="253"/>
+      <c r="S16" s="253"/>
+      <c r="T16" s="253"/>
+      <c r="U16" s="253"/>
+      <c r="V16" s="253"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="253"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="253"/>
+      <c r="AH16" s="253"/>
+      <c r="AI16" s="253"/>
+      <c r="AJ16" s="253"/>
+      <c r="AK16" s="253"/>
+      <c r="AL16" s="253"/>
+      <c r="AM16" s="253"/>
+      <c r="AN16" s="253"/>
+      <c r="AO16" s="253"/>
+      <c r="AP16" s="258" t="s">
         <v>47</v>
       </c>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="89" t="s">
+      <c r="AQ16" s="259"/>
+      <c r="AR16" s="260"/>
+      <c r="AS16" s="264" t="s">
         <v>48</v>
       </c>
-      <c r="AT16" s="90"/>
-      <c r="AU16" s="90"/>
-      <c r="AV16" s="90"/>
-      <c r="AW16" s="90"/>
-      <c r="AX16" s="90"/>
-      <c r="AY16" s="90"/>
-      <c r="AZ16" s="90"/>
-      <c r="BA16" s="90"/>
-      <c r="BB16" s="90"/>
-      <c r="BC16" s="90"/>
-      <c r="BD16" s="91"/>
-      <c r="BE16" s="89" t="s">
+      <c r="AT16" s="265"/>
+      <c r="AU16" s="265"/>
+      <c r="AV16" s="265"/>
+      <c r="AW16" s="265"/>
+      <c r="AX16" s="265"/>
+      <c r="AY16" s="265"/>
+      <c r="AZ16" s="265"/>
+      <c r="BA16" s="265"/>
+      <c r="BB16" s="265"/>
+      <c r="BC16" s="265"/>
+      <c r="BD16" s="266"/>
+      <c r="BE16" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="BF16" s="90"/>
-      <c r="BG16" s="90"/>
-      <c r="BH16" s="90"/>
-      <c r="BI16" s="90"/>
-      <c r="BJ16" s="90"/>
-      <c r="BK16" s="90"/>
-      <c r="BL16" s="90"/>
-      <c r="BM16" s="91"/>
-    </row>
-    <row r="17" customHeight="1" ht="13">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="79"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="79"/>
-      <c r="AP17" s="83" t="s">
+      <c r="BF16" s="265"/>
+      <c r="BG16" s="265"/>
+      <c r="BH16" s="265"/>
+      <c r="BI16" s="265"/>
+      <c r="BJ16" s="265"/>
+      <c r="BK16" s="265"/>
+      <c r="BL16" s="265"/>
+      <c r="BM16" s="266"/>
+      <c r="BN16" s="257"/>
+    </row>
+    <row r="17" customHeight="1" ht="12">
+      <c r="A17" s="252"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="253"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="253"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="253"/>
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="253"/>
+      <c r="M17" s="253"/>
+      <c r="N17" s="253"/>
+      <c r="O17" s="253"/>
+      <c r="P17" s="253"/>
+      <c r="Q17" s="253"/>
+      <c r="R17" s="253"/>
+      <c r="S17" s="253"/>
+      <c r="T17" s="253"/>
+      <c r="U17" s="253"/>
+      <c r="V17" s="253"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+      <c r="AH17" s="253"/>
+      <c r="AI17" s="253"/>
+      <c r="AJ17" s="253"/>
+      <c r="AK17" s="253"/>
+      <c r="AL17" s="253"/>
+      <c r="AM17" s="253"/>
+      <c r="AN17" s="253"/>
+      <c r="AO17" s="253"/>
+      <c r="AP17" s="320" t="s">
         <v>49</v>
       </c>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="85"/>
-      <c r="AS17" s="89" t="s">
+      <c r="AQ17" s="321"/>
+      <c r="AR17" s="322"/>
+      <c r="AS17" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="AT17" s="90"/>
-      <c r="AU17" s="90"/>
-      <c r="AV17" s="90"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="90"/>
-      <c r="BA17" s="90"/>
-      <c r="BB17" s="90"/>
-      <c r="BC17" s="90"/>
-      <c r="BD17" s="91"/>
-      <c r="BE17" s="89" t="s">
+      <c r="AT17" s="273"/>
+      <c r="AU17" s="273"/>
+      <c r="AV17" s="273"/>
+      <c r="AW17" s="273"/>
+      <c r="AX17" s="273"/>
+      <c r="AY17" s="273"/>
+      <c r="AZ17" s="273"/>
+      <c r="BA17" s="273"/>
+      <c r="BB17" s="273"/>
+      <c r="BC17" s="273"/>
+      <c r="BD17" s="274"/>
+      <c r="BE17" s="272" t="s">
         <v>35</v>
       </c>
-      <c r="BF17" s="90"/>
-      <c r="BG17" s="90"/>
-      <c r="BH17" s="90"/>
-      <c r="BI17" s="90"/>
-      <c r="BJ17" s="90"/>
-      <c r="BK17" s="90"/>
-      <c r="BL17" s="90"/>
-      <c r="BM17" s="91"/>
-    </row>
-    <row r="18" customHeight="1" ht="13">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="83" t="s">
+      <c r="BF17" s="273"/>
+      <c r="BG17" s="273"/>
+      <c r="BH17" s="273"/>
+      <c r="BI17" s="273"/>
+      <c r="BJ17" s="273"/>
+      <c r="BK17" s="273"/>
+      <c r="BL17" s="273"/>
+      <c r="BM17" s="274"/>
+      <c r="BN17" s="257"/>
+    </row>
+    <row r="18" customHeight="1" ht="12">
+      <c r="A18" s="252"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="253"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="253"/>
+      <c r="G18" s="253"/>
+      <c r="H18" s="253"/>
+      <c r="I18" s="253"/>
+      <c r="J18" s="253"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="253"/>
+      <c r="M18" s="253"/>
+      <c r="N18" s="253"/>
+      <c r="O18" s="253"/>
+      <c r="P18" s="253"/>
+      <c r="Q18" s="253"/>
+      <c r="R18" s="253"/>
+      <c r="S18" s="253"/>
+      <c r="T18" s="253"/>
+      <c r="U18" s="253"/>
+      <c r="V18" s="253"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="253"/>
+      <c r="AJ18" s="253"/>
+      <c r="AK18" s="253"/>
+      <c r="AL18" s="253"/>
+      <c r="AM18" s="253"/>
+      <c r="AN18" s="253"/>
+      <c r="AO18" s="253"/>
+      <c r="AP18" s="325" t="s">
         <v>50</v>
       </c>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="85"/>
-      <c r="AS18" s="89" t="s">
+      <c r="AQ18" s="326"/>
+      <c r="AR18" s="328"/>
+      <c r="AS18" s="316" t="s">
         <v>51</v>
       </c>
-      <c r="AT18" s="90"/>
-      <c r="AU18" s="90"/>
-      <c r="AV18" s="90"/>
-      <c r="AW18" s="90"/>
-      <c r="AX18" s="90"/>
-      <c r="AY18" s="90"/>
-      <c r="AZ18" s="90"/>
-      <c r="BA18" s="90"/>
-      <c r="BB18" s="90"/>
-      <c r="BC18" s="90"/>
-      <c r="BD18" s="91"/>
-      <c r="BE18" s="89" t="s">
+      <c r="AT18" s="324"/>
+      <c r="AU18" s="324"/>
+      <c r="AV18" s="324"/>
+      <c r="AW18" s="324"/>
+      <c r="AX18" s="324"/>
+      <c r="AY18" s="324"/>
+      <c r="AZ18" s="324"/>
+      <c r="BA18" s="324"/>
+      <c r="BB18" s="324"/>
+      <c r="BC18" s="324"/>
+      <c r="BD18" s="317"/>
+      <c r="BE18" s="316" t="s">
         <v>52</v>
       </c>
-      <c r="BF18" s="90"/>
-      <c r="BG18" s="90"/>
-      <c r="BH18" s="90"/>
-      <c r="BI18" s="90"/>
-      <c r="BJ18" s="90"/>
-      <c r="BK18" s="90"/>
-      <c r="BL18" s="90"/>
-      <c r="BM18" s="91"/>
-    </row>
-    <row r="19" customHeight="1" ht="13">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
-    </row>
-    <row r="20" customHeight="1" ht="13">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-    </row>
-    <row r="21" customHeight="1" ht="13">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="79"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-    </row>
-    <row r="22" customHeight="1" ht="13">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="79"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
-    </row>
-    <row r="23" customHeight="1" ht="13">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="79"/>
-      <c r="AM23" s="79"/>
-      <c r="AN23" s="79"/>
-      <c r="AO23" s="79"/>
-    </row>
-    <row r="24" customHeight="1" ht="13">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="79"/>
-      <c r="AL24" s="79"/>
-      <c r="AM24" s="79"/>
-      <c r="AN24" s="79"/>
-      <c r="AO24" s="79"/>
-    </row>
-    <row r="25" customHeight="1" ht="13">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-    </row>
-    <row r="26" customHeight="1" ht="13">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-    </row>
-    <row r="27" customHeight="1" ht="13">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-    </row>
-    <row r="28" customHeight="1" ht="13">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-    </row>
-    <row r="29" customHeight="1" ht="13">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-    </row>
-    <row r="30" customHeight="1" ht="13">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-    </row>
-    <row r="31" customHeight="1" ht="13">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
-    </row>
-    <row r="32" customHeight="1" ht="13">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="79"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
-    </row>
-    <row r="33" customHeight="1" ht="13">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="79"/>
-      <c r="AM33" s="79"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
-    </row>
-    <row r="34" customHeight="1" ht="13">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="79"/>
-      <c r="AM34" s="79"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="79"/>
-    </row>
-    <row r="35" customHeight="1" ht="13">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="79"/>
-      <c r="AD35" s="79"/>
-      <c r="AE35" s="79"/>
-      <c r="AF35" s="79"/>
-      <c r="AG35" s="79"/>
-      <c r="AH35" s="79"/>
-      <c r="AI35" s="79"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="79"/>
-      <c r="AL35" s="79"/>
-      <c r="AM35" s="79"/>
-      <c r="AN35" s="79"/>
-      <c r="AO35" s="79"/>
-    </row>
-    <row r="36" customHeight="1" ht="13">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
-    </row>
-    <row r="37" customHeight="1" ht="13">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="79"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="79"/>
-      <c r="AF37" s="79"/>
-      <c r="AG37" s="79"/>
-      <c r="AH37" s="79"/>
-      <c r="AI37" s="79"/>
-      <c r="AJ37" s="79"/>
-      <c r="AK37" s="79"/>
-      <c r="AL37" s="79"/>
-      <c r="AM37" s="79"/>
-      <c r="AN37" s="79"/>
-      <c r="AO37" s="79"/>
-    </row>
-    <row r="38" customHeight="1" ht="13">
-      <c r="A38" s="78"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="79"/>
-      <c r="AI38" s="79"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="79"/>
-      <c r="AL38" s="79"/>
-      <c r="AM38" s="79"/>
-      <c r="AN38" s="79"/>
-      <c r="AO38" s="79"/>
-    </row>
-    <row r="39" customHeight="1" ht="13">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="79"/>
-      <c r="Z39" s="79"/>
-      <c r="AA39" s="79"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="79"/>
-      <c r="AD39" s="79"/>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="79"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="79"/>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="79"/>
-      <c r="AM39" s="79"/>
-      <c r="AN39" s="79"/>
-      <c r="AO39" s="79"/>
-    </row>
-    <row r="40" customHeight="1" ht="13">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="79"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="79"/>
-      <c r="AG40" s="79"/>
-      <c r="AH40" s="79"/>
-      <c r="AI40" s="79"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="79"/>
-      <c r="AL40" s="79"/>
-      <c r="AM40" s="79"/>
-      <c r="AN40" s="79"/>
-      <c r="AO40" s="79"/>
-    </row>
-    <row r="41" customHeight="1" ht="13">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="79"/>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="79"/>
-      <c r="AL41" s="79"/>
-      <c r="AM41" s="79"/>
-      <c r="AN41" s="79"/>
-      <c r="AO41" s="79"/>
-    </row>
-    <row r="42" customHeight="1" ht="13">
-      <c r="A42" s="78"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="79"/>
-      <c r="U42" s="79"/>
-      <c r="V42" s="79"/>
-      <c r="W42" s="79"/>
-      <c r="X42" s="79"/>
-      <c r="Y42" s="79"/>
-      <c r="Z42" s="79"/>
-      <c r="AA42" s="79"/>
-      <c r="AB42" s="79"/>
-      <c r="AC42" s="79"/>
-      <c r="AD42" s="79"/>
-      <c r="AE42" s="79"/>
-      <c r="AF42" s="79"/>
-      <c r="AG42" s="79"/>
-      <c r="AH42" s="79"/>
-      <c r="AI42" s="79"/>
-      <c r="AJ42" s="79"/>
-      <c r="AK42" s="79"/>
-      <c r="AL42" s="79"/>
-      <c r="AM42" s="79"/>
-      <c r="AN42" s="79"/>
-      <c r="AO42" s="79"/>
-    </row>
-    <row r="43" customHeight="1" ht="13">
+      <c r="BF18" s="316"/>
+      <c r="BG18" s="316"/>
+      <c r="BH18" s="316"/>
+      <c r="BI18" s="316"/>
+      <c r="BJ18" s="316"/>
+      <c r="BK18" s="316"/>
+      <c r="BL18" s="316"/>
+      <c r="BM18" s="317"/>
+      <c r="BN18" s="257"/>
+    </row>
+    <row r="19" customHeight="1" ht="12">
+      <c r="A19" s="252"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="253"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="253"/>
+      <c r="F19" s="253"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="253"/>
+      <c r="M19" s="253"/>
+      <c r="N19" s="253"/>
+      <c r="O19" s="253"/>
+      <c r="P19" s="253"/>
+      <c r="Q19" s="253"/>
+      <c r="R19" s="253"/>
+      <c r="S19" s="253"/>
+      <c r="T19" s="253"/>
+      <c r="U19" s="253"/>
+      <c r="V19" s="253"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="253"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
+      <c r="AJ19" s="253"/>
+      <c r="AK19" s="253"/>
+      <c r="AL19" s="253"/>
+      <c r="AM19" s="253"/>
+      <c r="AN19" s="253"/>
+      <c r="AO19" s="253"/>
+      <c r="AP19" s="267"/>
+      <c r="AQ19" s="267"/>
+      <c r="AR19" s="267"/>
+      <c r="AS19" s="267"/>
+      <c r="AT19" s="267"/>
+      <c r="AU19" s="267"/>
+      <c r="AV19" s="267"/>
+      <c r="AW19" s="267"/>
+      <c r="AX19" s="267"/>
+      <c r="AY19" s="267"/>
+      <c r="AZ19" s="267"/>
+      <c r="BA19" s="267"/>
+      <c r="BB19" s="267"/>
+      <c r="BC19" s="267"/>
+      <c r="BD19" s="267"/>
+      <c r="BE19" s="304"/>
+      <c r="BF19" s="300"/>
+      <c r="BG19" s="300"/>
+      <c r="BH19" s="300"/>
+      <c r="BI19" s="300"/>
+      <c r="BJ19" s="300"/>
+      <c r="BK19" s="300"/>
+      <c r="BL19" s="300"/>
+      <c r="BM19" s="301"/>
+      <c r="BN19" s="257"/>
+    </row>
+    <row r="20" customHeight="1" ht="12">
+      <c r="A20" s="252"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="253"/>
+      <c r="H20" s="253"/>
+      <c r="I20" s="253"/>
+      <c r="J20" s="253"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="253"/>
+      <c r="M20" s="253"/>
+      <c r="N20" s="253"/>
+      <c r="O20" s="253"/>
+      <c r="P20" s="253"/>
+      <c r="Q20" s="253"/>
+      <c r="R20" s="253"/>
+      <c r="S20" s="253"/>
+      <c r="T20" s="253"/>
+      <c r="U20" s="253"/>
+      <c r="V20" s="253"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="253"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="253"/>
+      <c r="AI20" s="253"/>
+      <c r="AJ20" s="253"/>
+      <c r="AK20" s="253"/>
+      <c r="AL20" s="253"/>
+      <c r="AM20" s="253"/>
+      <c r="AN20" s="253"/>
+      <c r="AO20" s="253"/>
+      <c r="AP20" s="267"/>
+      <c r="AQ20" s="267"/>
+      <c r="AR20" s="267"/>
+      <c r="AS20" s="267"/>
+      <c r="AT20" s="267"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="267"/>
+      <c r="AW20" s="267"/>
+      <c r="AX20" s="267"/>
+      <c r="AY20" s="267"/>
+      <c r="AZ20" s="267"/>
+      <c r="BA20" s="267"/>
+      <c r="BB20" s="267"/>
+      <c r="BC20" s="267"/>
+      <c r="BD20" s="267"/>
+      <c r="BE20" s="294"/>
+      <c r="BF20" s="295"/>
+      <c r="BG20" s="295"/>
+      <c r="BH20" s="295"/>
+      <c r="BI20" s="295"/>
+      <c r="BJ20" s="295"/>
+      <c r="BK20" s="295"/>
+      <c r="BL20" s="295"/>
+      <c r="BM20" s="312"/>
+      <c r="BN20" s="257"/>
+    </row>
+    <row r="21" customHeight="1" ht="12">
+      <c r="A21" s="252"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
+      <c r="H21" s="253"/>
+      <c r="I21" s="253"/>
+      <c r="J21" s="253"/>
+      <c r="K21" s="253"/>
+      <c r="L21" s="253"/>
+      <c r="M21" s="253"/>
+      <c r="N21" s="253"/>
+      <c r="O21" s="253"/>
+      <c r="P21" s="253"/>
+      <c r="Q21" s="253"/>
+      <c r="R21" s="253"/>
+      <c r="S21" s="253"/>
+      <c r="T21" s="253"/>
+      <c r="U21" s="253"/>
+      <c r="V21" s="253"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="253"/>
+      <c r="Y21" s="253"/>
+      <c r="Z21" s="253"/>
+      <c r="AA21" s="253"/>
+      <c r="AB21" s="253"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="253"/>
+      <c r="AH21" s="253"/>
+      <c r="AI21" s="253"/>
+      <c r="AJ21" s="253"/>
+      <c r="AK21" s="253"/>
+      <c r="AL21" s="253"/>
+      <c r="AM21" s="253"/>
+      <c r="AN21" s="253"/>
+      <c r="AO21" s="253"/>
+      <c r="AP21" s="267"/>
+      <c r="AQ21" s="267"/>
+      <c r="AR21" s="267"/>
+      <c r="AS21" s="267"/>
+      <c r="AT21" s="267"/>
+      <c r="AU21" s="267"/>
+      <c r="AV21" s="267"/>
+      <c r="AW21" s="267"/>
+      <c r="AX21" s="267"/>
+      <c r="AY21" s="267"/>
+      <c r="AZ21" s="267"/>
+      <c r="BA21" s="267"/>
+      <c r="BB21" s="267"/>
+      <c r="BC21" s="267"/>
+      <c r="BD21" s="267"/>
+      <c r="BE21" s="297"/>
+      <c r="BF21" s="298"/>
+      <c r="BG21" s="298"/>
+      <c r="BH21" s="298"/>
+      <c r="BI21" s="298"/>
+      <c r="BJ21" s="298"/>
+      <c r="BK21" s="298"/>
+      <c r="BL21" s="298"/>
+      <c r="BM21" s="313"/>
+      <c r="BN21" s="257"/>
+    </row>
+    <row r="22" customHeight="1" ht="12">
+      <c r="A22" s="252"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="253"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="253"/>
+      <c r="N22" s="253"/>
+      <c r="O22" s="253"/>
+      <c r="P22" s="253"/>
+      <c r="Q22" s="253"/>
+      <c r="R22" s="253"/>
+      <c r="S22" s="253"/>
+      <c r="T22" s="253"/>
+      <c r="U22" s="253"/>
+      <c r="V22" s="253"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="253"/>
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="253"/>
+      <c r="AA22" s="253"/>
+      <c r="AB22" s="253"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="253"/>
+      <c r="AH22" s="253"/>
+      <c r="AI22" s="253"/>
+      <c r="AJ22" s="253"/>
+      <c r="AK22" s="253"/>
+      <c r="AL22" s="253"/>
+      <c r="AM22" s="253"/>
+      <c r="AN22" s="253"/>
+      <c r="AO22" s="253"/>
+      <c r="AP22" s="267"/>
+      <c r="AQ22" s="267"/>
+      <c r="AR22" s="267"/>
+      <c r="AS22" s="267"/>
+      <c r="AT22" s="267"/>
+      <c r="AU22" s="267"/>
+      <c r="AV22" s="267"/>
+      <c r="AW22" s="267"/>
+      <c r="AX22" s="267"/>
+      <c r="AY22" s="267"/>
+      <c r="AZ22" s="267"/>
+      <c r="BA22" s="267"/>
+      <c r="BB22" s="267"/>
+      <c r="BC22" s="267"/>
+      <c r="BD22" s="267"/>
+      <c r="BE22" s="42"/>
+      <c r="BF22" s="300"/>
+      <c r="BG22" s="300"/>
+      <c r="BH22" s="300"/>
+      <c r="BI22" s="300"/>
+      <c r="BJ22" s="300"/>
+      <c r="BK22" s="300"/>
+      <c r="BL22" s="300"/>
+      <c r="BM22" s="301"/>
+      <c r="BN22" s="257"/>
+    </row>
+    <row r="23" customHeight="1" ht="12">
+      <c r="A23" s="252"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="253"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="253"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="253"/>
+      <c r="Y23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="253"/>
+      <c r="AH23" s="253"/>
+      <c r="AI23" s="253"/>
+      <c r="AJ23" s="253"/>
+      <c r="AK23" s="253"/>
+      <c r="AL23" s="253"/>
+      <c r="AM23" s="253"/>
+      <c r="AN23" s="253"/>
+      <c r="AO23" s="253"/>
+      <c r="AP23" s="267"/>
+      <c r="AQ23" s="267"/>
+      <c r="AR23" s="267"/>
+      <c r="AS23" s="267"/>
+      <c r="AT23" s="267"/>
+      <c r="AU23" s="267"/>
+      <c r="AV23" s="267"/>
+      <c r="AW23" s="267"/>
+      <c r="AX23" s="267"/>
+      <c r="AY23" s="267"/>
+      <c r="AZ23" s="267"/>
+      <c r="BA23" s="267"/>
+      <c r="BB23" s="267"/>
+      <c r="BC23" s="267"/>
+      <c r="BD23" s="267"/>
+      <c r="BE23" s="278"/>
+      <c r="BF23" s="279"/>
+      <c r="BG23" s="279"/>
+      <c r="BH23" s="279"/>
+      <c r="BI23" s="279"/>
+      <c r="BJ23" s="279"/>
+      <c r="BK23" s="279"/>
+      <c r="BL23" s="279"/>
+      <c r="BM23" s="281"/>
+      <c r="BN23" s="257"/>
+    </row>
+    <row r="24" customHeight="1" ht="12">
+      <c r="A24" s="252"/>
+      <c r="B24" s="253"/>
+      <c r="C24" s="253"/>
+      <c r="D24" s="253"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="253"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="253"/>
+      <c r="J24" s="253"/>
+      <c r="K24" s="253"/>
+      <c r="L24" s="253"/>
+      <c r="M24" s="253"/>
+      <c r="N24" s="253"/>
+      <c r="O24" s="253"/>
+      <c r="P24" s="253"/>
+      <c r="Q24" s="253"/>
+      <c r="R24" s="253"/>
+      <c r="S24" s="253"/>
+      <c r="T24" s="253"/>
+      <c r="U24" s="253"/>
+      <c r="V24" s="253"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="253"/>
+      <c r="Z24" s="253"/>
+      <c r="AA24" s="253"/>
+      <c r="AB24" s="253"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="253"/>
+      <c r="AH24" s="253"/>
+      <c r="AI24" s="253"/>
+      <c r="AJ24" s="253"/>
+      <c r="AK24" s="253"/>
+      <c r="AL24" s="253"/>
+      <c r="AM24" s="253"/>
+      <c r="AN24" s="253"/>
+      <c r="AO24" s="253"/>
+      <c r="AP24" s="267"/>
+      <c r="AQ24" s="267"/>
+      <c r="AR24" s="267"/>
+      <c r="AS24" s="267"/>
+      <c r="AT24" s="267"/>
+      <c r="AU24" s="267"/>
+      <c r="AV24" s="267"/>
+      <c r="AW24" s="267"/>
+      <c r="AX24" s="267"/>
+      <c r="AY24" s="267"/>
+      <c r="AZ24" s="267"/>
+      <c r="BA24" s="267"/>
+      <c r="BB24" s="267"/>
+      <c r="BC24" s="267"/>
+      <c r="BD24" s="309"/>
+      <c r="BE24" s="300"/>
+      <c r="BF24" s="300"/>
+      <c r="BG24" s="300"/>
+      <c r="BH24" s="300"/>
+      <c r="BI24" s="300"/>
+      <c r="BJ24" s="300"/>
+      <c r="BK24" s="300"/>
+      <c r="BL24" s="300"/>
+      <c r="BM24" s="301"/>
+      <c r="BN24" s="257"/>
+    </row>
+    <row r="25" customHeight="1" ht="12">
+      <c r="A25" s="252"/>
+      <c r="B25" s="253"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="253"/>
+      <c r="H25" s="253"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="253"/>
+      <c r="M25" s="253"/>
+      <c r="N25" s="253"/>
+      <c r="O25" s="253"/>
+      <c r="P25" s="253"/>
+      <c r="Q25" s="253"/>
+      <c r="R25" s="253"/>
+      <c r="S25" s="253"/>
+      <c r="T25" s="253"/>
+      <c r="U25" s="253"/>
+      <c r="V25" s="253"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="253"/>
+      <c r="Y25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AA25" s="253"/>
+      <c r="AB25" s="253"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="253"/>
+      <c r="AE25" s="253"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="253"/>
+      <c r="AH25" s="253"/>
+      <c r="AI25" s="253"/>
+      <c r="AJ25" s="253"/>
+      <c r="AK25" s="253"/>
+      <c r="AL25" s="253"/>
+      <c r="AM25" s="253"/>
+      <c r="AN25" s="253"/>
+      <c r="AO25" s="253"/>
+      <c r="AP25" s="267"/>
+      <c r="AQ25" s="267"/>
+      <c r="AR25" s="267"/>
+      <c r="AS25" s="267"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="267"/>
+      <c r="AX25" s="267"/>
+      <c r="AY25" s="267"/>
+      <c r="AZ25" s="267"/>
+      <c r="BA25" s="267"/>
+      <c r="BB25" s="267"/>
+      <c r="BC25" s="267"/>
+      <c r="BD25" s="267"/>
+      <c r="BE25" s="278"/>
+      <c r="BF25" s="279"/>
+      <c r="BG25" s="279"/>
+      <c r="BH25" s="279"/>
+      <c r="BI25" s="279"/>
+      <c r="BJ25" s="279"/>
+      <c r="BK25" s="279"/>
+      <c r="BL25" s="279"/>
+      <c r="BM25" s="281"/>
+      <c r="BN25" s="257"/>
+    </row>
+    <row r="26" customHeight="1" ht="12">
+      <c r="A26" s="252"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="253"/>
+      <c r="I26" s="253"/>
+      <c r="J26" s="253"/>
+      <c r="K26" s="253"/>
+      <c r="L26" s="253"/>
+      <c r="M26" s="253"/>
+      <c r="N26" s="253"/>
+      <c r="O26" s="253"/>
+      <c r="P26" s="253"/>
+      <c r="Q26" s="253"/>
+      <c r="R26" s="253"/>
+      <c r="S26" s="253"/>
+      <c r="T26" s="253"/>
+      <c r="U26" s="253"/>
+      <c r="V26" s="253"/>
+      <c r="W26" s="253"/>
+      <c r="X26" s="253"/>
+      <c r="Y26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="253"/>
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="253"/>
+      <c r="AH26" s="253"/>
+      <c r="AI26" s="253"/>
+      <c r="AJ26" s="253"/>
+      <c r="AK26" s="253"/>
+      <c r="AL26" s="253"/>
+      <c r="AM26" s="253"/>
+      <c r="AN26" s="253"/>
+      <c r="AO26" s="253"/>
+      <c r="AP26" s="267"/>
+      <c r="AQ26" s="267"/>
+      <c r="AR26" s="267"/>
+      <c r="AS26" s="267"/>
+      <c r="AT26" s="267"/>
+      <c r="AU26" s="267"/>
+      <c r="AV26" s="267"/>
+      <c r="AW26" s="267"/>
+      <c r="AX26" s="267"/>
+      <c r="AY26" s="267"/>
+      <c r="AZ26" s="267"/>
+      <c r="BA26" s="267"/>
+      <c r="BB26" s="267"/>
+      <c r="BC26" s="267"/>
+      <c r="BD26" s="309"/>
+      <c r="BE26" s="300"/>
+      <c r="BF26" s="300"/>
+      <c r="BG26" s="300"/>
+      <c r="BH26" s="300"/>
+      <c r="BI26" s="300"/>
+      <c r="BJ26" s="300"/>
+      <c r="BK26" s="300"/>
+      <c r="BL26" s="300"/>
+      <c r="BM26" s="301"/>
+      <c r="BN26" s="257"/>
+    </row>
+    <row r="27" customHeight="1" ht="12">
+      <c r="A27" s="252"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="253"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="253"/>
+      <c r="M27" s="253"/>
+      <c r="N27" s="253"/>
+      <c r="O27" s="253"/>
+      <c r="P27" s="253"/>
+      <c r="Q27" s="253"/>
+      <c r="R27" s="253"/>
+      <c r="S27" s="253"/>
+      <c r="T27" s="253"/>
+      <c r="U27" s="253"/>
+      <c r="V27" s="253"/>
+      <c r="W27" s="253"/>
+      <c r="X27" s="253"/>
+      <c r="Y27" s="253"/>
+      <c r="Z27" s="253"/>
+      <c r="AA27" s="253"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="253"/>
+      <c r="AE27" s="253"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="253"/>
+      <c r="AH27" s="253"/>
+      <c r="AI27" s="253"/>
+      <c r="AJ27" s="253"/>
+      <c r="AK27" s="253"/>
+      <c r="AL27" s="253"/>
+      <c r="AM27" s="253"/>
+      <c r="AN27" s="253"/>
+      <c r="AO27" s="253"/>
+      <c r="AP27" s="267"/>
+      <c r="AQ27" s="267"/>
+      <c r="AR27" s="267"/>
+      <c r="AS27" s="267"/>
+      <c r="AT27" s="267"/>
+      <c r="AU27" s="267"/>
+      <c r="AV27" s="267"/>
+      <c r="AW27" s="267"/>
+      <c r="AX27" s="267"/>
+      <c r="AY27" s="267"/>
+      <c r="AZ27" s="267"/>
+      <c r="BA27" s="267"/>
+      <c r="BB27" s="267"/>
+      <c r="BC27" s="267"/>
+      <c r="BD27" s="267"/>
+      <c r="BE27" s="278"/>
+      <c r="BF27" s="279"/>
+      <c r="BG27" s="279"/>
+      <c r="BH27" s="279"/>
+      <c r="BI27" s="279"/>
+      <c r="BJ27" s="279"/>
+      <c r="BK27" s="279"/>
+      <c r="BL27" s="279"/>
+      <c r="BM27" s="281"/>
+      <c r="BN27" s="257"/>
+    </row>
+    <row r="28" customHeight="1" ht="12">
+      <c r="A28" s="252"/>
+      <c r="B28" s="253"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="253"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="253"/>
+      <c r="G28" s="253"/>
+      <c r="H28" s="253"/>
+      <c r="I28" s="253"/>
+      <c r="J28" s="253"/>
+      <c r="K28" s="253"/>
+      <c r="L28" s="253"/>
+      <c r="M28" s="253"/>
+      <c r="N28" s="253"/>
+      <c r="O28" s="253"/>
+      <c r="P28" s="253"/>
+      <c r="Q28" s="253"/>
+      <c r="R28" s="253"/>
+      <c r="S28" s="253"/>
+      <c r="T28" s="253"/>
+      <c r="U28" s="253"/>
+      <c r="V28" s="253"/>
+      <c r="W28" s="253"/>
+      <c r="X28" s="253"/>
+      <c r="Y28" s="253"/>
+      <c r="Z28" s="253"/>
+      <c r="AA28" s="253"/>
+      <c r="AB28" s="253"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="253"/>
+      <c r="AE28" s="253"/>
+      <c r="AF28" s="253"/>
+      <c r="AG28" s="253"/>
+      <c r="AH28" s="253"/>
+      <c r="AI28" s="253"/>
+      <c r="AJ28" s="253"/>
+      <c r="AK28" s="253"/>
+      <c r="AL28" s="253"/>
+      <c r="AM28" s="253"/>
+      <c r="AN28" s="253"/>
+      <c r="AO28" s="253"/>
+      <c r="AP28" s="267"/>
+      <c r="AQ28" s="267"/>
+      <c r="AR28" s="267"/>
+      <c r="AS28" s="267"/>
+      <c r="AT28" s="267"/>
+      <c r="AU28" s="267"/>
+      <c r="AV28" s="267"/>
+      <c r="AW28" s="267"/>
+      <c r="AX28" s="267"/>
+      <c r="AY28" s="267"/>
+      <c r="AZ28" s="267"/>
+      <c r="BA28" s="267"/>
+      <c r="BB28" s="267"/>
+      <c r="BC28" s="267"/>
+      <c r="BD28" s="309"/>
+      <c r="BE28" s="300"/>
+      <c r="BF28" s="300"/>
+      <c r="BG28" s="300"/>
+      <c r="BH28" s="300"/>
+      <c r="BI28" s="300"/>
+      <c r="BJ28" s="300"/>
+      <c r="BK28" s="300"/>
+      <c r="BL28" s="300"/>
+      <c r="BM28" s="301"/>
+      <c r="BN28" s="257"/>
+    </row>
+    <row r="29" customHeight="1" ht="12">
+      <c r="A29" s="252"/>
+      <c r="B29" s="253"/>
+      <c r="C29" s="253"/>
+      <c r="D29" s="253"/>
+      <c r="E29" s="253"/>
+      <c r="F29" s="253"/>
+      <c r="G29" s="253"/>
+      <c r="H29" s="253"/>
+      <c r="I29" s="253"/>
+      <c r="J29" s="253"/>
+      <c r="K29" s="253"/>
+      <c r="L29" s="253"/>
+      <c r="M29" s="253"/>
+      <c r="N29" s="253"/>
+      <c r="O29" s="253"/>
+      <c r="P29" s="253"/>
+      <c r="Q29" s="253"/>
+      <c r="R29" s="253"/>
+      <c r="S29" s="253"/>
+      <c r="T29" s="253"/>
+      <c r="U29" s="253"/>
+      <c r="V29" s="253"/>
+      <c r="W29" s="253"/>
+      <c r="X29" s="253"/>
+      <c r="Y29" s="253"/>
+      <c r="Z29" s="253"/>
+      <c r="AA29" s="253"/>
+      <c r="AB29" s="253"/>
+      <c r="AC29" s="253"/>
+      <c r="AD29" s="253"/>
+      <c r="AE29" s="253"/>
+      <c r="AF29" s="253"/>
+      <c r="AG29" s="253"/>
+      <c r="AH29" s="253"/>
+      <c r="AI29" s="253"/>
+      <c r="AJ29" s="253"/>
+      <c r="AK29" s="253"/>
+      <c r="AL29" s="253"/>
+      <c r="AM29" s="253"/>
+      <c r="AN29" s="253"/>
+      <c r="AO29" s="253"/>
+      <c r="AP29" s="267"/>
+      <c r="AQ29" s="267"/>
+      <c r="AR29" s="267"/>
+      <c r="AS29" s="267"/>
+      <c r="AT29" s="267"/>
+      <c r="AU29" s="267"/>
+      <c r="AV29" s="267"/>
+      <c r="AW29" s="267"/>
+      <c r="AX29" s="267"/>
+      <c r="AY29" s="267"/>
+      <c r="AZ29" s="267"/>
+      <c r="BA29" s="267"/>
+      <c r="BB29" s="267"/>
+      <c r="BC29" s="267"/>
+      <c r="BD29" s="267"/>
+      <c r="BE29" s="278"/>
+      <c r="BF29" s="279"/>
+      <c r="BG29" s="279"/>
+      <c r="BH29" s="279"/>
+      <c r="BI29" s="279"/>
+      <c r="BJ29" s="279"/>
+      <c r="BK29" s="279"/>
+      <c r="BL29" s="279"/>
+      <c r="BM29" s="281"/>
+      <c r="BN29" s="257"/>
+    </row>
+    <row r="30" customHeight="1" ht="12">
+      <c r="A30" s="252"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="253"/>
+      <c r="E30" s="253"/>
+      <c r="F30" s="253"/>
+      <c r="G30" s="253"/>
+      <c r="H30" s="253"/>
+      <c r="I30" s="253"/>
+      <c r="J30" s="253"/>
+      <c r="K30" s="253"/>
+      <c r="L30" s="253"/>
+      <c r="M30" s="253"/>
+      <c r="N30" s="253"/>
+      <c r="O30" s="253"/>
+      <c r="P30" s="253"/>
+      <c r="Q30" s="253"/>
+      <c r="R30" s="253"/>
+      <c r="S30" s="253"/>
+      <c r="T30" s="253"/>
+      <c r="U30" s="253"/>
+      <c r="V30" s="253"/>
+      <c r="W30" s="253"/>
+      <c r="X30" s="253"/>
+      <c r="Y30" s="253"/>
+      <c r="Z30" s="253"/>
+      <c r="AA30" s="253"/>
+      <c r="AB30" s="253"/>
+      <c r="AC30" s="253"/>
+      <c r="AD30" s="253"/>
+      <c r="AE30" s="253"/>
+      <c r="AF30" s="253"/>
+      <c r="AG30" s="253"/>
+      <c r="AH30" s="253"/>
+      <c r="AI30" s="253"/>
+      <c r="AJ30" s="253"/>
+      <c r="AK30" s="253"/>
+      <c r="AL30" s="253"/>
+      <c r="AM30" s="253"/>
+      <c r="AN30" s="253"/>
+      <c r="AO30" s="253"/>
+      <c r="AP30" s="267"/>
+      <c r="AQ30" s="267"/>
+      <c r="AR30" s="267"/>
+      <c r="AS30" s="267"/>
+      <c r="AT30" s="267"/>
+      <c r="AU30" s="267"/>
+      <c r="AV30" s="267"/>
+      <c r="AW30" s="267"/>
+      <c r="AX30" s="267"/>
+      <c r="AY30" s="267"/>
+      <c r="AZ30" s="267"/>
+      <c r="BA30" s="267"/>
+      <c r="BB30" s="267"/>
+      <c r="BC30" s="267"/>
+      <c r="BD30" s="309"/>
+      <c r="BE30" s="300"/>
+      <c r="BF30" s="300"/>
+      <c r="BG30" s="300"/>
+      <c r="BH30" s="300"/>
+      <c r="BI30" s="300"/>
+      <c r="BJ30" s="300"/>
+      <c r="BK30" s="300"/>
+      <c r="BL30" s="300"/>
+      <c r="BM30" s="301"/>
+      <c r="BN30" s="257"/>
+    </row>
+    <row r="31" customHeight="1" ht="12">
+      <c r="A31" s="252"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="253"/>
+      <c r="D31" s="253"/>
+      <c r="E31" s="253"/>
+      <c r="F31" s="253"/>
+      <c r="G31" s="253"/>
+      <c r="H31" s="253"/>
+      <c r="I31" s="253"/>
+      <c r="J31" s="253"/>
+      <c r="K31" s="253"/>
+      <c r="L31" s="253"/>
+      <c r="M31" s="253"/>
+      <c r="N31" s="253"/>
+      <c r="O31" s="253"/>
+      <c r="P31" s="253"/>
+      <c r="Q31" s="253"/>
+      <c r="R31" s="253"/>
+      <c r="S31" s="253"/>
+      <c r="T31" s="253"/>
+      <c r="U31" s="253"/>
+      <c r="V31" s="253"/>
+      <c r="W31" s="253"/>
+      <c r="X31" s="253"/>
+      <c r="Y31" s="253"/>
+      <c r="Z31" s="253"/>
+      <c r="AA31" s="253"/>
+      <c r="AB31" s="253"/>
+      <c r="AC31" s="253"/>
+      <c r="AD31" s="253"/>
+      <c r="AE31" s="253"/>
+      <c r="AF31" s="253"/>
+      <c r="AG31" s="253"/>
+      <c r="AH31" s="253"/>
+      <c r="AI31" s="253"/>
+      <c r="AJ31" s="253"/>
+      <c r="AK31" s="253"/>
+      <c r="AL31" s="253"/>
+      <c r="AM31" s="253"/>
+      <c r="AN31" s="253"/>
+      <c r="AO31" s="253"/>
+      <c r="AP31" s="267"/>
+      <c r="AQ31" s="267"/>
+      <c r="AR31" s="267"/>
+      <c r="AS31" s="267"/>
+      <c r="AT31" s="267"/>
+      <c r="AU31" s="267"/>
+      <c r="AV31" s="267"/>
+      <c r="AW31" s="267"/>
+      <c r="AX31" s="267"/>
+      <c r="AY31" s="267"/>
+      <c r="AZ31" s="267"/>
+      <c r="BA31" s="267"/>
+      <c r="BB31" s="267"/>
+      <c r="BC31" s="267"/>
+      <c r="BD31" s="267"/>
+      <c r="BE31" s="288"/>
+      <c r="BF31" s="289"/>
+      <c r="BG31" s="289"/>
+      <c r="BH31" s="289"/>
+      <c r="BI31" s="289"/>
+      <c r="BJ31" s="289"/>
+      <c r="BK31" s="289"/>
+      <c r="BL31" s="289"/>
+      <c r="BM31" s="290"/>
+      <c r="BN31" s="257"/>
+    </row>
+    <row r="32" customHeight="1" ht="12">
+      <c r="A32" s="252"/>
+      <c r="B32" s="253"/>
+      <c r="C32" s="253"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="253"/>
+      <c r="G32" s="253"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="253"/>
+      <c r="J32" s="253"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="253"/>
+      <c r="M32" s="253"/>
+      <c r="N32" s="253"/>
+      <c r="O32" s="253"/>
+      <c r="P32" s="253"/>
+      <c r="Q32" s="253"/>
+      <c r="R32" s="253"/>
+      <c r="S32" s="253"/>
+      <c r="T32" s="253"/>
+      <c r="U32" s="253"/>
+      <c r="V32" s="253"/>
+      <c r="W32" s="253"/>
+      <c r="X32" s="253"/>
+      <c r="Y32" s="253"/>
+      <c r="Z32" s="253"/>
+      <c r="AA32" s="253"/>
+      <c r="AB32" s="253"/>
+      <c r="AC32" s="253"/>
+      <c r="AD32" s="253"/>
+      <c r="AE32" s="253"/>
+      <c r="AF32" s="253"/>
+      <c r="AG32" s="253"/>
+      <c r="AH32" s="253"/>
+      <c r="AI32" s="253"/>
+      <c r="AJ32" s="253"/>
+      <c r="AK32" s="253"/>
+      <c r="AL32" s="253"/>
+      <c r="AM32" s="253"/>
+      <c r="AN32" s="253"/>
+      <c r="AO32" s="253"/>
+      <c r="AP32" s="267"/>
+      <c r="AQ32" s="267"/>
+      <c r="AR32" s="267"/>
+      <c r="AS32" s="267"/>
+      <c r="AT32" s="267"/>
+      <c r="AU32" s="267"/>
+      <c r="AV32" s="267"/>
+      <c r="AW32" s="267"/>
+      <c r="AX32" s="267"/>
+      <c r="AY32" s="267"/>
+      <c r="AZ32" s="267"/>
+      <c r="BA32" s="267"/>
+      <c r="BB32" s="267"/>
+      <c r="BC32" s="267"/>
+      <c r="BD32" s="267"/>
+      <c r="BE32" s="297"/>
+      <c r="BF32" s="298"/>
+      <c r="BG32" s="298"/>
+      <c r="BH32" s="298"/>
+      <c r="BI32" s="298"/>
+      <c r="BJ32" s="298"/>
+      <c r="BK32" s="298"/>
+      <c r="BL32" s="298"/>
+      <c r="BM32" s="313"/>
+      <c r="BN32" s="257"/>
+    </row>
+    <row r="33" customHeight="1" ht="12">
+      <c r="A33" s="252"/>
+      <c r="B33" s="253"/>
+      <c r="C33" s="253"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="253"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="253"/>
+      <c r="H33" s="253"/>
+      <c r="I33" s="253"/>
+      <c r="J33" s="253"/>
+      <c r="K33" s="253"/>
+      <c r="L33" s="253"/>
+      <c r="M33" s="253"/>
+      <c r="N33" s="253"/>
+      <c r="O33" s="253"/>
+      <c r="P33" s="253"/>
+      <c r="Q33" s="253"/>
+      <c r="R33" s="253"/>
+      <c r="S33" s="253"/>
+      <c r="T33" s="253"/>
+      <c r="U33" s="253"/>
+      <c r="V33" s="253"/>
+      <c r="W33" s="253"/>
+      <c r="X33" s="253"/>
+      <c r="Y33" s="253"/>
+      <c r="Z33" s="253"/>
+      <c r="AA33" s="253"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="253"/>
+      <c r="AD33" s="253"/>
+      <c r="AE33" s="253"/>
+      <c r="AF33" s="253"/>
+      <c r="AG33" s="253"/>
+      <c r="AH33" s="253"/>
+      <c r="AI33" s="253"/>
+      <c r="AJ33" s="253"/>
+      <c r="AK33" s="253"/>
+      <c r="AL33" s="253"/>
+      <c r="AM33" s="253"/>
+      <c r="AN33" s="253"/>
+      <c r="AO33" s="253"/>
+      <c r="AP33" s="267"/>
+      <c r="AQ33" s="267"/>
+      <c r="AR33" s="267"/>
+      <c r="AS33" s="267"/>
+      <c r="AT33" s="267"/>
+      <c r="AU33" s="267"/>
+      <c r="AV33" s="267"/>
+      <c r="AW33" s="267"/>
+      <c r="AX33" s="267"/>
+      <c r="AY33" s="267"/>
+      <c r="AZ33" s="267"/>
+      <c r="BA33" s="267"/>
+      <c r="BB33" s="267"/>
+      <c r="BC33" s="267"/>
+      <c r="BD33" s="309"/>
+      <c r="BE33" s="300"/>
+      <c r="BF33" s="300"/>
+      <c r="BG33" s="300"/>
+      <c r="BH33" s="300"/>
+      <c r="BI33" s="300"/>
+      <c r="BJ33" s="300"/>
+      <c r="BK33" s="300"/>
+      <c r="BL33" s="300"/>
+      <c r="BM33" s="301"/>
+      <c r="BN33" s="257"/>
+    </row>
+    <row r="34" customHeight="1" ht="12">
+      <c r="A34" s="252"/>
+      <c r="B34" s="253"/>
+      <c r="C34" s="253"/>
+      <c r="D34" s="253"/>
+      <c r="E34" s="253"/>
+      <c r="F34" s="253"/>
+      <c r="G34" s="253"/>
+      <c r="H34" s="253"/>
+      <c r="I34" s="253"/>
+      <c r="J34" s="253"/>
+      <c r="K34" s="253"/>
+      <c r="L34" s="253"/>
+      <c r="M34" s="253"/>
+      <c r="N34" s="253"/>
+      <c r="O34" s="253"/>
+      <c r="P34" s="253"/>
+      <c r="Q34" s="253"/>
+      <c r="R34" s="253"/>
+      <c r="S34" s="253"/>
+      <c r="T34" s="253"/>
+      <c r="U34" s="253"/>
+      <c r="V34" s="253"/>
+      <c r="W34" s="253"/>
+      <c r="X34" s="253"/>
+      <c r="Y34" s="253"/>
+      <c r="Z34" s="253"/>
+      <c r="AA34" s="253"/>
+      <c r="AB34" s="253"/>
+      <c r="AC34" s="253"/>
+      <c r="AD34" s="253"/>
+      <c r="AE34" s="253"/>
+      <c r="AF34" s="253"/>
+      <c r="AG34" s="253"/>
+      <c r="AH34" s="253"/>
+      <c r="AI34" s="253"/>
+      <c r="AJ34" s="253"/>
+      <c r="AK34" s="253"/>
+      <c r="AL34" s="253"/>
+      <c r="AM34" s="253"/>
+      <c r="AN34" s="253"/>
+      <c r="AO34" s="253"/>
+      <c r="AP34" s="267"/>
+      <c r="AQ34" s="267"/>
+      <c r="AR34" s="267"/>
+      <c r="AS34" s="267"/>
+      <c r="AT34" s="267"/>
+      <c r="AU34" s="267"/>
+      <c r="AV34" s="267"/>
+      <c r="AW34" s="267"/>
+      <c r="AX34" s="267"/>
+      <c r="AY34" s="267"/>
+      <c r="AZ34" s="267"/>
+      <c r="BA34" s="267"/>
+      <c r="BB34" s="267"/>
+      <c r="BC34" s="267"/>
+      <c r="BD34" s="267"/>
+      <c r="BE34" s="288"/>
+      <c r="BF34" s="289"/>
+      <c r="BG34" s="289"/>
+      <c r="BH34" s="289"/>
+      <c r="BI34" s="289"/>
+      <c r="BJ34" s="289"/>
+      <c r="BK34" s="289"/>
+      <c r="BL34" s="289"/>
+      <c r="BM34" s="290"/>
+      <c r="BN34" s="257"/>
+    </row>
+    <row r="35" customHeight="1" ht="12">
+      <c r="A35" s="252"/>
+      <c r="B35" s="253"/>
+      <c r="C35" s="253"/>
+      <c r="D35" s="253"/>
+      <c r="E35" s="253"/>
+      <c r="F35" s="253"/>
+      <c r="G35" s="253"/>
+      <c r="H35" s="253"/>
+      <c r="I35" s="253"/>
+      <c r="J35" s="253"/>
+      <c r="K35" s="253"/>
+      <c r="L35" s="253"/>
+      <c r="M35" s="253"/>
+      <c r="N35" s="253"/>
+      <c r="O35" s="253"/>
+      <c r="P35" s="253"/>
+      <c r="Q35" s="253"/>
+      <c r="R35" s="253"/>
+      <c r="S35" s="253"/>
+      <c r="T35" s="253"/>
+      <c r="U35" s="253"/>
+      <c r="V35" s="253"/>
+      <c r="W35" s="253"/>
+      <c r="X35" s="253"/>
+      <c r="Y35" s="253"/>
+      <c r="Z35" s="253"/>
+      <c r="AA35" s="253"/>
+      <c r="AB35" s="253"/>
+      <c r="AC35" s="253"/>
+      <c r="AD35" s="253"/>
+      <c r="AE35" s="253"/>
+      <c r="AF35" s="253"/>
+      <c r="AG35" s="253"/>
+      <c r="AH35" s="253"/>
+      <c r="AI35" s="253"/>
+      <c r="AJ35" s="253"/>
+      <c r="AK35" s="253"/>
+      <c r="AL35" s="253"/>
+      <c r="AM35" s="253"/>
+      <c r="AN35" s="253"/>
+      <c r="AO35" s="253"/>
+      <c r="AP35" s="267"/>
+      <c r="AQ35" s="267"/>
+      <c r="AR35" s="267"/>
+      <c r="AS35" s="267"/>
+      <c r="AT35" s="267"/>
+      <c r="AU35" s="267"/>
+      <c r="AV35" s="267"/>
+      <c r="AW35" s="267"/>
+      <c r="AX35" s="267"/>
+      <c r="AY35" s="267"/>
+      <c r="AZ35" s="267"/>
+      <c r="BA35" s="267"/>
+      <c r="BB35" s="267"/>
+      <c r="BC35" s="267"/>
+      <c r="BD35" s="267"/>
+      <c r="BE35" s="297"/>
+      <c r="BF35" s="298"/>
+      <c r="BG35" s="298"/>
+      <c r="BH35" s="298"/>
+      <c r="BI35" s="298"/>
+      <c r="BJ35" s="298"/>
+      <c r="BK35" s="298"/>
+      <c r="BL35" s="298"/>
+      <c r="BM35" s="313"/>
+      <c r="BN35" s="257"/>
+    </row>
+    <row r="36" customHeight="1" ht="12">
+      <c r="A36" s="252"/>
+      <c r="B36" s="253"/>
+      <c r="C36" s="253"/>
+      <c r="D36" s="253"/>
+      <c r="E36" s="253"/>
+      <c r="F36" s="253"/>
+      <c r="G36" s="253"/>
+      <c r="H36" s="253"/>
+      <c r="I36" s="253"/>
+      <c r="J36" s="253"/>
+      <c r="K36" s="253"/>
+      <c r="L36" s="253"/>
+      <c r="M36" s="253"/>
+      <c r="N36" s="253"/>
+      <c r="O36" s="253"/>
+      <c r="P36" s="253"/>
+      <c r="Q36" s="253"/>
+      <c r="R36" s="253"/>
+      <c r="S36" s="253"/>
+      <c r="T36" s="253"/>
+      <c r="U36" s="253"/>
+      <c r="V36" s="253"/>
+      <c r="W36" s="253"/>
+      <c r="X36" s="253"/>
+      <c r="Y36" s="253"/>
+      <c r="Z36" s="253"/>
+      <c r="AA36" s="253"/>
+      <c r="AB36" s="253"/>
+      <c r="AC36" s="253"/>
+      <c r="AD36" s="253"/>
+      <c r="AE36" s="253"/>
+      <c r="AF36" s="253"/>
+      <c r="AG36" s="253"/>
+      <c r="AH36" s="253"/>
+      <c r="AI36" s="253"/>
+      <c r="AJ36" s="253"/>
+      <c r="AK36" s="253"/>
+      <c r="AL36" s="253"/>
+      <c r="AM36" s="253"/>
+      <c r="AN36" s="253"/>
+      <c r="AO36" s="253"/>
+      <c r="AP36" s="267"/>
+      <c r="AQ36" s="267"/>
+      <c r="AR36" s="267"/>
+      <c r="AS36" s="267"/>
+      <c r="AT36" s="267"/>
+      <c r="AU36" s="267"/>
+      <c r="AV36" s="267"/>
+      <c r="AW36" s="267"/>
+      <c r="AX36" s="267"/>
+      <c r="AY36" s="267"/>
+      <c r="AZ36" s="267"/>
+      <c r="BA36" s="267"/>
+      <c r="BB36" s="267"/>
+      <c r="BC36" s="267"/>
+      <c r="BD36" s="309"/>
+      <c r="BE36" s="300"/>
+      <c r="BF36" s="300"/>
+      <c r="BG36" s="300"/>
+      <c r="BH36" s="300"/>
+      <c r="BI36" s="300"/>
+      <c r="BJ36" s="300"/>
+      <c r="BK36" s="300"/>
+      <c r="BL36" s="300"/>
+      <c r="BM36" s="301"/>
+      <c r="BN36" s="257"/>
+    </row>
+    <row r="37" customHeight="1" ht="12">
+      <c r="A37" s="252"/>
+      <c r="B37" s="253"/>
+      <c r="C37" s="253"/>
+      <c r="D37" s="253"/>
+      <c r="E37" s="253"/>
+      <c r="F37" s="253"/>
+      <c r="G37" s="253"/>
+      <c r="H37" s="253"/>
+      <c r="I37" s="253"/>
+      <c r="J37" s="253"/>
+      <c r="K37" s="253"/>
+      <c r="L37" s="253"/>
+      <c r="M37" s="253"/>
+      <c r="N37" s="253"/>
+      <c r="O37" s="253"/>
+      <c r="P37" s="253"/>
+      <c r="Q37" s="253"/>
+      <c r="R37" s="253"/>
+      <c r="S37" s="253"/>
+      <c r="T37" s="253"/>
+      <c r="U37" s="253"/>
+      <c r="V37" s="253"/>
+      <c r="W37" s="253"/>
+      <c r="X37" s="253"/>
+      <c r="Y37" s="253"/>
+      <c r="Z37" s="253"/>
+      <c r="AA37" s="253"/>
+      <c r="AB37" s="253"/>
+      <c r="AC37" s="253"/>
+      <c r="AD37" s="253"/>
+      <c r="AE37" s="253"/>
+      <c r="AF37" s="253"/>
+      <c r="AG37" s="253"/>
+      <c r="AH37" s="253"/>
+      <c r="AI37" s="253"/>
+      <c r="AJ37" s="253"/>
+      <c r="AK37" s="253"/>
+      <c r="AL37" s="253"/>
+      <c r="AM37" s="253"/>
+      <c r="AN37" s="253"/>
+      <c r="AO37" s="253"/>
+      <c r="AP37" s="267"/>
+      <c r="AQ37" s="267"/>
+      <c r="AR37" s="267"/>
+      <c r="AS37" s="267"/>
+      <c r="AT37" s="267"/>
+      <c r="AU37" s="267"/>
+      <c r="AV37" s="267"/>
+      <c r="AW37" s="267"/>
+      <c r="AX37" s="267"/>
+      <c r="AY37" s="267"/>
+      <c r="AZ37" s="267"/>
+      <c r="BA37" s="267"/>
+      <c r="BB37" s="267"/>
+      <c r="BC37" s="267"/>
+      <c r="BD37" s="267"/>
+      <c r="BE37" s="288"/>
+      <c r="BF37" s="289"/>
+      <c r="BG37" s="289"/>
+      <c r="BH37" s="289"/>
+      <c r="BI37" s="289"/>
+      <c r="BJ37" s="289"/>
+      <c r="BK37" s="289"/>
+      <c r="BL37" s="289"/>
+      <c r="BM37" s="290"/>
+      <c r="BN37" s="257"/>
+    </row>
+    <row r="38" customHeight="1" ht="12">
+      <c r="A38" s="252"/>
+      <c r="B38" s="253"/>
+      <c r="C38" s="253"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="253"/>
+      <c r="F38" s="253"/>
+      <c r="G38" s="253"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="253"/>
+      <c r="J38" s="253"/>
+      <c r="K38" s="253"/>
+      <c r="L38" s="253"/>
+      <c r="M38" s="253"/>
+      <c r="N38" s="253"/>
+      <c r="O38" s="253"/>
+      <c r="P38" s="253"/>
+      <c r="Q38" s="253"/>
+      <c r="R38" s="253"/>
+      <c r="S38" s="253"/>
+      <c r="T38" s="253"/>
+      <c r="U38" s="253"/>
+      <c r="V38" s="253"/>
+      <c r="W38" s="253"/>
+      <c r="X38" s="253"/>
+      <c r="Y38" s="253"/>
+      <c r="Z38" s="253"/>
+      <c r="AA38" s="253"/>
+      <c r="AB38" s="253"/>
+      <c r="AC38" s="253"/>
+      <c r="AD38" s="253"/>
+      <c r="AE38" s="253"/>
+      <c r="AF38" s="253"/>
+      <c r="AG38" s="253"/>
+      <c r="AH38" s="253"/>
+      <c r="AI38" s="253"/>
+      <c r="AJ38" s="253"/>
+      <c r="AK38" s="253"/>
+      <c r="AL38" s="253"/>
+      <c r="AM38" s="253"/>
+      <c r="AN38" s="253"/>
+      <c r="AO38" s="253"/>
+      <c r="AP38" s="267"/>
+      <c r="AQ38" s="267"/>
+      <c r="AR38" s="267"/>
+      <c r="AS38" s="267"/>
+      <c r="AT38" s="267"/>
+      <c r="AU38" s="267"/>
+      <c r="AV38" s="267"/>
+      <c r="AW38" s="267"/>
+      <c r="AX38" s="267"/>
+      <c r="AY38" s="267"/>
+      <c r="AZ38" s="267"/>
+      <c r="BA38" s="267"/>
+      <c r="BB38" s="267"/>
+      <c r="BC38" s="267"/>
+      <c r="BD38" s="267"/>
+      <c r="BE38" s="304"/>
+      <c r="BF38" s="300"/>
+      <c r="BG38" s="300"/>
+      <c r="BH38" s="300"/>
+      <c r="BI38" s="300"/>
+      <c r="BJ38" s="300"/>
+      <c r="BK38" s="300"/>
+      <c r="BL38" s="300"/>
+      <c r="BM38" s="301"/>
+      <c r="BN38" s="257"/>
+    </row>
+    <row r="39" customHeight="1" ht="12">
+      <c r="A39" s="252"/>
+      <c r="B39" s="253"/>
+      <c r="C39" s="253"/>
+      <c r="D39" s="253"/>
+      <c r="E39" s="253"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="253"/>
+      <c r="H39" s="253"/>
+      <c r="I39" s="253"/>
+      <c r="J39" s="253"/>
+      <c r="K39" s="253"/>
+      <c r="L39" s="253"/>
+      <c r="M39" s="253"/>
+      <c r="N39" s="253"/>
+      <c r="O39" s="253"/>
+      <c r="P39" s="253"/>
+      <c r="Q39" s="253"/>
+      <c r="R39" s="253"/>
+      <c r="S39" s="253"/>
+      <c r="T39" s="253"/>
+      <c r="U39" s="253"/>
+      <c r="V39" s="253"/>
+      <c r="W39" s="253"/>
+      <c r="X39" s="253"/>
+      <c r="Y39" s="253"/>
+      <c r="Z39" s="253"/>
+      <c r="AA39" s="253"/>
+      <c r="AB39" s="253"/>
+      <c r="AC39" s="253"/>
+      <c r="AD39" s="253"/>
+      <c r="AE39" s="253"/>
+      <c r="AF39" s="253"/>
+      <c r="AG39" s="253"/>
+      <c r="AH39" s="253"/>
+      <c r="AI39" s="253"/>
+      <c r="AJ39" s="253"/>
+      <c r="AK39" s="253"/>
+      <c r="AL39" s="253"/>
+      <c r="AM39" s="253"/>
+      <c r="AN39" s="253"/>
+      <c r="AO39" s="253"/>
+      <c r="AP39" s="267"/>
+      <c r="AQ39" s="267"/>
+      <c r="AR39" s="267"/>
+      <c r="AS39" s="267"/>
+      <c r="AT39" s="267"/>
+      <c r="AU39" s="267"/>
+      <c r="AV39" s="267"/>
+      <c r="AW39" s="267"/>
+      <c r="AX39" s="267"/>
+      <c r="AY39" s="267"/>
+      <c r="AZ39" s="267"/>
+      <c r="BA39" s="267"/>
+      <c r="BB39" s="267"/>
+      <c r="BC39" s="267"/>
+      <c r="BD39" s="267"/>
+      <c r="BE39" s="304"/>
+      <c r="BF39" s="300"/>
+      <c r="BG39" s="300"/>
+      <c r="BH39" s="300"/>
+      <c r="BI39" s="300"/>
+      <c r="BJ39" s="300"/>
+      <c r="BK39" s="300"/>
+      <c r="BL39" s="300"/>
+      <c r="BM39" s="301"/>
+      <c r="BN39" s="257"/>
+    </row>
+    <row r="40" customHeight="1" ht="12">
+      <c r="A40" s="252"/>
+      <c r="B40" s="253"/>
+      <c r="C40" s="253"/>
+      <c r="D40" s="253"/>
+      <c r="E40" s="253"/>
+      <c r="F40" s="253"/>
+      <c r="G40" s="253"/>
+      <c r="H40" s="253"/>
+      <c r="I40" s="253"/>
+      <c r="J40" s="253"/>
+      <c r="K40" s="253"/>
+      <c r="L40" s="253"/>
+      <c r="M40" s="253"/>
+      <c r="N40" s="253"/>
+      <c r="O40" s="253"/>
+      <c r="P40" s="253"/>
+      <c r="Q40" s="253"/>
+      <c r="R40" s="253"/>
+      <c r="S40" s="253"/>
+      <c r="T40" s="253"/>
+      <c r="U40" s="253"/>
+      <c r="V40" s="253"/>
+      <c r="W40" s="253"/>
+      <c r="X40" s="253"/>
+      <c r="Y40" s="253"/>
+      <c r="Z40" s="253"/>
+      <c r="AA40" s="253"/>
+      <c r="AB40" s="253"/>
+      <c r="AC40" s="253"/>
+      <c r="AD40" s="253"/>
+      <c r="AE40" s="253"/>
+      <c r="AF40" s="253"/>
+      <c r="AG40" s="253"/>
+      <c r="AH40" s="253"/>
+      <c r="AI40" s="253"/>
+      <c r="AJ40" s="253"/>
+      <c r="AK40" s="253"/>
+      <c r="AL40" s="253"/>
+      <c r="AM40" s="253"/>
+      <c r="AN40" s="253"/>
+      <c r="AO40" s="253"/>
+      <c r="AP40" s="267"/>
+      <c r="AQ40" s="267"/>
+      <c r="AR40" s="267"/>
+      <c r="AS40" s="267"/>
+      <c r="AT40" s="267"/>
+      <c r="AU40" s="267"/>
+      <c r="AV40" s="267"/>
+      <c r="AW40" s="267"/>
+      <c r="AX40" s="267"/>
+      <c r="AY40" s="267"/>
+      <c r="AZ40" s="267"/>
+      <c r="BA40" s="267"/>
+      <c r="BB40" s="267"/>
+      <c r="BC40" s="267"/>
+      <c r="BD40" s="267"/>
+      <c r="BE40" s="304"/>
+      <c r="BF40" s="300"/>
+      <c r="BG40" s="300"/>
+      <c r="BH40" s="300"/>
+      <c r="BI40" s="300"/>
+      <c r="BJ40" s="300"/>
+      <c r="BK40" s="300"/>
+      <c r="BL40" s="300"/>
+      <c r="BM40" s="301"/>
+      <c r="BN40" s="257"/>
+    </row>
+    <row r="41" customHeight="1" ht="12">
+      <c r="A41" s="252"/>
+      <c r="B41" s="253"/>
+      <c r="C41" s="253"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="253"/>
+      <c r="J41" s="253"/>
+      <c r="K41" s="253"/>
+      <c r="L41" s="253"/>
+      <c r="M41" s="253"/>
+      <c r="N41" s="253"/>
+      <c r="O41" s="253"/>
+      <c r="P41" s="253"/>
+      <c r="Q41" s="253"/>
+      <c r="R41" s="253"/>
+      <c r="S41" s="253"/>
+      <c r="T41" s="253"/>
+      <c r="U41" s="253"/>
+      <c r="V41" s="253"/>
+      <c r="W41" s="253"/>
+      <c r="X41" s="253"/>
+      <c r="Y41" s="253"/>
+      <c r="Z41" s="253"/>
+      <c r="AA41" s="253"/>
+      <c r="AB41" s="253"/>
+      <c r="AC41" s="253"/>
+      <c r="AD41" s="253"/>
+      <c r="AE41" s="253"/>
+      <c r="AF41" s="253"/>
+      <c r="AG41" s="253"/>
+      <c r="AH41" s="253"/>
+      <c r="AI41" s="253"/>
+      <c r="AJ41" s="253"/>
+      <c r="AK41" s="253"/>
+      <c r="AL41" s="253"/>
+      <c r="AM41" s="253"/>
+      <c r="AN41" s="253"/>
+      <c r="AO41" s="253"/>
+      <c r="AP41" s="267"/>
+      <c r="AQ41" s="267"/>
+      <c r="AR41" s="267"/>
+      <c r="AS41" s="267"/>
+      <c r="AT41" s="267"/>
+      <c r="AU41" s="267"/>
+      <c r="AV41" s="267"/>
+      <c r="AW41" s="267"/>
+      <c r="AX41" s="267"/>
+      <c r="AY41" s="267"/>
+      <c r="AZ41" s="267"/>
+      <c r="BA41" s="267"/>
+      <c r="BB41" s="267"/>
+      <c r="BC41" s="267"/>
+      <c r="BD41" s="267"/>
+      <c r="BE41" s="304"/>
+      <c r="BF41" s="300"/>
+      <c r="BG41" s="300"/>
+      <c r="BH41" s="300"/>
+      <c r="BI41" s="300"/>
+      <c r="BJ41" s="300"/>
+      <c r="BK41" s="300"/>
+      <c r="BL41" s="300"/>
+      <c r="BM41" s="301"/>
+      <c r="BN41" s="257"/>
+    </row>
+    <row r="42" customHeight="1" ht="12">
+      <c r="A42" s="268"/>
+      <c r="B42" s="269"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="269"/>
+      <c r="E42" s="269"/>
+      <c r="F42" s="269"/>
+      <c r="G42" s="269"/>
+      <c r="H42" s="269"/>
+      <c r="I42" s="269"/>
+      <c r="J42" s="269"/>
+      <c r="K42" s="269"/>
+      <c r="L42" s="269"/>
+      <c r="M42" s="269"/>
+      <c r="N42" s="269"/>
+      <c r="O42" s="269"/>
+      <c r="P42" s="269"/>
+      <c r="Q42" s="269"/>
+      <c r="R42" s="269"/>
+      <c r="S42" s="269"/>
+      <c r="T42" s="269"/>
+      <c r="U42" s="269"/>
+      <c r="V42" s="269"/>
+      <c r="W42" s="269"/>
+      <c r="X42" s="269"/>
+      <c r="Y42" s="269"/>
+      <c r="Z42" s="269"/>
+      <c r="AA42" s="269"/>
+      <c r="AB42" s="269"/>
+      <c r="AC42" s="269"/>
+      <c r="AD42" s="269"/>
+      <c r="AE42" s="269"/>
+      <c r="AF42" s="269"/>
+      <c r="AG42" s="269"/>
+      <c r="AH42" s="269"/>
+      <c r="AI42" s="269"/>
+      <c r="AJ42" s="269"/>
+      <c r="AK42" s="269"/>
+      <c r="AL42" s="269"/>
+      <c r="AM42" s="269"/>
+      <c r="AN42" s="269"/>
+      <c r="AO42" s="269"/>
+      <c r="AP42" s="270"/>
+      <c r="AQ42" s="270"/>
+      <c r="AR42" s="270"/>
+      <c r="AS42" s="270"/>
+      <c r="AT42" s="270"/>
+      <c r="AU42" s="270"/>
+      <c r="AV42" s="270"/>
+      <c r="AW42" s="270"/>
+      <c r="AX42" s="270"/>
+      <c r="AY42" s="270"/>
+      <c r="AZ42" s="270"/>
+      <c r="BA42" s="270"/>
+      <c r="BB42" s="270"/>
+      <c r="BC42" s="270"/>
+      <c r="BD42" s="311"/>
+      <c r="BE42" s="307"/>
+      <c r="BF42" s="307"/>
+      <c r="BG42" s="307"/>
+      <c r="BH42" s="307"/>
+      <c r="BI42" s="307"/>
+      <c r="BJ42" s="307"/>
+      <c r="BK42" s="307"/>
+      <c r="BL42" s="307"/>
+      <c r="BM42" s="308"/>
+      <c r="BN42" s="271"/>
+    </row>
+    <row r="43" customHeight="1" ht="12">
       <c r="A43" s="78"/>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
@@ -5794,7 +7532,7 @@
       <c r="AN43" s="79"/>
       <c r="AO43" s="79"/>
     </row>
-    <row r="44" customHeight="1" ht="13">
+    <row r="44" customHeight="1" ht="12">
       <c r="A44" s="78"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
@@ -5837,7 +7575,7 @@
       <c r="AN44" s="79"/>
       <c r="AO44" s="79"/>
     </row>
-    <row r="45" customHeight="1" ht="13">
+    <row r="45" customHeight="1" ht="12">
       <c r="A45" s="78"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
@@ -5880,7 +7618,7 @@
       <c r="AN45" s="79"/>
       <c r="AO45" s="79"/>
     </row>
-    <row r="46" customHeight="1" ht="13">
+    <row r="46" customHeight="1" ht="12">
       <c r="A46" s="78"/>
       <c r="B46" s="79"/>
       <c r="C46" s="79"/>
@@ -5923,7 +7661,7 @@
       <c r="AN46" s="79"/>
       <c r="AO46" s="79"/>
     </row>
-    <row r="47" customHeight="1" ht="13">
+    <row r="47" customHeight="1" ht="12">
       <c r="A47" s="78"/>
       <c r="B47" s="79"/>
       <c r="C47" s="79"/>
@@ -5966,7 +7704,7 @@
       <c r="AN47" s="79"/>
       <c r="AO47" s="79"/>
     </row>
-    <row r="48" customHeight="1" ht="13">
+    <row r="48" customHeight="1" ht="12">
       <c r="A48" s="78"/>
       <c r="B48" s="79"/>
       <c r="C48" s="79"/>
@@ -6009,7 +7747,7 @@
       <c r="AN48" s="79"/>
       <c r="AO48" s="79"/>
     </row>
-    <row r="49" customHeight="1" ht="13">
+    <row r="49" customHeight="1" ht="12">
       <c r="A49" s="78"/>
       <c r="B49" s="79"/>
       <c r="C49" s="79"/>
@@ -6052,7 +7790,7 @@
       <c r="AN49" s="79"/>
       <c r="AO49" s="79"/>
     </row>
-    <row r="50" customHeight="1" ht="13">
+    <row r="50" customHeight="1" ht="12">
       <c r="A50" s="78"/>
       <c r="B50" s="79"/>
       <c r="C50" s="79"/>
@@ -6095,7 +7833,7 @@
       <c r="AN50" s="79"/>
       <c r="AO50" s="79"/>
     </row>
-    <row r="51" customHeight="1" ht="13">
+    <row r="51" customHeight="1" ht="12">
       <c r="A51" s="78"/>
       <c r="B51" s="79"/>
       <c r="C51" s="79"/>
@@ -6138,7 +7876,7 @@
       <c r="AN51" s="79"/>
       <c r="AO51" s="79"/>
     </row>
-    <row r="52" customHeight="1" ht="13">
+    <row r="52" customHeight="1" ht="12">
       <c r="A52" s="78"/>
       <c r="B52" s="79"/>
       <c r="C52" s="79"/>
@@ -6181,7 +7919,7 @@
       <c r="AN52" s="79"/>
       <c r="AO52" s="79"/>
     </row>
-    <row r="53" customHeight="1" ht="13">
+    <row r="53" customHeight="1" ht="12">
       <c r="A53" s="78"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
@@ -6224,7 +7962,7 @@
       <c r="AN53" s="79"/>
       <c r="AO53" s="79"/>
     </row>
-    <row r="54" customHeight="1" ht="13">
+    <row r="54" customHeight="1" ht="12">
       <c r="A54" s="78"/>
       <c r="B54" s="79"/>
       <c r="C54" s="79"/>
@@ -6267,7 +8005,7 @@
       <c r="AN54" s="79"/>
       <c r="AO54" s="79"/>
     </row>
-    <row r="55" customHeight="1" ht="13">
+    <row r="55" customHeight="1" ht="12">
       <c r="A55" s="78"/>
       <c r="B55" s="79"/>
       <c r="C55" s="79"/>
@@ -6310,7 +8048,7 @@
       <c r="AN55" s="79"/>
       <c r="AO55" s="79"/>
     </row>
-    <row r="56" customHeight="1" ht="13">
+    <row r="56" customHeight="1" ht="12">
       <c r="A56" s="78"/>
       <c r="B56" s="79"/>
       <c r="C56" s="79"/>
@@ -6353,7 +8091,7 @@
       <c r="AN56" s="79"/>
       <c r="AO56" s="79"/>
     </row>
-    <row r="57" customHeight="1" ht="13">
+    <row r="57" customHeight="1" ht="12">
       <c r="A57" s="78"/>
       <c r="B57" s="79"/>
       <c r="C57" s="79"/>
@@ -6396,7 +8134,7 @@
       <c r="AN57" s="79"/>
       <c r="AO57" s="79"/>
     </row>
-    <row r="58" customHeight="1" ht="13">
+    <row r="58" customHeight="1" ht="12">
       <c r="A58" s="78"/>
       <c r="B58" s="79"/>
       <c r="C58" s="79"/>
@@ -6439,7 +8177,7 @@
       <c r="AN58" s="79"/>
       <c r="AO58" s="79"/>
     </row>
-    <row r="59" customHeight="1" ht="13">
+    <row r="59" customHeight="1" ht="12">
       <c r="A59" s="78"/>
       <c r="B59" s="79"/>
       <c r="C59" s="79"/>
@@ -6482,7 +8220,7 @@
       <c r="AN59" s="79"/>
       <c r="AO59" s="79"/>
     </row>
-    <row r="60" customHeight="1" ht="13">
+    <row r="60" customHeight="1" ht="12">
       <c r="A60" s="78"/>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
@@ -6525,7 +8263,7 @@
       <c r="AN60" s="79"/>
       <c r="AO60" s="79"/>
     </row>
-    <row r="61" customHeight="1" ht="13">
+    <row r="61" customHeight="1" ht="5">
       <c r="A61" s="92"/>
       <c r="B61" s="93"/>
       <c r="C61" s="93"/>
@@ -6569,7 +8307,7 @@
       <c r="AO61" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="80">
     <mergeCell ref="A2:Z3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:N4"/>
@@ -6626,6 +8364,30 @@
     <mergeCell ref="AP18:AR18"/>
     <mergeCell ref="AS18:BD18"/>
     <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BE24:BM24"/>
+    <mergeCell ref="BE25:BM25"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6637,8 +8399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BU16" sqref="BU16"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="D14" sqref="D14:BL14" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6901,7 +8663,7 @@
     <col min="16163" max="16384" width="2.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="13">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6968,7 +8730,7 @@
       <c r="BL1" s="39"/>
       <c r="BM1" s="94"/>
     </row>
-    <row r="2" customHeight="1" ht="13">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="43" t="s">
         <v>53</v>
       </c>
@@ -7072,7 +8834,7 @@
       <c r="BL3" s="45"/>
       <c r="BM3" s="95"/>
     </row>
-    <row r="4" customHeight="1" ht="13">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
@@ -7082,7 +8844,7 @@
       <c r="E4" s="50"/>
       <c r="F4" s="51"/>
       <c r="G4" s="96" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
@@ -7099,9 +8861,8 @@
       <c r="R4" s="56"/>
       <c r="S4" s="56"/>
       <c r="T4" s="57"/>
-      <c r="U4" s="58" t="str">
-        <f>[1]画面レイアウト!U4</f>
-        <v>経費情報リスト</v>
+      <c r="U4" s="58" t="s">
+        <v>117</v>
       </c>
       <c r="V4" s="59"/>
       <c r="W4" s="59"/>
@@ -7158,7 +8919,7 @@
       <c r="BL4" s="65"/>
       <c r="BM4" s="97"/>
     </row>
-    <row r="5" customHeight="1" ht="13">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="67" t="s">
         <v>19</v>
       </c>
@@ -7235,7 +8996,7 @@
       <c r="BL5" s="73"/>
       <c r="BM5" s="98"/>
     </row>
-    <row r="6" customHeight="1" ht="13">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="99"/>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
@@ -7302,11 +9063,9 @@
       <c r="BL6" s="102"/>
       <c r="BM6" s="94"/>
     </row>
-    <row r="7" customHeight="1" ht="13">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="103"/>
-      <c r="B7" s="104" t="s">
-        <v>55</v>
-      </c>
+      <c r="B7" s="104"/>
       <c r="C7" s="104"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
@@ -7323,9 +9082,7 @@
       <c r="P7" s="104"/>
       <c r="Q7" s="104"/>
       <c r="R7" s="104"/>
-      <c r="S7" s="104" t="s">
-        <v>7</v>
-      </c>
+      <c r="S7" s="104"/>
       <c r="T7" s="104"/>
       <c r="U7" s="104"/>
       <c r="V7" s="104"/>
@@ -7373,12 +9130,10 @@
       <c r="BL7" s="100"/>
       <c r="BM7" s="94"/>
     </row>
-    <row r="8" customHeight="1" ht="13">
+    <row r="8" customHeight="1" ht="12">
       <c r="A8" s="103"/>
       <c r="B8" s="107"/>
-      <c r="C8" s="108" t="s">
-        <v>56</v>
-      </c>
+      <c r="C8" s="108"/>
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
       <c r="F8" s="109"/>
@@ -7442,7 +9197,7 @@
       <c r="BL8" s="110"/>
       <c r="BM8" s="94"/>
     </row>
-    <row r="9" customHeight="1" ht="13">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="103"/>
       <c r="B9" s="111"/>
       <c r="C9" s="109"/>
@@ -7509,12 +9264,10 @@
       <c r="BL9" s="110"/>
       <c r="BM9" s="94"/>
     </row>
-    <row r="10" customHeight="1" ht="13">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="103"/>
       <c r="B10" s="111"/>
-      <c r="C10" s="111" t="s">
-        <v>57</v>
-      </c>
+      <c r="C10" s="111"/>
       <c r="D10" s="111"/>
       <c r="E10" s="111"/>
       <c r="F10" s="111"/>
@@ -7578,7 +9331,7 @@
       <c r="BL10" s="110"/>
       <c r="BM10" s="94"/>
     </row>
-    <row r="11" customHeight="1" ht="13">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="103"/>
       <c r="B11" s="111"/>
       <c r="C11" s="107" t="s">
@@ -7647,7 +9400,7 @@
       <c r="BL11" s="107"/>
       <c r="BM11" s="94"/>
     </row>
-    <row r="12" customHeight="1" ht="13">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="103"/>
       <c r="B12" s="111"/>
       <c r="C12" s="107"/>
@@ -7716,7 +9469,7 @@
       <c r="BL12" s="114"/>
       <c r="BM12" s="94"/>
     </row>
-    <row r="13" customHeight="1" ht="13">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="103"/>
       <c r="B13" s="111"/>
       <c r="C13" s="107"/>
@@ -7783,12 +9536,12 @@
       <c r="BL13" s="116"/>
       <c r="BM13" s="94"/>
     </row>
-    <row r="14" customHeight="1" ht="13">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="103"/>
       <c r="B14" s="111"/>
       <c r="C14" s="107"/>
       <c r="D14" s="115" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="E14" s="108"/>
       <c r="F14" s="108"/>
@@ -7852,7 +9605,7 @@
       <c r="BL14" s="116"/>
       <c r="BM14" s="94"/>
     </row>
-    <row r="15" customHeight="1" ht="13">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="103"/>
       <c r="B15" s="111"/>
       <c r="C15" s="107"/>
@@ -7919,7 +9672,7 @@
       <c r="BL15" s="116"/>
       <c r="BM15" s="94"/>
     </row>
-    <row r="16" customHeight="1" ht="13">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="103"/>
       <c r="B16" s="111"/>
       <c r="C16" s="107"/>
@@ -7986,7 +9739,7 @@
       <c r="BL16" s="116"/>
       <c r="BM16" s="94"/>
     </row>
-    <row r="17" customHeight="1" ht="13">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="103"/>
       <c r="B17" s="111"/>
       <c r="C17" s="107"/>
@@ -8053,7 +9806,7 @@
       <c r="BL17" s="116"/>
       <c r="BM17" s="94"/>
     </row>
-    <row r="18" customHeight="1" ht="13">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="103"/>
       <c r="B18" s="111"/>
       <c r="C18" s="107"/>
@@ -8120,7 +9873,7 @@
       <c r="BL18" s="119"/>
       <c r="BM18" s="94"/>
     </row>
-    <row r="19" customHeight="1" ht="13">
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="103"/>
       <c r="B19" s="111"/>
       <c r="C19" s="107"/>
@@ -8189,7 +9942,7 @@
       <c r="BL19" s="114"/>
       <c r="BM19" s="94"/>
     </row>
-    <row r="20" customHeight="1" ht="13">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="103"/>
       <c r="B20" s="111"/>
       <c r="C20" s="107"/>
@@ -8256,13 +10009,13 @@
       <c r="BL20" s="122"/>
       <c r="BM20" s="94"/>
     </row>
-    <row r="21" customHeight="1" ht="13">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="103"/>
       <c r="B21" s="111"/>
       <c r="C21" s="107"/>
       <c r="D21" s="123"/>
       <c r="E21" s="111" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F21" s="111"/>
       <c r="G21" s="111"/>
@@ -8325,15 +10078,13 @@
       <c r="BL21" s="124"/>
       <c r="BM21" s="94"/>
     </row>
-    <row r="22" customHeight="1" ht="13">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="103"/>
       <c r="B22" s="111"/>
       <c r="C22" s="107"/>
       <c r="D22" s="123"/>
       <c r="E22" s="111"/>
-      <c r="F22" s="111" t="s">
-        <v>63</v>
-      </c>
+      <c r="F22" s="111"/>
       <c r="G22" s="111"/>
       <c r="H22" s="111"/>
       <c r="I22" s="111"/>
@@ -8394,15 +10145,15 @@
       <c r="BL22" s="124"/>
       <c r="BM22" s="94"/>
     </row>
-    <row r="23" customHeight="1" ht="13">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="103"/>
       <c r="B23" s="111"/>
       <c r="C23" s="107"/>
       <c r="D23" s="123"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111" t="s">
-        <v>64</v>
-      </c>
+      <c r="E23" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="111"/>
       <c r="G23" s="111"/>
       <c r="H23" s="111"/>
       <c r="I23" s="111"/>
@@ -8463,13 +10214,17 @@
       <c r="BL23" s="124"/>
       <c r="BM23" s="94"/>
     </row>
-    <row r="24" customHeight="1" ht="13">
+    <row r="24" customHeight="1" ht="12">
       <c r="A24" s="103"/>
       <c r="B24" s="111"/>
       <c r="C24" s="107"/>
       <c r="D24" s="123"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="E24" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>124</v>
+      </c>
       <c r="G24" s="111"/>
       <c r="H24" s="111"/>
       <c r="I24" s="111"/>
@@ -8530,13 +10285,15 @@
       <c r="BL24" s="124"/>
       <c r="BM24" s="94"/>
     </row>
-    <row r="25" customHeight="1" ht="13">
+    <row r="25" customHeight="1" ht="12">
       <c r="A25" s="103"/>
       <c r="B25" s="111"/>
       <c r="C25" s="107"/>
       <c r="D25" s="123"/>
       <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
+      <c r="F25" s="111" t="s">
+        <v>128</v>
+      </c>
       <c r="G25" s="111"/>
       <c r="H25" s="111"/>
       <c r="I25" s="111"/>
@@ -8597,14 +10354,12 @@
       <c r="BL25" s="124"/>
       <c r="BM25" s="94"/>
     </row>
-    <row r="26" customHeight="1" ht="13">
+    <row r="26" customHeight="1" ht="12">
       <c r="A26" s="103"/>
       <c r="B26" s="111"/>
       <c r="C26" s="107"/>
       <c r="D26" s="123"/>
-      <c r="E26" s="111" t="s">
-        <v>65</v>
-      </c>
+      <c r="E26" s="111"/>
       <c r="F26" s="111"/>
       <c r="G26" s="111"/>
       <c r="H26" s="111"/>
@@ -8666,15 +10421,13 @@
       <c r="BL26" s="124"/>
       <c r="BM26" s="94"/>
     </row>
-    <row r="27" customHeight="1" ht="13">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="103"/>
       <c r="B27" s="111"/>
       <c r="C27" s="107"/>
       <c r="D27" s="123"/>
       <c r="E27" s="111"/>
-      <c r="F27" s="111" t="s">
-        <v>66</v>
-      </c>
+      <c r="F27" s="111"/>
       <c r="G27" s="111"/>
       <c r="H27" s="111"/>
       <c r="I27" s="111"/>
@@ -8735,15 +10488,13 @@
       <c r="BL27" s="124"/>
       <c r="BM27" s="94"/>
     </row>
-    <row r="28" customHeight="1" ht="13">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="103"/>
       <c r="B28" s="111"/>
       <c r="C28" s="107"/>
       <c r="D28" s="123"/>
       <c r="E28" s="111"/>
-      <c r="F28" s="111" t="s">
-        <v>67</v>
-      </c>
+      <c r="F28" s="111"/>
       <c r="G28" s="111"/>
       <c r="H28" s="111"/>
       <c r="I28" s="111"/>
@@ -8804,15 +10555,13 @@
       <c r="BL28" s="124"/>
       <c r="BM28" s="94"/>
     </row>
-    <row r="29" customHeight="1" ht="13">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="103"/>
       <c r="B29" s="111"/>
       <c r="C29" s="107"/>
       <c r="D29" s="123"/>
       <c r="E29" s="111"/>
-      <c r="F29" s="111" t="s">
-        <v>68</v>
-      </c>
+      <c r="F29" s="111"/>
       <c r="G29" s="111"/>
       <c r="H29" s="111"/>
       <c r="I29" s="111"/>
@@ -8873,7 +10622,7 @@
       <c r="BL29" s="124"/>
       <c r="BM29" s="94"/>
     </row>
-    <row r="30" customHeight="1" ht="13">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="103"/>
       <c r="B30" s="111"/>
       <c r="C30" s="107"/>
@@ -8940,14 +10689,12 @@
       <c r="BL30" s="124"/>
       <c r="BM30" s="94"/>
     </row>
-    <row r="31" customHeight="1" ht="13">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="103"/>
       <c r="B31" s="111"/>
       <c r="C31" s="107"/>
       <c r="D31" s="123"/>
-      <c r="E31" s="111" t="s">
-        <v>69</v>
-      </c>
+      <c r="E31" s="111"/>
       <c r="F31" s="111"/>
       <c r="G31" s="111"/>
       <c r="H31" s="111"/>
@@ -9009,15 +10756,13 @@
       <c r="BL31" s="124"/>
       <c r="BM31" s="94"/>
     </row>
-    <row r="32" customHeight="1" ht="13">
+    <row r="32" customHeight="1" ht="12">
       <c r="A32" s="103"/>
       <c r="B32" s="111"/>
       <c r="C32" s="107"/>
       <c r="D32" s="123"/>
       <c r="E32" s="111"/>
-      <c r="F32" s="111" t="s">
-        <v>70</v>
-      </c>
+      <c r="F32" s="111"/>
       <c r="G32" s="111"/>
       <c r="H32" s="111"/>
       <c r="I32" s="111"/>
@@ -9078,7 +10823,7 @@
       <c r="BL32" s="124"/>
       <c r="BM32" s="94"/>
     </row>
-    <row r="33" customHeight="1" ht="13">
+    <row r="33" customHeight="1" ht="12">
       <c r="A33" s="103"/>
       <c r="B33" s="111"/>
       <c r="C33" s="107"/>
@@ -9145,7 +10890,7 @@
       <c r="BL33" s="127"/>
       <c r="BM33" s="94"/>
     </row>
-    <row r="34" customHeight="1" ht="13">
+    <row r="34" customHeight="1" ht="12">
       <c r="A34" s="103"/>
       <c r="B34" s="111"/>
       <c r="C34" s="107"/>
@@ -9212,7 +10957,7 @@
       <c r="BL34" s="111"/>
       <c r="BM34" s="94"/>
     </row>
-    <row r="35" customHeight="1" ht="13">
+    <row r="35" customHeight="1" ht="12">
       <c r="A35" s="103"/>
       <c r="B35" s="111"/>
       <c r="C35" s="107"/>
@@ -9279,7 +11024,7 @@
       <c r="BL35" s="111"/>
       <c r="BM35" s="94"/>
     </row>
-    <row r="36" customHeight="1" ht="13">
+    <row r="36" customHeight="1" ht="12">
       <c r="A36" s="103"/>
       <c r="B36" s="111"/>
       <c r="C36" s="107"/>
@@ -9346,7 +11091,7 @@
       <c r="BL36" s="111"/>
       <c r="BM36" s="94"/>
     </row>
-    <row r="37" customHeight="1" ht="13">
+    <row r="37" customHeight="1" ht="12">
       <c r="A37" s="103"/>
       <c r="B37" s="111"/>
       <c r="C37" s="107"/>
@@ -9413,7 +11158,7 @@
       <c r="BL37" s="111"/>
       <c r="BM37" s="94"/>
     </row>
-    <row r="38" customHeight="1" ht="13">
+    <row r="38" customHeight="1" ht="12">
       <c r="A38" s="103"/>
       <c r="B38" s="111"/>
       <c r="C38" s="107"/>
@@ -9480,7 +11225,7 @@
       <c r="BL38" s="111"/>
       <c r="BM38" s="94"/>
     </row>
-    <row r="39" customHeight="1" ht="13">
+    <row r="39" customHeight="1" ht="12">
       <c r="A39" s="103"/>
       <c r="B39" s="111"/>
       <c r="C39" s="107"/>
@@ -9547,7 +11292,7 @@
       <c r="BL39" s="111"/>
       <c r="BM39" s="94"/>
     </row>
-    <row r="40" customHeight="1" ht="13">
+    <row r="40" customHeight="1" ht="12">
       <c r="A40" s="103"/>
       <c r="B40" s="111"/>
       <c r="C40" s="107"/>
@@ -9614,7 +11359,7 @@
       <c r="BL40" s="111"/>
       <c r="BM40" s="94"/>
     </row>
-    <row r="41" customHeight="1" ht="13">
+    <row r="41" customHeight="1" ht="12">
       <c r="A41" s="103"/>
       <c r="B41" s="111"/>
       <c r="C41" s="107"/>
@@ -9681,7 +11426,7 @@
       <c r="BL41" s="111"/>
       <c r="BM41" s="94"/>
     </row>
-    <row r="42" customHeight="1" ht="13">
+    <row r="42" customHeight="1" ht="12">
       <c r="A42" s="103"/>
       <c r="B42" s="111"/>
       <c r="C42" s="107"/>
@@ -9748,7 +11493,7 @@
       <c r="BL42" s="111"/>
       <c r="BM42" s="94"/>
     </row>
-    <row r="43" customHeight="1" ht="13">
+    <row r="43" customHeight="1" ht="12">
       <c r="A43" s="103"/>
       <c r="B43" s="111"/>
       <c r="C43" s="107"/>
@@ -9815,7 +11560,7 @@
       <c r="BL43" s="111"/>
       <c r="BM43" s="94"/>
     </row>
-    <row r="44" customHeight="1" ht="13">
+    <row r="44" customHeight="1" ht="12">
       <c r="A44" s="103"/>
       <c r="B44" s="111"/>
       <c r="C44" s="107"/>
@@ -9882,7 +11627,7 @@
       <c r="BL44" s="111"/>
       <c r="BM44" s="94"/>
     </row>
-    <row r="45" customHeight="1" ht="13">
+    <row r="45" customHeight="1" ht="12">
       <c r="A45" s="103"/>
       <c r="B45" s="111"/>
       <c r="C45" s="107"/>
@@ -9949,7 +11694,7 @@
       <c r="BL45" s="111"/>
       <c r="BM45" s="94"/>
     </row>
-    <row r="46" customHeight="1" ht="13">
+    <row r="46" customHeight="1" ht="12">
       <c r="A46" s="103"/>
       <c r="B46" s="111"/>
       <c r="C46" s="107"/>
@@ -10016,7 +11761,7 @@
       <c r="BL46" s="111"/>
       <c r="BM46" s="94"/>
     </row>
-    <row r="47" customHeight="1" ht="13">
+    <row r="47" customHeight="1" ht="12">
       <c r="A47" s="103"/>
       <c r="B47" s="111"/>
       <c r="C47" s="107"/>
@@ -10083,7 +11828,7 @@
       <c r="BL47" s="111"/>
       <c r="BM47" s="94"/>
     </row>
-    <row r="48" customHeight="1" ht="13">
+    <row r="48" customHeight="1" ht="12">
       <c r="A48" s="103"/>
       <c r="B48" s="111"/>
       <c r="C48" s="107"/>
@@ -10150,7 +11895,7 @@
       <c r="BL48" s="111"/>
       <c r="BM48" s="94"/>
     </row>
-    <row r="49" customHeight="1" ht="13">
+    <row r="49" customHeight="1" ht="12">
       <c r="A49" s="103"/>
       <c r="B49" s="111"/>
       <c r="C49" s="107"/>
@@ -10217,7 +11962,7 @@
       <c r="BL49" s="111"/>
       <c r="BM49" s="94"/>
     </row>
-    <row r="50" customHeight="1" ht="13">
+    <row r="50" customHeight="1" ht="12">
       <c r="A50" s="103"/>
       <c r="B50" s="111"/>
       <c r="C50" s="107"/>
@@ -10284,7 +12029,7 @@
       <c r="BL50" s="111"/>
       <c r="BM50" s="94"/>
     </row>
-    <row r="51" customHeight="1" ht="13">
+    <row r="51" customHeight="1" ht="12">
       <c r="A51" s="103"/>
       <c r="B51" s="111"/>
       <c r="C51" s="107"/>
@@ -10351,7 +12096,7 @@
       <c r="BL51" s="111"/>
       <c r="BM51" s="94"/>
     </row>
-    <row r="52" customHeight="1" ht="13">
+    <row r="52" customHeight="1" ht="12">
       <c r="A52" s="103"/>
       <c r="B52" s="111"/>
       <c r="C52" s="107"/>
@@ -10418,7 +12163,7 @@
       <c r="BL52" s="111"/>
       <c r="BM52" s="94"/>
     </row>
-    <row r="53" customHeight="1" ht="13">
+    <row r="53" customHeight="1" ht="12">
       <c r="A53" s="103"/>
       <c r="B53" s="111"/>
       <c r="C53" s="107"/>
@@ -10485,7 +12230,7 @@
       <c r="BL53" s="111"/>
       <c r="BM53" s="94"/>
     </row>
-    <row r="54" customHeight="1" ht="13">
+    <row r="54" customHeight="1" ht="12">
       <c r="A54" s="103"/>
       <c r="B54" s="111"/>
       <c r="C54" s="107"/>
@@ -10552,7 +12297,7 @@
       <c r="BL54" s="111"/>
       <c r="BM54" s="94"/>
     </row>
-    <row r="55" customHeight="1" ht="13">
+    <row r="55" customHeight="1" ht="12">
       <c r="A55" s="103"/>
       <c r="B55" s="111"/>
       <c r="C55" s="107"/>
@@ -10619,7 +12364,7 @@
       <c r="BL55" s="111"/>
       <c r="BM55" s="94"/>
     </row>
-    <row r="56" customHeight="1" ht="13">
+    <row r="56" customHeight="1" ht="12">
       <c r="A56" s="103"/>
       <c r="B56" s="111"/>
       <c r="C56" s="107"/>
@@ -10686,7 +12431,7 @@
       <c r="BL56" s="111"/>
       <c r="BM56" s="94"/>
     </row>
-    <row r="57" customHeight="1" ht="13">
+    <row r="57" customHeight="1" ht="12">
       <c r="A57" s="103"/>
       <c r="B57" s="111"/>
       <c r="C57" s="107"/>
@@ -10753,7 +12498,7 @@
       <c r="BL57" s="111"/>
       <c r="BM57" s="94"/>
     </row>
-    <row r="58" customHeight="1" ht="13">
+    <row r="58" customHeight="1" ht="12">
       <c r="A58" s="103"/>
       <c r="B58" s="111"/>
       <c r="C58" s="107"/>
@@ -10820,7 +12565,7 @@
       <c r="BL58" s="111"/>
       <c r="BM58" s="94"/>
     </row>
-    <row r="59" customHeight="1" ht="13">
+    <row r="59" customHeight="1" ht="12">
       <c r="A59" s="103"/>
       <c r="B59" s="111"/>
       <c r="C59" s="107"/>
@@ -10887,7 +12632,7 @@
       <c r="BL59" s="111"/>
       <c r="BM59" s="94"/>
     </row>
-    <row r="60" customHeight="1" ht="13">
+    <row r="60" customHeight="1" ht="12">
       <c r="A60" s="128"/>
       <c r="B60" s="129"/>
       <c r="C60" s="129"/>
@@ -10995,7 +12740,7 @@
   <dimension ref="A1:BN37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+      <selection activeCell="BQ30" sqref="BQ30" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11131,7 +12876,7 @@
     <col min="16157" max="16384" width="2.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="13">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -11199,7 +12944,7 @@
       <c r="BM1" s="39"/>
       <c r="BN1" s="41"/>
     </row>
-    <row r="2" customHeight="1" ht="13">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="43" t="s">
         <v>71</v>
       </c>
@@ -11255,7 +13000,7 @@
       <c r="BM2" s="46"/>
       <c r="BN2" s="47"/>
     </row>
-    <row r="3" customHeight="1" ht="13">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="130"/>
       <c r="B3" s="131"/>
       <c r="C3" s="131"/>
@@ -11323,7 +13068,7 @@
       <c r="BM3" s="132"/>
       <c r="BN3" s="133"/>
     </row>
-    <row r="4" customHeight="1" ht="13">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="134" t="s">
         <v>13</v>
       </c>
@@ -11332,9 +13077,8 @@
       <c r="D4" s="135"/>
       <c r="E4" s="135"/>
       <c r="F4" s="136"/>
-      <c r="G4" s="137" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G4" s="137" t="s">
+        <v>116</v>
       </c>
       <c r="H4" s="138"/>
       <c r="I4" s="138"/>
@@ -11353,7 +13097,7 @@
       <c r="T4" s="141"/>
       <c r="U4" s="142"/>
       <c r="V4" s="143" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="W4" s="144"/>
       <c r="X4" s="144"/>
@@ -11387,7 +13131,7 @@
       <c r="AX4" s="147"/>
       <c r="AY4" s="148"/>
       <c r="AZ4" s="64">
-        <v>44368</v>
+        <v>44384</v>
       </c>
       <c r="BA4" s="65"/>
       <c r="BB4" s="65"/>
@@ -11399,9 +13143,8 @@
       </c>
       <c r="BG4" s="147"/>
       <c r="BH4" s="148"/>
-      <c r="BI4" s="149" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="BI4" s="149" t="s">
+        <v>11</v>
       </c>
       <c r="BJ4" s="65"/>
       <c r="BK4" s="65"/>
@@ -11409,7 +13152,7 @@
       <c r="BM4" s="65"/>
       <c r="BN4" s="66"/>
     </row>
-    <row r="5" customHeight="1" ht="13">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="67" t="s">
         <v>19</v>
       </c>
@@ -11488,7 +13231,7 @@
       <c r="BM5" s="73"/>
       <c r="BN5" s="74"/>
     </row>
-    <row r="6" customHeight="1" ht="4">
+    <row r="6" customHeight="1" ht="3">
       <c r="A6" s="150"/>
       <c r="B6" s="150"/>
       <c r="C6" s="150"/>
@@ -11529,34 +13272,34 @@
       <c r="AL6" s="150"/>
       <c r="AM6" s="150"/>
       <c r="AN6" s="150"/>
-      <c r="AO6" s="150"/>
-      <c r="AP6" s="150"/>
-      <c r="AQ6" s="150"/>
-      <c r="AR6" s="150"/>
-      <c r="AS6" s="150"/>
-      <c r="AT6" s="150"/>
-      <c r="AU6" s="150"/>
-      <c r="AV6" s="150"/>
-      <c r="AW6" s="150"/>
-      <c r="AX6" s="150"/>
-      <c r="AY6" s="150"/>
-      <c r="AZ6" s="150"/>
-      <c r="BA6" s="150"/>
-      <c r="BB6" s="150"/>
-      <c r="BC6" s="150"/>
-      <c r="BD6" s="150"/>
-      <c r="BE6" s="150"/>
-      <c r="BF6" s="150"/>
-      <c r="BG6" s="150"/>
-      <c r="BH6" s="150"/>
-      <c r="BI6" s="150"/>
-      <c r="BJ6" s="150"/>
-      <c r="BK6" s="150"/>
-      <c r="BL6" s="150"/>
-      <c r="BM6" s="150"/>
-      <c r="BN6" s="150"/>
-    </row>
-    <row r="7" customHeight="1" ht="13">
+      <c r="AO6" s="331"/>
+      <c r="AP6" s="331"/>
+      <c r="AQ6" s="331"/>
+      <c r="AR6" s="331"/>
+      <c r="AS6" s="331"/>
+      <c r="AT6" s="331"/>
+      <c r="AU6" s="331"/>
+      <c r="AV6" s="331"/>
+      <c r="AW6" s="331"/>
+      <c r="AX6" s="331"/>
+      <c r="AY6" s="331"/>
+      <c r="AZ6" s="331"/>
+      <c r="BA6" s="331"/>
+      <c r="BB6" s="331"/>
+      <c r="BC6" s="331"/>
+      <c r="BD6" s="331"/>
+      <c r="BE6" s="331"/>
+      <c r="BF6" s="331"/>
+      <c r="BG6" s="331"/>
+      <c r="BH6" s="331"/>
+      <c r="BI6" s="331"/>
+      <c r="BJ6" s="331"/>
+      <c r="BK6" s="331"/>
+      <c r="BL6" s="331"/>
+      <c r="BM6" s="331"/>
+      <c r="BN6" s="331"/>
+    </row>
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="151" t="s">
         <v>73</v>
       </c>
@@ -11600,37 +13343,35 @@
       <c r="AK7" s="152"/>
       <c r="AL7" s="152"/>
       <c r="AM7" s="152"/>
-      <c r="AN7" s="153"/>
-      <c r="AO7" s="154" t="s">
+      <c r="AN7" s="338"/>
+      <c r="AO7" s="332" t="s">
         <v>75</v>
       </c>
-      <c r="AP7" s="155"/>
-      <c r="AQ7" s="155"/>
-      <c r="AR7" s="155"/>
-      <c r="AS7" s="155"/>
-      <c r="AT7" s="155"/>
-      <c r="AU7" s="155"/>
-      <c r="AV7" s="155"/>
-      <c r="AW7" s="155"/>
-      <c r="AX7" s="155"/>
-      <c r="AY7" s="155"/>
-      <c r="AZ7" s="155"/>
-      <c r="BA7" s="155"/>
-      <c r="BB7" s="155"/>
-      <c r="BC7" s="155"/>
-      <c r="BD7" s="155"/>
-      <c r="BE7" s="155"/>
-      <c r="BF7" s="155"/>
-      <c r="BG7" s="155"/>
-      <c r="BH7" s="155"/>
-      <c r="BI7" s="155"/>
-      <c r="BJ7" s="155"/>
-      <c r="BK7" s="155"/>
-      <c r="BL7" s="156"/>
-      <c r="BM7" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN7" s="156"/>
+      <c r="AP7" s="341"/>
+      <c r="AQ7" s="341"/>
+      <c r="AR7" s="341"/>
+      <c r="AS7" s="341"/>
+      <c r="AT7" s="341"/>
+      <c r="AU7" s="341"/>
+      <c r="AV7" s="341"/>
+      <c r="AW7" s="341"/>
+      <c r="AX7" s="341"/>
+      <c r="AY7" s="341"/>
+      <c r="AZ7" s="341"/>
+      <c r="BA7" s="341"/>
+      <c r="BB7" s="341"/>
+      <c r="BC7" s="341"/>
+      <c r="BD7" s="341"/>
+      <c r="BE7" s="341"/>
+      <c r="BF7" s="341"/>
+      <c r="BG7" s="341"/>
+      <c r="BH7" s="341"/>
+      <c r="BI7" s="341"/>
+      <c r="BJ7" s="341"/>
+      <c r="BK7" s="341"/>
+      <c r="BL7" s="342"/>
+      <c r="BM7" s="332"/>
+      <c r="BN7" s="333"/>
     </row>
     <row r="8" customHeight="1" ht="24">
       <c r="A8" s="157" t="s">
@@ -11692,33 +13433,33 @@
       <c r="AK8" s="159"/>
       <c r="AL8" s="159"/>
       <c r="AM8" s="159"/>
-      <c r="AN8" s="167"/>
-      <c r="AO8" s="168"/>
-      <c r="AP8" s="159"/>
-      <c r="AQ8" s="159"/>
-      <c r="AR8" s="159"/>
-      <c r="AS8" s="159"/>
-      <c r="AT8" s="159"/>
-      <c r="AU8" s="159"/>
-      <c r="AV8" s="159"/>
-      <c r="AW8" s="159"/>
-      <c r="AX8" s="159"/>
-      <c r="AY8" s="159"/>
-      <c r="AZ8" s="159"/>
-      <c r="BA8" s="159"/>
-      <c r="BB8" s="159"/>
-      <c r="BC8" s="159"/>
-      <c r="BD8" s="159"/>
-      <c r="BE8" s="159"/>
-      <c r="BF8" s="159"/>
-      <c r="BG8" s="159"/>
-      <c r="BH8" s="159"/>
-      <c r="BI8" s="159"/>
-      <c r="BJ8" s="159"/>
-      <c r="BK8" s="159"/>
-      <c r="BL8" s="167"/>
-      <c r="BM8" s="169"/>
-      <c r="BN8" s="170"/>
+      <c r="AN8" s="330"/>
+      <c r="AO8" s="343"/>
+      <c r="AP8" s="344"/>
+      <c r="AQ8" s="344"/>
+      <c r="AR8" s="344"/>
+      <c r="AS8" s="344"/>
+      <c r="AT8" s="344"/>
+      <c r="AU8" s="344"/>
+      <c r="AV8" s="344"/>
+      <c r="AW8" s="344"/>
+      <c r="AX8" s="344"/>
+      <c r="AY8" s="344"/>
+      <c r="AZ8" s="344"/>
+      <c r="BA8" s="344"/>
+      <c r="BB8" s="344"/>
+      <c r="BC8" s="344"/>
+      <c r="BD8" s="344"/>
+      <c r="BE8" s="344"/>
+      <c r="BF8" s="344"/>
+      <c r="BG8" s="344"/>
+      <c r="BH8" s="344"/>
+      <c r="BI8" s="344"/>
+      <c r="BJ8" s="344"/>
+      <c r="BK8" s="344"/>
+      <c r="BL8" s="345"/>
+      <c r="BM8" s="334"/>
+      <c r="BN8" s="335"/>
     </row>
     <row r="9" customHeight="1" ht="12">
       <c r="A9" s="171">
@@ -11762,7 +13503,7 @@
       <c r="AA9" s="174"/>
       <c r="AB9" s="175"/>
       <c r="AC9" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD9" s="179"/>
       <c r="AE9" s="179"/>
@@ -11776,35 +13517,35 @@
       <c r="AK9" s="182"/>
       <c r="AL9" s="182"/>
       <c r="AM9" s="182"/>
-      <c r="AN9" s="183"/>
-      <c r="AO9" s="184" t="s">
+      <c r="AN9" s="339"/>
+      <c r="AO9" s="346" t="s">
         <v>91</v>
       </c>
-      <c r="AP9" s="185"/>
-      <c r="AQ9" s="185"/>
-      <c r="AR9" s="185"/>
-      <c r="AS9" s="185"/>
-      <c r="AT9" s="185"/>
-      <c r="AU9" s="185"/>
-      <c r="AV9" s="185"/>
-      <c r="AW9" s="185"/>
-      <c r="AX9" s="185"/>
-      <c r="AY9" s="185"/>
-      <c r="AZ9" s="185"/>
-      <c r="BA9" s="185"/>
-      <c r="BB9" s="185"/>
-      <c r="BC9" s="185"/>
-      <c r="BD9" s="185"/>
-      <c r="BE9" s="185"/>
-      <c r="BF9" s="185"/>
-      <c r="BG9" s="185"/>
-      <c r="BH9" s="185"/>
-      <c r="BI9" s="185"/>
-      <c r="BJ9" s="185"/>
-      <c r="BK9" s="185"/>
-      <c r="BL9" s="185"/>
-      <c r="BM9" s="186"/>
-      <c r="BN9" s="187"/>
+      <c r="AP9" s="347"/>
+      <c r="AQ9" s="347"/>
+      <c r="AR9" s="347"/>
+      <c r="AS9" s="347"/>
+      <c r="AT9" s="347"/>
+      <c r="AU9" s="347"/>
+      <c r="AV9" s="347"/>
+      <c r="AW9" s="347"/>
+      <c r="AX9" s="347"/>
+      <c r="AY9" s="347"/>
+      <c r="AZ9" s="347"/>
+      <c r="BA9" s="347"/>
+      <c r="BB9" s="347"/>
+      <c r="BC9" s="347"/>
+      <c r="BD9" s="347"/>
+      <c r="BE9" s="347"/>
+      <c r="BF9" s="347"/>
+      <c r="BG9" s="347"/>
+      <c r="BH9" s="347"/>
+      <c r="BI9" s="347"/>
+      <c r="BJ9" s="347"/>
+      <c r="BK9" s="347"/>
+      <c r="BL9" s="347"/>
+      <c r="BM9" s="334"/>
+      <c r="BN9" s="335"/>
     </row>
     <row r="10" customHeight="1" ht="12">
       <c r="A10" s="171">
@@ -11848,51 +13589,49 @@
       <c r="AA10" s="174"/>
       <c r="AB10" s="175"/>
       <c r="AC10" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD10" s="179"/>
       <c r="AE10" s="179"/>
       <c r="AF10" s="179"/>
       <c r="AG10" s="180"/>
       <c r="AH10" s="173" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AI10" s="174"/>
       <c r="AJ10" s="174"/>
       <c r="AK10" s="174"/>
       <c r="AL10" s="174"/>
       <c r="AM10" s="174"/>
-      <c r="AN10" s="192"/>
-      <c r="AO10" s="184" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP10" s="185"/>
-      <c r="AQ10" s="185"/>
-      <c r="AR10" s="185"/>
-      <c r="AS10" s="185"/>
-      <c r="AT10" s="185"/>
-      <c r="AU10" s="185"/>
-      <c r="AV10" s="185"/>
-      <c r="AW10" s="185"/>
-      <c r="AX10" s="185"/>
-      <c r="AY10" s="185"/>
-      <c r="AZ10" s="185"/>
-      <c r="BA10" s="185"/>
-      <c r="BB10" s="185"/>
-      <c r="BC10" s="185"/>
-      <c r="BD10" s="185"/>
-      <c r="BE10" s="185"/>
-      <c r="BF10" s="185"/>
-      <c r="BG10" s="185"/>
-      <c r="BH10" s="185"/>
-      <c r="BI10" s="185"/>
-      <c r="BJ10" s="185"/>
-      <c r="BK10" s="185"/>
-      <c r="BL10" s="185"/>
-      <c r="BM10" s="186"/>
-      <c r="BN10" s="187"/>
-    </row>
-    <row r="11" customHeight="1" ht="13">
+      <c r="AN10" s="340"/>
+      <c r="AO10" s="346"/>
+      <c r="AP10" s="347"/>
+      <c r="AQ10" s="347"/>
+      <c r="AR10" s="347"/>
+      <c r="AS10" s="347"/>
+      <c r="AT10" s="347"/>
+      <c r="AU10" s="347"/>
+      <c r="AV10" s="347"/>
+      <c r="AW10" s="347"/>
+      <c r="AX10" s="347"/>
+      <c r="AY10" s="347"/>
+      <c r="AZ10" s="347"/>
+      <c r="BA10" s="347"/>
+      <c r="BB10" s="347"/>
+      <c r="BC10" s="347"/>
+      <c r="BD10" s="347"/>
+      <c r="BE10" s="347"/>
+      <c r="BF10" s="347"/>
+      <c r="BG10" s="347"/>
+      <c r="BH10" s="347"/>
+      <c r="BI10" s="347"/>
+      <c r="BJ10" s="347"/>
+      <c r="BK10" s="347"/>
+      <c r="BL10" s="347"/>
+      <c r="BM10" s="334"/>
+      <c r="BN10" s="335"/>
+    </row>
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="171">
         <v>3</v>
       </c>
@@ -11934,7 +13673,7 @@
       <c r="AA11" s="174"/>
       <c r="AB11" s="175"/>
       <c r="AC11" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD11" s="179"/>
       <c r="AE11" s="179"/>
@@ -11948,42 +13687,40 @@
       <c r="AK11" s="174"/>
       <c r="AL11" s="174"/>
       <c r="AM11" s="174"/>
-      <c r="AN11" s="192"/>
-      <c r="AO11" s="184" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP11" s="185"/>
-      <c r="AQ11" s="185"/>
-      <c r="AR11" s="185"/>
-      <c r="AS11" s="185"/>
-      <c r="AT11" s="185"/>
-      <c r="AU11" s="185"/>
-      <c r="AV11" s="185"/>
-      <c r="AW11" s="185"/>
-      <c r="AX11" s="185"/>
-      <c r="AY11" s="185"/>
-      <c r="AZ11" s="185"/>
-      <c r="BA11" s="185"/>
-      <c r="BB11" s="185"/>
-      <c r="BC11" s="185"/>
-      <c r="BD11" s="185"/>
-      <c r="BE11" s="185"/>
-      <c r="BF11" s="185"/>
-      <c r="BG11" s="185"/>
-      <c r="BH11" s="185"/>
-      <c r="BI11" s="185"/>
-      <c r="BJ11" s="185"/>
-      <c r="BK11" s="185"/>
-      <c r="BL11" s="185"/>
-      <c r="BM11" s="186"/>
-      <c r="BN11" s="187"/>
-    </row>
-    <row r="12" customHeight="1" ht="13">
+      <c r="AN11" s="340"/>
+      <c r="AO11" s="346"/>
+      <c r="AP11" s="347"/>
+      <c r="AQ11" s="347"/>
+      <c r="AR11" s="347"/>
+      <c r="AS11" s="347"/>
+      <c r="AT11" s="347"/>
+      <c r="AU11" s="347"/>
+      <c r="AV11" s="347"/>
+      <c r="AW11" s="347"/>
+      <c r="AX11" s="347"/>
+      <c r="AY11" s="347"/>
+      <c r="AZ11" s="347"/>
+      <c r="BA11" s="347"/>
+      <c r="BB11" s="347"/>
+      <c r="BC11" s="347"/>
+      <c r="BD11" s="347"/>
+      <c r="BE11" s="347"/>
+      <c r="BF11" s="347"/>
+      <c r="BG11" s="347"/>
+      <c r="BH11" s="347"/>
+      <c r="BI11" s="347"/>
+      <c r="BJ11" s="347"/>
+      <c r="BK11" s="347"/>
+      <c r="BL11" s="347"/>
+      <c r="BM11" s="334"/>
+      <c r="BN11" s="335"/>
+    </row>
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="171">
         <v>4</v>
       </c>
       <c r="B12" s="188" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C12" s="189"/>
       <c r="D12" s="189"/>
@@ -12020,7 +13757,7 @@
       <c r="AA12" s="174"/>
       <c r="AB12" s="175"/>
       <c r="AC12" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD12" s="179"/>
       <c r="AE12" s="179"/>
@@ -12034,37 +13771,35 @@
       <c r="AK12" s="174"/>
       <c r="AL12" s="174"/>
       <c r="AM12" s="174"/>
-      <c r="AN12" s="192"/>
-      <c r="AO12" s="184" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP12" s="185"/>
-      <c r="AQ12" s="185"/>
-      <c r="AR12" s="185"/>
-      <c r="AS12" s="185"/>
-      <c r="AT12" s="185"/>
-      <c r="AU12" s="185"/>
-      <c r="AV12" s="185"/>
-      <c r="AW12" s="185"/>
-      <c r="AX12" s="185"/>
-      <c r="AY12" s="185"/>
-      <c r="AZ12" s="185"/>
-      <c r="BA12" s="185"/>
-      <c r="BB12" s="185"/>
-      <c r="BC12" s="185"/>
-      <c r="BD12" s="185"/>
-      <c r="BE12" s="185"/>
-      <c r="BF12" s="185"/>
-      <c r="BG12" s="185"/>
-      <c r="BH12" s="185"/>
-      <c r="BI12" s="185"/>
-      <c r="BJ12" s="185"/>
-      <c r="BK12" s="185"/>
-      <c r="BL12" s="185"/>
-      <c r="BM12" s="186"/>
-      <c r="BN12" s="187"/>
-    </row>
-    <row r="13" customHeight="1" ht="13">
+      <c r="AN12" s="340"/>
+      <c r="AO12" s="346"/>
+      <c r="AP12" s="347"/>
+      <c r="AQ12" s="347"/>
+      <c r="AR12" s="347"/>
+      <c r="AS12" s="347"/>
+      <c r="AT12" s="347"/>
+      <c r="AU12" s="347"/>
+      <c r="AV12" s="347"/>
+      <c r="AW12" s="347"/>
+      <c r="AX12" s="347"/>
+      <c r="AY12" s="347"/>
+      <c r="AZ12" s="347"/>
+      <c r="BA12" s="347"/>
+      <c r="BB12" s="347"/>
+      <c r="BC12" s="347"/>
+      <c r="BD12" s="347"/>
+      <c r="BE12" s="347"/>
+      <c r="BF12" s="347"/>
+      <c r="BG12" s="347"/>
+      <c r="BH12" s="347"/>
+      <c r="BI12" s="347"/>
+      <c r="BJ12" s="347"/>
+      <c r="BK12" s="347"/>
+      <c r="BL12" s="347"/>
+      <c r="BM12" s="334"/>
+      <c r="BN12" s="335"/>
+    </row>
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="171">
         <v>5</v>
       </c>
@@ -12106,7 +13841,7 @@
       <c r="AA13" s="174"/>
       <c r="AB13" s="175"/>
       <c r="AC13" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD13" s="179"/>
       <c r="AE13" s="179"/>
@@ -12120,37 +13855,35 @@
       <c r="AK13" s="174"/>
       <c r="AL13" s="174"/>
       <c r="AM13" s="174"/>
-      <c r="AN13" s="192"/>
-      <c r="AO13" s="184" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP13" s="185"/>
-      <c r="AQ13" s="185"/>
-      <c r="AR13" s="185"/>
-      <c r="AS13" s="185"/>
-      <c r="AT13" s="185"/>
-      <c r="AU13" s="185"/>
-      <c r="AV13" s="185"/>
-      <c r="AW13" s="185"/>
-      <c r="AX13" s="185"/>
-      <c r="AY13" s="185"/>
-      <c r="AZ13" s="185"/>
-      <c r="BA13" s="185"/>
-      <c r="BB13" s="185"/>
-      <c r="BC13" s="185"/>
-      <c r="BD13" s="185"/>
-      <c r="BE13" s="185"/>
-      <c r="BF13" s="185"/>
-      <c r="BG13" s="185"/>
-      <c r="BH13" s="185"/>
-      <c r="BI13" s="185"/>
-      <c r="BJ13" s="185"/>
-      <c r="BK13" s="185"/>
-      <c r="BL13" s="185"/>
-      <c r="BM13" s="186"/>
-      <c r="BN13" s="187"/>
-    </row>
-    <row r="14" customHeight="1" ht="13">
+      <c r="AN13" s="340"/>
+      <c r="AO13" s="346"/>
+      <c r="AP13" s="347"/>
+      <c r="AQ13" s="347"/>
+      <c r="AR13" s="347"/>
+      <c r="AS13" s="347"/>
+      <c r="AT13" s="347"/>
+      <c r="AU13" s="347"/>
+      <c r="AV13" s="347"/>
+      <c r="AW13" s="347"/>
+      <c r="AX13" s="347"/>
+      <c r="AY13" s="347"/>
+      <c r="AZ13" s="347"/>
+      <c r="BA13" s="347"/>
+      <c r="BB13" s="347"/>
+      <c r="BC13" s="347"/>
+      <c r="BD13" s="347"/>
+      <c r="BE13" s="347"/>
+      <c r="BF13" s="347"/>
+      <c r="BG13" s="347"/>
+      <c r="BH13" s="347"/>
+      <c r="BI13" s="347"/>
+      <c r="BJ13" s="347"/>
+      <c r="BK13" s="347"/>
+      <c r="BL13" s="347"/>
+      <c r="BM13" s="334"/>
+      <c r="BN13" s="335"/>
+    </row>
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="171">
         <v>6</v>
       </c>
@@ -12192,7 +13925,7 @@
       <c r="AA14" s="174"/>
       <c r="AB14" s="175"/>
       <c r="AC14" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD14" s="179"/>
       <c r="AE14" s="179"/>
@@ -12206,37 +13939,35 @@
       <c r="AK14" s="174"/>
       <c r="AL14" s="174"/>
       <c r="AM14" s="174"/>
-      <c r="AN14" s="192"/>
-      <c r="AO14" s="184" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP14" s="185"/>
-      <c r="AQ14" s="185"/>
-      <c r="AR14" s="185"/>
-      <c r="AS14" s="185"/>
-      <c r="AT14" s="185"/>
-      <c r="AU14" s="185"/>
-      <c r="AV14" s="185"/>
-      <c r="AW14" s="185"/>
-      <c r="AX14" s="185"/>
-      <c r="AY14" s="185"/>
-      <c r="AZ14" s="185"/>
-      <c r="BA14" s="185"/>
-      <c r="BB14" s="185"/>
-      <c r="BC14" s="185"/>
-      <c r="BD14" s="185"/>
-      <c r="BE14" s="185"/>
-      <c r="BF14" s="185"/>
-      <c r="BG14" s="185"/>
-      <c r="BH14" s="185"/>
-      <c r="BI14" s="185"/>
-      <c r="BJ14" s="185"/>
-      <c r="BK14" s="185"/>
-      <c r="BL14" s="185"/>
-      <c r="BM14" s="186"/>
-      <c r="BN14" s="187"/>
-    </row>
-    <row r="15" customHeight="1" ht="13">
+      <c r="AN14" s="340"/>
+      <c r="AO14" s="346"/>
+      <c r="AP14" s="347"/>
+      <c r="AQ14" s="347"/>
+      <c r="AR14" s="347"/>
+      <c r="AS14" s="347"/>
+      <c r="AT14" s="347"/>
+      <c r="AU14" s="347"/>
+      <c r="AV14" s="347"/>
+      <c r="AW14" s="347"/>
+      <c r="AX14" s="347"/>
+      <c r="AY14" s="347"/>
+      <c r="AZ14" s="347"/>
+      <c r="BA14" s="347"/>
+      <c r="BB14" s="347"/>
+      <c r="BC14" s="347"/>
+      <c r="BD14" s="347"/>
+      <c r="BE14" s="347"/>
+      <c r="BF14" s="347"/>
+      <c r="BG14" s="347"/>
+      <c r="BH14" s="347"/>
+      <c r="BI14" s="347"/>
+      <c r="BJ14" s="347"/>
+      <c r="BK14" s="347"/>
+      <c r="BL14" s="347"/>
+      <c r="BM14" s="334"/>
+      <c r="BN14" s="335"/>
+    </row>
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="171">
         <v>7</v>
       </c>
@@ -12278,7 +14009,7 @@
       <c r="AA15" s="174"/>
       <c r="AB15" s="175"/>
       <c r="AC15" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD15" s="179"/>
       <c r="AE15" s="179"/>
@@ -12292,37 +14023,35 @@
       <c r="AK15" s="174"/>
       <c r="AL15" s="174"/>
       <c r="AM15" s="174"/>
-      <c r="AN15" s="192"/>
-      <c r="AO15" s="184" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP15" s="185"/>
-      <c r="AQ15" s="185"/>
-      <c r="AR15" s="185"/>
-      <c r="AS15" s="185"/>
-      <c r="AT15" s="185"/>
-      <c r="AU15" s="185"/>
-      <c r="AV15" s="185"/>
-      <c r="AW15" s="185"/>
-      <c r="AX15" s="185"/>
-      <c r="AY15" s="185"/>
-      <c r="AZ15" s="185"/>
-      <c r="BA15" s="185"/>
-      <c r="BB15" s="185"/>
-      <c r="BC15" s="185"/>
-      <c r="BD15" s="185"/>
-      <c r="BE15" s="185"/>
-      <c r="BF15" s="185"/>
-      <c r="BG15" s="185"/>
-      <c r="BH15" s="185"/>
-      <c r="BI15" s="185"/>
-      <c r="BJ15" s="185"/>
-      <c r="BK15" s="185"/>
-      <c r="BL15" s="185"/>
-      <c r="BM15" s="186"/>
-      <c r="BN15" s="187"/>
-    </row>
-    <row r="16" customHeight="1" ht="13">
+      <c r="AN15" s="340"/>
+      <c r="AO15" s="346"/>
+      <c r="AP15" s="347"/>
+      <c r="AQ15" s="347"/>
+      <c r="AR15" s="347"/>
+      <c r="AS15" s="347"/>
+      <c r="AT15" s="347"/>
+      <c r="AU15" s="347"/>
+      <c r="AV15" s="347"/>
+      <c r="AW15" s="347"/>
+      <c r="AX15" s="347"/>
+      <c r="AY15" s="347"/>
+      <c r="AZ15" s="347"/>
+      <c r="BA15" s="347"/>
+      <c r="BB15" s="347"/>
+      <c r="BC15" s="347"/>
+      <c r="BD15" s="347"/>
+      <c r="BE15" s="347"/>
+      <c r="BF15" s="347"/>
+      <c r="BG15" s="347"/>
+      <c r="BH15" s="347"/>
+      <c r="BI15" s="347"/>
+      <c r="BJ15" s="347"/>
+      <c r="BK15" s="347"/>
+      <c r="BL15" s="347"/>
+      <c r="BM15" s="334"/>
+      <c r="BN15" s="335"/>
+    </row>
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="171">
         <v>8</v>
       </c>
@@ -12364,51 +14093,49 @@
       <c r="AA16" s="174"/>
       <c r="AB16" s="175"/>
       <c r="AC16" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD16" s="179"/>
       <c r="AE16" s="179"/>
       <c r="AF16" s="179"/>
       <c r="AG16" s="180"/>
       <c r="AH16" s="173" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="AI16" s="174"/>
       <c r="AJ16" s="174"/>
       <c r="AK16" s="174"/>
       <c r="AL16" s="174"/>
       <c r="AM16" s="174"/>
-      <c r="AN16" s="192"/>
-      <c r="AO16" s="184" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP16" s="185"/>
-      <c r="AQ16" s="185"/>
-      <c r="AR16" s="185"/>
-      <c r="AS16" s="185"/>
-      <c r="AT16" s="185"/>
-      <c r="AU16" s="185"/>
-      <c r="AV16" s="185"/>
-      <c r="AW16" s="185"/>
-      <c r="AX16" s="185"/>
-      <c r="AY16" s="185"/>
-      <c r="AZ16" s="185"/>
-      <c r="BA16" s="185"/>
-      <c r="BB16" s="185"/>
-      <c r="BC16" s="185"/>
-      <c r="BD16" s="185"/>
-      <c r="BE16" s="185"/>
-      <c r="BF16" s="185"/>
-      <c r="BG16" s="185"/>
-      <c r="BH16" s="185"/>
-      <c r="BI16" s="185"/>
-      <c r="BJ16" s="185"/>
-      <c r="BK16" s="185"/>
-      <c r="BL16" s="185"/>
-      <c r="BM16" s="186"/>
-      <c r="BN16" s="187"/>
-    </row>
-    <row r="17" customHeight="1" ht="13">
+      <c r="AN16" s="340"/>
+      <c r="AO16" s="346"/>
+      <c r="AP16" s="347"/>
+      <c r="AQ16" s="347"/>
+      <c r="AR16" s="347"/>
+      <c r="AS16" s="347"/>
+      <c r="AT16" s="347"/>
+      <c r="AU16" s="347"/>
+      <c r="AV16" s="347"/>
+      <c r="AW16" s="347"/>
+      <c r="AX16" s="347"/>
+      <c r="AY16" s="347"/>
+      <c r="AZ16" s="347"/>
+      <c r="BA16" s="347"/>
+      <c r="BB16" s="347"/>
+      <c r="BC16" s="347"/>
+      <c r="BD16" s="347"/>
+      <c r="BE16" s="347"/>
+      <c r="BF16" s="347"/>
+      <c r="BG16" s="347"/>
+      <c r="BH16" s="347"/>
+      <c r="BI16" s="347"/>
+      <c r="BJ16" s="347"/>
+      <c r="BK16" s="347"/>
+      <c r="BL16" s="347"/>
+      <c r="BM16" s="334"/>
+      <c r="BN16" s="335"/>
+    </row>
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="171">
         <v>9</v>
       </c>
@@ -12450,51 +14177,51 @@
       <c r="AA17" s="174"/>
       <c r="AB17" s="175"/>
       <c r="AC17" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD17" s="179"/>
       <c r="AE17" s="179"/>
       <c r="AF17" s="179"/>
       <c r="AG17" s="180"/>
       <c r="AH17" s="173" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="AI17" s="174"/>
       <c r="AJ17" s="174"/>
       <c r="AK17" s="174"/>
       <c r="AL17" s="174"/>
       <c r="AM17" s="174"/>
-      <c r="AN17" s="192"/>
-      <c r="AO17" s="184" t="s">
+      <c r="AN17" s="340"/>
+      <c r="AO17" s="346" t="s">
         <v>91</v>
       </c>
-      <c r="AP17" s="185"/>
-      <c r="AQ17" s="185"/>
-      <c r="AR17" s="185"/>
-      <c r="AS17" s="185"/>
-      <c r="AT17" s="185"/>
-      <c r="AU17" s="185"/>
-      <c r="AV17" s="185"/>
-      <c r="AW17" s="185"/>
-      <c r="AX17" s="185"/>
-      <c r="AY17" s="185"/>
-      <c r="AZ17" s="185"/>
-      <c r="BA17" s="185"/>
-      <c r="BB17" s="185"/>
-      <c r="BC17" s="185"/>
-      <c r="BD17" s="185"/>
-      <c r="BE17" s="185"/>
-      <c r="BF17" s="185"/>
-      <c r="BG17" s="185"/>
-      <c r="BH17" s="185"/>
-      <c r="BI17" s="185"/>
-      <c r="BJ17" s="185"/>
-      <c r="BK17" s="185"/>
-      <c r="BL17" s="185"/>
-      <c r="BM17" s="186"/>
-      <c r="BN17" s="187"/>
-    </row>
-    <row r="18" customHeight="1" ht="13">
+      <c r="AP17" s="347"/>
+      <c r="AQ17" s="347"/>
+      <c r="AR17" s="347"/>
+      <c r="AS17" s="347"/>
+      <c r="AT17" s="347"/>
+      <c r="AU17" s="347"/>
+      <c r="AV17" s="347"/>
+      <c r="AW17" s="347"/>
+      <c r="AX17" s="347"/>
+      <c r="AY17" s="347"/>
+      <c r="AZ17" s="347"/>
+      <c r="BA17" s="347"/>
+      <c r="BB17" s="347"/>
+      <c r="BC17" s="347"/>
+      <c r="BD17" s="347"/>
+      <c r="BE17" s="347"/>
+      <c r="BF17" s="347"/>
+      <c r="BG17" s="347"/>
+      <c r="BH17" s="347"/>
+      <c r="BI17" s="347"/>
+      <c r="BJ17" s="347"/>
+      <c r="BK17" s="347"/>
+      <c r="BL17" s="347"/>
+      <c r="BM17" s="334"/>
+      <c r="BN17" s="335"/>
+    </row>
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="197">
         <v>10</v>
       </c>
@@ -12536,63 +14263,61 @@
       <c r="AA18" s="174"/>
       <c r="AB18" s="175"/>
       <c r="AC18" s="178" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AD18" s="179"/>
       <c r="AE18" s="179"/>
       <c r="AF18" s="179"/>
       <c r="AG18" s="180"/>
       <c r="AH18" s="173" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="AI18" s="174"/>
       <c r="AJ18" s="174"/>
       <c r="AK18" s="174"/>
       <c r="AL18" s="174"/>
       <c r="AM18" s="174"/>
-      <c r="AN18" s="192"/>
-      <c r="AO18" s="184" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP18" s="185"/>
-      <c r="AQ18" s="185"/>
-      <c r="AR18" s="185"/>
-      <c r="AS18" s="185"/>
-      <c r="AT18" s="185"/>
-      <c r="AU18" s="185"/>
-      <c r="AV18" s="185"/>
-      <c r="AW18" s="185"/>
-      <c r="AX18" s="185"/>
-      <c r="AY18" s="185"/>
-      <c r="AZ18" s="185"/>
-      <c r="BA18" s="185"/>
-      <c r="BB18" s="185"/>
-      <c r="BC18" s="185"/>
-      <c r="BD18" s="185"/>
-      <c r="BE18" s="185"/>
-      <c r="BF18" s="185"/>
-      <c r="BG18" s="185"/>
-      <c r="BH18" s="185"/>
-      <c r="BI18" s="185"/>
-      <c r="BJ18" s="185"/>
-      <c r="BK18" s="185"/>
-      <c r="BL18" s="185"/>
-      <c r="BM18" s="199"/>
-      <c r="BN18" s="200"/>
-    </row>
-    <row r="19" customHeight="1" ht="13">
+      <c r="AN18" s="340"/>
+      <c r="AO18" s="348"/>
+      <c r="AP18" s="349"/>
+      <c r="AQ18" s="349"/>
+      <c r="AR18" s="349"/>
+      <c r="AS18" s="349"/>
+      <c r="AT18" s="349"/>
+      <c r="AU18" s="349"/>
+      <c r="AV18" s="349"/>
+      <c r="AW18" s="349"/>
+      <c r="AX18" s="349"/>
+      <c r="AY18" s="349"/>
+      <c r="AZ18" s="349"/>
+      <c r="BA18" s="349"/>
+      <c r="BB18" s="349"/>
+      <c r="BC18" s="349"/>
+      <c r="BD18" s="349"/>
+      <c r="BE18" s="349"/>
+      <c r="BF18" s="349"/>
+      <c r="BG18" s="349"/>
+      <c r="BH18" s="349"/>
+      <c r="BI18" s="349"/>
+      <c r="BJ18" s="349"/>
+      <c r="BK18" s="349"/>
+      <c r="BL18" s="349"/>
+      <c r="BM18" s="336"/>
+      <c r="BN18" s="337"/>
+    </row>
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="201"/>
       <c r="B19" s="201"/>
     </row>
-    <row r="20" customHeight="1" ht="13">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="201"/>
       <c r="B20" s="201"/>
     </row>
-    <row r="21" customHeight="1" ht="13">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="201"/>
       <c r="B21" s="201"/>
     </row>
-    <row r="22" customHeight="1" ht="13">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="201"/>
       <c r="B22" s="201"/>
     </row>
@@ -12600,11 +14325,11 @@
       <c r="A23" s="201"/>
       <c r="B23" s="201"/>
     </row>
-    <row r="24" customHeight="1" ht="14">
+    <row r="24" customHeight="1" ht="13">
       <c r="A24" s="201"/>
       <c r="B24" s="201"/>
     </row>
-    <row r="25" customHeight="1" ht="13">
+    <row r="25" customHeight="1" ht="12">
       <c r="A25" s="201"/>
       <c r="B25" s="201"/>
     </row>
@@ -12616,39 +14341,39 @@
       <c r="A27" s="201"/>
       <c r="B27" s="201"/>
     </row>
-    <row r="28" customHeight="1" ht="13">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="201"/>
       <c r="B28" s="201"/>
     </row>
-    <row r="29" customHeight="1" ht="13">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="201"/>
       <c r="B29" s="201"/>
     </row>
-    <row r="30" customHeight="1" ht="13">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="201"/>
       <c r="B30" s="201"/>
     </row>
-    <row r="31" customHeight="1" ht="13">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="202"/>
       <c r="B31" s="202"/>
     </row>
-    <row r="32" customHeight="1" ht="13">
+    <row r="32" customHeight="1" ht="12">
       <c r="A32" s="202"/>
       <c r="B32" s="202"/>
     </row>
-    <row r="33" customHeight="1" ht="13">
+    <row r="33" customHeight="1" ht="12">
       <c r="A33" s="202"/>
       <c r="B33" s="202"/>
     </row>
-    <row r="34" customHeight="1" ht="13">
+    <row r="34" customHeight="1" ht="12">
       <c r="A34" s="202"/>
       <c r="B34" s="202"/>
     </row>
-    <row r="35" customHeight="1" ht="13">
+    <row r="35" customHeight="1" ht="12">
       <c r="A35" s="202"/>
       <c r="B35" s="202"/>
     </row>
-    <row r="36" customHeight="1" ht="13">
+    <row r="36" customHeight="1" ht="12">
       <c r="A36" s="202"/>
       <c r="B36" s="202"/>
     </row>
@@ -12791,8 +14516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AT26" sqref="AT26" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12928,7 +14653,7 @@
     <col min="16195" max="16384" width="2.125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11">
+    <row r="1" ht="10">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -12996,7 +14721,7 @@
       <c r="BM1" s="39"/>
       <c r="BN1" s="41"/>
     </row>
-    <row r="2" ht="11">
+    <row r="2" ht="10">
       <c r="A2" s="43" t="s">
         <v>107</v>
       </c>
@@ -13052,7 +14777,7 @@
       <c r="BM2" s="46"/>
       <c r="BN2" s="47"/>
     </row>
-    <row r="3" ht="11">
+    <row r="3" ht="10">
       <c r="A3" s="130"/>
       <c r="B3" s="131"/>
       <c r="C3" s="131"/>
@@ -13208,7 +14933,7 @@
       <c r="BM4" s="65"/>
       <c r="BN4" s="66"/>
     </row>
-    <row r="5" ht="19">
+    <row r="5" ht="18">
       <c r="A5" s="67" t="s">
         <v>19</v>
       </c>
@@ -13355,7 +15080,7 @@
       <c r="BM6" s="150"/>
       <c r="BN6" s="204"/>
     </row>
-    <row r="7" ht="11" customFormat="1" s="208">
+    <row r="7" ht="10" customFormat="1" s="208">
       <c r="A7" s="205" t="s">
         <v>108</v>
       </c>
@@ -13429,9 +15154,9 @@
       <c r="BM7" s="206"/>
       <c r="BN7" s="207"/>
     </row>
-    <row r="8" ht="10" customFormat="1" s="104">
+    <row r="8" customFormat="1" s="104">
       <c r="A8" s="209" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B8" s="209"/>
       <c r="C8" s="209"/>
@@ -13448,7 +15173,7 @@
       <c r="N8" s="209"/>
       <c r="O8" s="209"/>
       <c r="P8" s="210" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="210"/>
       <c r="R8" s="210"/>
@@ -13479,7 +15204,7 @@
       <c r="AQ8" s="210"/>
       <c r="AR8" s="210"/>
       <c r="AS8" s="211" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="AT8" s="212"/>
       <c r="AU8" s="212"/>
@@ -13503,10 +15228,8 @@
       <c r="BM8" s="212"/>
       <c r="BN8" s="213"/>
     </row>
-    <row r="9" ht="10" customFormat="1" s="104">
-      <c r="A9" s="209" t="s">
-        <v>113</v>
-      </c>
+    <row r="9" customFormat="1" s="104">
+      <c r="A9" s="209"/>
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="209"/>
@@ -13521,9 +15244,7 @@
       <c r="M9" s="209"/>
       <c r="N9" s="209"/>
       <c r="O9" s="209"/>
-      <c r="P9" s="210" t="s">
-        <v>114</v>
-      </c>
+      <c r="P9" s="210"/>
       <c r="Q9" s="210"/>
       <c r="R9" s="210"/>
       <c r="S9" s="210"/>
@@ -13552,9 +15273,7 @@
       <c r="AP9" s="210"/>
       <c r="AQ9" s="210"/>
       <c r="AR9" s="210"/>
-      <c r="AS9" s="211" t="s">
-        <v>115</v>
-      </c>
+      <c r="AS9" s="211"/>
       <c r="AT9" s="212"/>
       <c r="AU9" s="212"/>
       <c r="AV9" s="212"/>
@@ -13577,7 +15296,7 @@
       <c r="BM9" s="212"/>
       <c r="BN9" s="213"/>
     </row>
-    <row r="10" ht="10" customFormat="1" s="104">
+    <row r="10" ht="9" customFormat="1" s="104">
       <c r="A10" s="214"/>
       <c r="B10" s="214"/>
       <c r="C10" s="214"/>
@@ -13645,7 +15364,7 @@
       <c r="BM10" s="216"/>
       <c r="BN10" s="217"/>
     </row>
-    <row r="11" ht="10" customFormat="1" s="104">
+    <row r="11" ht="9" customFormat="1" s="104">
       <c r="A11" s="214"/>
       <c r="B11" s="214"/>
       <c r="C11" s="214"/>
@@ -13713,7 +15432,7 @@
       <c r="BM11" s="216"/>
       <c r="BN11" s="217"/>
     </row>
-    <row r="12" ht="10" customFormat="1" s="104">
+    <row r="12" ht="9" customFormat="1" s="104">
       <c r="A12" s="214"/>
       <c r="B12" s="214"/>
       <c r="C12" s="214"/>
@@ -13781,7 +15500,7 @@
       <c r="BM12" s="220"/>
       <c r="BN12" s="221"/>
     </row>
-    <row r="13" ht="10" customFormat="1" s="104">
+    <row r="13" ht="9" customFormat="1" s="104">
       <c r="A13" s="214"/>
       <c r="B13" s="214"/>
       <c r="C13" s="214"/>
@@ -13849,7 +15568,7 @@
       <c r="BM13" s="220"/>
       <c r="BN13" s="221"/>
     </row>
-    <row r="14" ht="10" customFormat="1" s="104">
+    <row r="14" ht="9" customFormat="1" s="104">
       <c r="A14" s="214"/>
       <c r="B14" s="214"/>
       <c r="C14" s="214"/>
@@ -13917,7 +15636,7 @@
       <c r="BM14" s="220"/>
       <c r="BN14" s="221"/>
     </row>
-    <row r="15" ht="11">
+    <row r="15" ht="10">
       <c r="A15" s="214"/>
       <c r="B15" s="214"/>
       <c r="C15" s="214"/>
@@ -13985,8 +15704,8 @@
       <c r="BM15" s="220"/>
       <c r="BN15" s="221"/>
     </row>
-    <row r="16" ht="11"/>
-    <row r="17" ht="11">
+    <row r="16" ht="10"/>
+    <row r="17" ht="10">
       <c r="P17" s="222"/>
     </row>
   </sheetData>
